--- a/querymodule/doc/API field lists.xlsx
+++ b/querymodule/doc/API field lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="8"/>
+    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="patent" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6534" uniqueCount="554">
   <si>
     <t>API Field Name</t>
   </si>
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21250,7 +21250,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21288,6 +21288,9 @@
       </c>
       <c r="I1" s="14" t="s">
         <v>230</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -30010,7 +30013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -35487,7 +35490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -36047,7 +36050,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -36064,7 +36067,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -36081,7 +36084,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -36183,7 +36186,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -36200,7 +36203,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -36251,7 +36254,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -36285,7 +36288,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -36302,7 +36305,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -36387,7 +36390,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -36404,7 +36407,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -36591,7 +36594,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -36744,7 +36747,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -36795,7 +36798,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>44</v>
       </c>

--- a/querymodule/doc/API field lists.xlsx
+++ b/querymodule/doc/API field lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="6"/>
+    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="patent" sheetId="1" r:id="rId1"/>
@@ -1454,9 +1454,6 @@
     <t>Inventor's city on a patent</t>
   </si>
   <si>
-    <t>Inventor's country on a patnet</t>
-  </si>
-  <si>
     <t>Inventor's city on most recent patent</t>
   </si>
   <si>
@@ -1696,6 +1693,9 @@
   </si>
   <si>
     <t>http://www.uspto.gov/web/patents/classification/selectbynum.htm</t>
+  </si>
+  <si>
+    <t>Inventor's country on a patent</t>
   </si>
 </sst>
 </file>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="J61" s="32" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patnet</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="J35" s="32" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patnet</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -18385,7 +18385,7 @@
       </c>
       <c r="J42" s="32" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patnet</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="J42" s="32" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patnet</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -27149,7 +27149,7 @@
       </c>
       <c r="J42" s="32" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patnet</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -30013,8 +30013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35490,9 +35490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35534,7 +35532,7 @@
         <v>327</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" x14ac:dyDescent="0.25">
@@ -35548,10 +35546,10 @@
         <v>325</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -35585,7 +35583,7 @@
         <v>329</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" x14ac:dyDescent="0.25">
@@ -35602,7 +35600,7 @@
         <v>330</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -35616,10 +35614,10 @@
         <v>325</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -35633,7 +35631,7 @@
         <v>325</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>460</v>
@@ -35650,10 +35648,10 @@
         <v>325</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -35667,7 +35665,7 @@
         <v>325</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>465</v>
@@ -35684,10 +35682,10 @@
         <v>325</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>516</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="75" x14ac:dyDescent="0.25">
@@ -35735,10 +35733,10 @@
         <v>325</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -35774,10 +35772,10 @@
         <v>325</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -35791,10 +35789,10 @@
         <v>325</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -35808,10 +35806,10 @@
         <v>325</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>544</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -35825,10 +35823,10 @@
         <v>325</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -35842,10 +35840,10 @@
         <v>325</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -35859,10 +35857,10 @@
         <v>325</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -35876,10 +35874,10 @@
         <v>325</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -35893,10 +35891,10 @@
         <v>325</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -35910,7 +35908,7 @@
         <v>325</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>399</v>
@@ -35927,10 +35925,10 @@
         <v>325</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -35944,10 +35942,10 @@
         <v>325</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -35961,7 +35959,7 @@
         <v>325</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>379</v>
@@ -35993,7 +35991,7 @@
         <v>325</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>398</v>
@@ -36010,10 +36008,10 @@
         <v>325</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -36027,10 +36025,10 @@
         <v>325</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -36044,10 +36042,10 @@
         <v>325</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -36061,7 +36059,7 @@
         <v>325</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>397</v>
@@ -36081,7 +36079,7 @@
         <v>346</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -36095,7 +36093,7 @@
         <v>325</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>396</v>
@@ -36115,7 +36113,7 @@
         <v>327</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -36129,7 +36127,7 @@
         <v>325</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>394</v>
@@ -36146,7 +36144,7 @@
         <v>325</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>389</v>
@@ -36163,7 +36161,7 @@
         <v>325</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>388</v>
@@ -36180,7 +36178,7 @@
         <v>325</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>386</v>
@@ -36197,10 +36195,10 @@
         <v>325</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -36214,7 +36212,7 @@
         <v>325</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>384</v>
@@ -36231,10 +36229,10 @@
         <v>325</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -36248,10 +36246,10 @@
         <v>325</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -36265,7 +36263,7 @@
         <v>324</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>413</v>
@@ -36282,7 +36280,7 @@
         <v>324</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>412</v>
@@ -36299,7 +36297,7 @@
         <v>324</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>407</v>
@@ -36316,7 +36314,7 @@
         <v>324</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>408</v>
@@ -36333,7 +36331,7 @@
         <v>324</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>409</v>
@@ -36350,7 +36348,7 @@
         <v>324</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>410</v>
@@ -36367,7 +36365,7 @@
         <v>324</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>378</v>
@@ -36384,7 +36382,7 @@
         <v>324</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>380</v>
@@ -36401,7 +36399,7 @@
         <v>324</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>381</v>
@@ -36418,7 +36416,7 @@
         <v>324</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>382</v>
@@ -36438,7 +36436,7 @@
         <v>347</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -36455,7 +36453,7 @@
         <v>347</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -36472,7 +36470,7 @@
         <v>347</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -36489,7 +36487,7 @@
         <v>347</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -36540,7 +36538,7 @@
         <v>347</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -36557,7 +36555,7 @@
         <v>347</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -36574,7 +36572,7 @@
         <v>347</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -36591,7 +36589,7 @@
         <v>347</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -36625,7 +36623,7 @@
         <v>347</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -36676,7 +36674,7 @@
         <v>347</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -36826,7 +36824,7 @@
         <v>322</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -36860,7 +36858,7 @@
         <v>347</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -36894,7 +36892,7 @@
         <v>347</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -36911,7 +36909,7 @@
         <v>347</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -36945,7 +36943,7 @@
         <v>347</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -36962,7 +36960,7 @@
         <v>347</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -36979,7 +36977,7 @@
         <v>347</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -36996,7 +36994,7 @@
         <v>347</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -37081,7 +37079,7 @@
         <v>347</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -37098,7 +37096,7 @@
         <v>347</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -37149,7 +37147,7 @@
         <v>347</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -37166,7 +37164,7 @@
         <v>347</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -37183,7 +37181,7 @@
         <v>347</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -37200,7 +37198,7 @@
         <v>347</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -37217,7 +37215,7 @@
         <v>347</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -37234,7 +37232,7 @@
         <v>347</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -37319,7 +37317,7 @@
         <v>347</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -37336,7 +37334,7 @@
         <v>347</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -37523,7 +37521,7 @@
         <v>347</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -37540,7 +37538,7 @@
         <v>347</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -37693,7 +37691,7 @@
         <v>347</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -37894,7 +37892,7 @@
         <v>347</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -37911,7 +37909,7 @@
         <v>347</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -37928,7 +37926,7 @@
         <v>347</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -37945,7 +37943,7 @@
         <v>347</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -37962,7 +37960,7 @@
         <v>347</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -38081,7 +38079,7 @@
         <v>347</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -38098,7 +38096,7 @@
         <v>347</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -38234,7 +38232,7 @@
         <v>347</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -38881,7 +38879,7 @@
         <v>347</v>
       </c>
       <c r="E194" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">

--- a/querymodule/doc/API field lists.xlsx
+++ b/querymodule/doc/API field lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="8"/>
+    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="patent" sheetId="1" r:id="rId1"/>
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2388,8 +2388,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2424,8 +2424,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2460,8 +2460,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2496,8 +2496,8 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2532,7 +2532,7 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
@@ -2568,7 +2568,7 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
@@ -2604,7 +2604,7 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -2640,7 +2640,7 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -2676,7 +2676,7 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
@@ -2713,8 +2713,8 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(A12,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2749,8 +2749,8 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+      <c r="F13" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(A13,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2785,8 +2785,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>VLOOKUP(A14,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2821,8 +2821,8 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>VLOOKUP(A15,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2857,8 +2857,8 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>VLOOKUP(A16,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2893,8 +2893,8 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
+      <c r="F17" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(A17,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2929,8 +2929,8 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(A18,Common!$A$2:$B$199,2, FALSE)</f>
@@ -2965,8 +2965,8 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
         <f>VLOOKUP(A19,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3001,8 +3001,8 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
         <f>VLOOKUP(A20,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3037,8 +3037,8 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3073,8 +3073,8 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3109,8 +3109,8 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3145,8 +3145,8 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3181,8 +3181,8 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
+      <c r="F25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3217,8 +3217,8 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3253,8 +3253,8 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3289,8 +3289,8 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3325,8 +3325,8 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3361,8 +3361,8 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3397,8 +3397,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3433,8 +3433,8 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3469,8 +3469,8 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3506,8 +3506,8 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3542,8 +3542,8 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3579,8 +3579,8 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3615,8 +3615,8 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3652,8 +3652,8 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3688,8 +3688,8 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3724,8 +3724,8 @@
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3761,8 +3761,8 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
+      <c r="F41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3797,8 +3797,8 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3833,8 +3833,8 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
+      <c r="F43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3869,8 +3869,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
+      <c r="F44" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3905,8 +3905,8 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
+      <c r="F45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3941,8 +3941,8 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
+      <c r="F46" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -3977,8 +3977,8 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
+      <c r="F47" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4013,8 +4013,8 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4049,8 +4049,8 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
+      <c r="F49" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4085,8 +4085,8 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4121,8 +4121,8 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+      <c r="F51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4157,8 +4157,8 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
+      <c r="F52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4193,8 +4193,8 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
+      <c r="F53" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4229,8 +4229,8 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>17</v>
+      <c r="F54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4265,8 +4265,8 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
+      <c r="F55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4301,8 +4301,8 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4337,8 +4337,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
+      <c r="F57" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4373,8 +4373,8 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4409,8 +4409,8 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>17</v>
+      <c r="F59" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4445,8 +4445,8 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
+      <c r="F60" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4481,8 +4481,8 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
+      <c r="F61" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4517,8 +4517,8 @@
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>17</v>
+      <c r="F62" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4553,8 +4553,8 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
+      <c r="F63" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4589,8 +4589,8 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>17</v>
+      <c r="F64" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4625,8 +4625,8 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>17</v>
+      <c r="F65" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4661,8 +4661,8 @@
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
+      <c r="F66" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4697,8 +4697,8 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>17</v>
+      <c r="F67" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4733,8 +4733,8 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>17</v>
+      <c r="F68" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4769,8 +4769,8 @@
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
+      <c r="F69" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4805,8 +4805,8 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4841,8 +4841,8 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4877,8 +4877,8 @@
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+      <c r="F72" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4913,8 +4913,8 @@
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
+      <c r="F73" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4949,8 +4949,8 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
+      <c r="F74" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
@@ -4985,8 +4985,8 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
+      <c r="F75" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5021,8 +5021,8 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
+      <c r="F76" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5057,8 +5057,8 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
+      <c r="F77" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5093,8 +5093,8 @@
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5129,8 +5129,8 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>17</v>
+      <c r="F79" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5165,8 +5165,8 @@
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>17</v>
+      <c r="F80" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5201,8 +5201,8 @@
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
+      <c r="F81" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5237,8 +5237,8 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
+      <c r="F82" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5273,8 +5273,8 @@
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5309,8 +5309,8 @@
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
+      <c r="F84" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5345,8 +5345,8 @@
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
+      <c r="F85" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5381,8 +5381,8 @@
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+      <c r="F86" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5417,8 +5417,8 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
+      <c r="F87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5453,8 +5453,8 @@
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5489,8 +5489,8 @@
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
+      <c r="F89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5525,8 +5525,8 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+      <c r="F90" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5561,8 +5561,8 @@
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
+      <c r="F91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5597,8 +5597,8 @@
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
+      <c r="F92" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5633,8 +5633,8 @@
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
+      <c r="F93" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5669,8 +5669,8 @@
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+      <c r="F94" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5705,8 +5705,8 @@
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
+      <c r="F95" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5741,8 +5741,8 @@
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
+      <c r="F96" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5777,8 +5777,8 @@
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
+      <c r="F97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5813,8 +5813,8 @@
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>17</v>
+      <c r="F98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5849,8 +5849,8 @@
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>17</v>
+      <c r="F99" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5885,8 +5885,8 @@
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
+      <c r="F100" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5921,8 +5921,8 @@
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
+      <c r="F101" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5957,8 +5957,8 @@
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>17</v>
+      <c r="F102" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -5993,8 +5993,8 @@
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>17</v>
+      <c r="F103" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -6029,7 +6029,7 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
@@ -6065,7 +6065,7 @@
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
@@ -6101,7 +6101,7 @@
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
@@ -6137,7 +6137,7 @@
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
@@ -6173,7 +6173,7 @@
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
@@ -6209,7 +6209,7 @@
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
@@ -6245,7 +6245,7 @@
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
@@ -6281,7 +6281,7 @@
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
@@ -6317,7 +6317,7 @@
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
@@ -6353,7 +6353,7 @@
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
@@ -6389,7 +6389,7 @@
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
@@ -6425,7 +6425,7 @@
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
@@ -6461,7 +6461,7 @@
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
@@ -6497,7 +6497,7 @@
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
@@ -6533,7 +6533,7 @@
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
@@ -6569,7 +6569,7 @@
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
@@ -6605,7 +6605,7 @@
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G120" s="6" t="str">
@@ -6641,7 +6641,7 @@
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G121" s="6" t="str">
@@ -6677,7 +6677,7 @@
       <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="6" t="str">
@@ -6713,7 +6713,7 @@
       <c r="E123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G123" s="6" t="str">
@@ -6749,7 +6749,7 @@
       <c r="E124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G124" s="6" t="str">
@@ -6785,7 +6785,7 @@
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G125" s="6" t="str">
@@ -6821,7 +6821,7 @@
       <c r="E126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G126" s="6" t="str">
@@ -6857,7 +6857,7 @@
       <c r="E127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G127" s="6" t="str">
@@ -6893,7 +6893,7 @@
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="6" t="str">
@@ -6929,7 +6929,7 @@
       <c r="E129" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G129" s="6" t="str">
@@ -6965,7 +6965,7 @@
       <c r="E130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G130" s="6" t="str">
@@ -7001,7 +7001,7 @@
       <c r="E131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G131" s="6" t="str">
@@ -7037,7 +7037,7 @@
       <c r="E132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="6" t="str">
@@ -7073,7 +7073,7 @@
       <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G133" s="6" t="str">
@@ -7109,8 +7109,8 @@
       <c r="E134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>17</v>
+      <c r="F134" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G134" s="6" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7145,8 +7145,8 @@
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>17</v>
+      <c r="F135" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G135" s="6" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7181,8 +7181,8 @@
       <c r="E136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>17</v>
+      <c r="F136" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G136" s="6" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7217,8 +7217,8 @@
       <c r="E137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>17</v>
+      <c r="F137" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G137" s="6" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7253,8 +7253,8 @@
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>17</v>
+      <c r="F138" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G138" s="6" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7289,8 +7289,8 @@
       <c r="E139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>17</v>
+      <c r="F139" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G139" s="6" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7325,8 +7325,8 @@
       <c r="E140" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>17</v>
+      <c r="F140" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G140" s="6" t="str">
         <f>VLOOKUP(A140,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7361,8 +7361,8 @@
       <c r="E141" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>17</v>
+      <c r="F141" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G141" s="6" t="str">
         <f>VLOOKUP(A141,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7397,8 +7397,8 @@
       <c r="E142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>17</v>
+      <c r="F142" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G142" s="6" t="str">
         <f>VLOOKUP(A142,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7433,8 +7433,8 @@
       <c r="E143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>17</v>
+      <c r="F143" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G143" s="6" t="str">
         <f>VLOOKUP(A143,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7523,7 +7523,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F2" sqref="F2:F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7585,7 +7585,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7620,8 +7620,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7656,8 +7656,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7692,8 +7692,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7728,8 +7728,8 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7765,8 +7765,8 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
+      <c r="F7" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
         <f>VLOOKUP(A7,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7801,8 +7801,8 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>VLOOKUP(A8,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7837,8 +7837,8 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
+      <c r="F9" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>VLOOKUP(A9,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7873,8 +7873,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>VLOOKUP(A10,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7909,8 +7909,8 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
+      <c r="F11" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>VLOOKUP(A11,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7945,8 +7945,8 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(A12,Common!$A$2:$B$199,2, FALSE)</f>
@@ -7982,8 +7982,8 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+      <c r="F13" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(A13,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8018,8 +8018,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>VLOOKUP(A14,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8054,8 +8054,8 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>VLOOKUP(A15,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8090,8 +8090,8 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>VLOOKUP(A16,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8126,8 +8126,8 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
+      <c r="F17" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(A17,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8162,8 +8162,8 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(A18,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8198,8 +8198,8 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
         <f>VLOOKUP(A19,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8234,8 +8234,8 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
         <f>VLOOKUP(A20,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8270,8 +8270,8 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8306,8 +8306,8 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8342,8 +8342,8 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8378,8 +8378,8 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8414,8 +8414,8 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
+      <c r="F25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8450,8 +8450,8 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8486,8 +8486,8 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8522,8 +8522,8 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8558,8 +8558,8 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8594,8 +8594,8 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8630,8 +8630,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8666,8 +8666,8 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8702,8 +8702,8 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8738,8 +8738,8 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8774,8 +8774,8 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8810,8 +8810,8 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8846,8 +8846,8 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8882,8 +8882,8 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8918,8 +8918,8 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8954,8 +8954,8 @@
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
@@ -8990,8 +8990,8 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
+      <c r="F41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9026,8 +9026,8 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9062,8 +9062,8 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
+      <c r="F43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9098,8 +9098,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
+      <c r="F44" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9134,8 +9134,8 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
+      <c r="F45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9170,8 +9170,8 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
+      <c r="F46" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9206,8 +9206,8 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
+      <c r="F47" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9242,8 +9242,8 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9278,8 +9278,8 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
+      <c r="F49" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9314,8 +9314,8 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9350,8 +9350,8 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+      <c r="F51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9386,8 +9386,8 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
+      <c r="F52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9422,8 +9422,8 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
+      <c r="F53" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9458,8 +9458,8 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>17</v>
+      <c r="F54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9494,8 +9494,8 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
+      <c r="F55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9530,8 +9530,8 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9566,8 +9566,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
+      <c r="F57" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9602,8 +9602,8 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -9638,7 +9638,7 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
@@ -9674,7 +9674,7 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
@@ -9710,7 +9710,7 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
@@ -9746,7 +9746,7 @@
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
@@ -9782,7 +9782,7 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
@@ -9818,7 +9818,7 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
@@ -9854,7 +9854,7 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
@@ -9890,7 +9890,7 @@
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
@@ -9926,7 +9926,7 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
@@ -9962,7 +9962,7 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
@@ -9998,7 +9998,7 @@
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
@@ -10034,7 +10034,7 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
@@ -10070,8 +10070,8 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10106,8 +10106,8 @@
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+      <c r="F72" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10142,8 +10142,8 @@
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
+      <c r="F73" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10178,8 +10178,8 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
+      <c r="F74" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10214,8 +10214,8 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
+      <c r="F75" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10250,8 +10250,8 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
+      <c r="F76" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10286,8 +10286,8 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
+      <c r="F77" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10322,8 +10322,8 @@
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10358,8 +10358,8 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>17</v>
+      <c r="F79" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10394,8 +10394,8 @@
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>17</v>
+      <c r="F80" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10430,8 +10430,8 @@
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
+      <c r="F81" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10466,8 +10466,8 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
+      <c r="F82" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10502,8 +10502,8 @@
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10538,8 +10538,8 @@
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
+      <c r="F84" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10574,8 +10574,8 @@
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
+      <c r="F85" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10610,8 +10610,8 @@
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+      <c r="F86" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10646,8 +10646,8 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
+      <c r="F87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10682,8 +10682,8 @@
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10718,8 +10718,8 @@
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
+      <c r="F89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10754,8 +10754,8 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+      <c r="F90" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10790,8 +10790,8 @@
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
+      <c r="F91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10826,8 +10826,8 @@
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
+      <c r="F92" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10862,8 +10862,8 @@
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
+      <c r="F93" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10898,8 +10898,8 @@
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+      <c r="F94" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10934,8 +10934,8 @@
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
+      <c r="F95" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -10970,8 +10970,8 @@
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
+      <c r="F96" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11006,8 +11006,8 @@
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
+      <c r="F97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11042,8 +11042,8 @@
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>17</v>
+      <c r="F98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11078,8 +11078,8 @@
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>17</v>
+      <c r="F99" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11114,8 +11114,8 @@
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
+      <c r="F100" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11150,8 +11150,8 @@
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
+      <c r="F101" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11186,8 +11186,8 @@
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>17</v>
+      <c r="F102" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11222,8 +11222,8 @@
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>17</v>
+      <c r="F103" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11258,8 +11258,8 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>17</v>
+      <c r="F104" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11294,8 +11294,8 @@
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>17</v>
+      <c r="F105" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11330,8 +11330,8 @@
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>17</v>
+      <c r="F106" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11366,8 +11366,8 @@
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>17</v>
+      <c r="F107" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11402,8 +11402,8 @@
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>17</v>
+      <c r="F108" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11438,8 +11438,8 @@
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>17</v>
+      <c r="F109" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11474,8 +11474,8 @@
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>17</v>
+      <c r="F110" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11510,8 +11510,8 @@
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>17</v>
+      <c r="F111" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11546,8 +11546,8 @@
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>17</v>
+      <c r="F112" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11582,8 +11582,8 @@
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>17</v>
+      <c r="F113" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11618,8 +11618,8 @@
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>17</v>
+      <c r="F114" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11654,8 +11654,8 @@
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>17</v>
+      <c r="F115" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11690,8 +11690,8 @@
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>17</v>
+      <c r="F116" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11726,8 +11726,8 @@
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>17</v>
+      <c r="F117" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11762,8 +11762,8 @@
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>17</v>
+      <c r="F118" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11798,8 +11798,8 @@
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>17</v>
+      <c r="F119" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11834,8 +11834,8 @@
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>17</v>
+      <c r="F120" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11870,8 +11870,8 @@
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>17</v>
+      <c r="F121" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11906,8 +11906,8 @@
       <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>17</v>
+      <c r="F122" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G122" s="6" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11942,8 +11942,8 @@
       <c r="E123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>17</v>
+      <c r="F123" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G123" s="6" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$B$199,2, FALSE)</f>
@@ -11978,8 +11978,8 @@
       <c r="E124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>17</v>
+      <c r="F124" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G124" s="6" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12014,8 +12014,8 @@
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>17</v>
+      <c r="F125" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G125" s="6" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12050,8 +12050,8 @@
       <c r="E126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>17</v>
+      <c r="F126" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G126" s="6" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12086,8 +12086,8 @@
       <c r="E127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>17</v>
+      <c r="F127" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G127" s="6" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12122,8 +12122,8 @@
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>17</v>
+      <c r="F128" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G128" s="6" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12158,8 +12158,8 @@
       <c r="E129" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>17</v>
+      <c r="F129" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G129" s="6" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12194,8 +12194,8 @@
       <c r="E130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>17</v>
+      <c r="F130" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G130" s="6" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12230,8 +12230,8 @@
       <c r="E131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>17</v>
+      <c r="F131" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G131" s="6" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12266,8 +12266,8 @@
       <c r="E132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>17</v>
+      <c r="F132" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G132" s="6" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12302,8 +12302,8 @@
       <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>17</v>
+      <c r="F133" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G133" s="6" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12338,8 +12338,8 @@
       <c r="E134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>17</v>
+      <c r="F134" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G134" s="6" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12374,8 +12374,8 @@
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>17</v>
+      <c r="F135" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G135" s="6" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12410,8 +12410,8 @@
       <c r="E136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>17</v>
+      <c r="F136" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G136" s="6" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12446,8 +12446,8 @@
       <c r="E137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>17</v>
+      <c r="F137" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G137" s="6" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12482,8 +12482,8 @@
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>17</v>
+      <c r="F138" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G138" s="6" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12518,8 +12518,8 @@
       <c r="E139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>17</v>
+      <c r="F139" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G139" s="6" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12557,7 +12557,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="F2" sqref="F2:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12617,7 +12617,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12652,8 +12652,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12688,8 +12688,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12724,8 +12724,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12760,8 +12760,8 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -12797,7 +12797,7 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
@@ -12833,7 +12833,7 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
@@ -12869,7 +12869,7 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -12905,7 +12905,7 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -12941,7 +12941,7 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
@@ -12977,7 +12977,7 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
@@ -13013,7 +13013,7 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
@@ -13049,7 +13049,7 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
@@ -13085,7 +13085,7 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
@@ -13121,7 +13121,7 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
@@ -13157,7 +13157,7 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
@@ -13193,7 +13193,7 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
@@ -13229,7 +13229,7 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
@@ -13265,7 +13265,7 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
@@ -13301,8 +13301,8 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13337,8 +13337,8 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13373,8 +13373,8 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13409,8 +13409,8 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13445,8 +13445,8 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
+      <c r="F25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13481,8 +13481,8 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13517,8 +13517,8 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13553,8 +13553,8 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13589,8 +13589,8 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13625,8 +13625,8 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13661,8 +13661,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13697,8 +13697,8 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13733,8 +13733,8 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13769,8 +13769,8 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13805,8 +13805,8 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13841,8 +13841,8 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13877,8 +13877,8 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13913,8 +13913,8 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13949,8 +13949,8 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
@@ -13985,8 +13985,8 @@
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14021,8 +14021,8 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
+      <c r="F41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14057,8 +14057,8 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14093,8 +14093,8 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
+      <c r="F43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14129,8 +14129,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
+      <c r="F44" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14165,8 +14165,8 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
+      <c r="F45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14201,8 +14201,8 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
+      <c r="F46" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14237,8 +14237,8 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
+      <c r="F47" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14273,8 +14273,8 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14309,8 +14309,8 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
+      <c r="F49" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14345,8 +14345,8 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14381,8 +14381,8 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+      <c r="F51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14417,8 +14417,8 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
+      <c r="F52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14453,8 +14453,8 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
+      <c r="F53" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14489,8 +14489,8 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>17</v>
+      <c r="F54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14525,8 +14525,8 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
+      <c r="F55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14561,8 +14561,8 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14597,8 +14597,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
+      <c r="F57" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14633,8 +14633,8 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14669,8 +14669,8 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>17</v>
+      <c r="F59" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14705,8 +14705,8 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
+      <c r="F60" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14741,8 +14741,8 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
+      <c r="F61" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14777,8 +14777,8 @@
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>17</v>
+      <c r="F62" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14813,8 +14813,8 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
+      <c r="F63" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14849,8 +14849,8 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>17</v>
+      <c r="F64" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14885,8 +14885,8 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>17</v>
+      <c r="F65" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14921,8 +14921,8 @@
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
+      <c r="F66" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14957,8 +14957,8 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>17</v>
+      <c r="F67" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
@@ -14993,8 +14993,8 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>17</v>
+      <c r="F68" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15029,8 +15029,8 @@
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
+      <c r="F69" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15065,8 +15065,8 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15101,8 +15101,8 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15137,8 +15137,8 @@
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+      <c r="F72" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15173,8 +15173,8 @@
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
+      <c r="F73" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15209,8 +15209,8 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
+      <c r="F74" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15245,8 +15245,8 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
+      <c r="F75" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15281,8 +15281,8 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
+      <c r="F76" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15317,8 +15317,8 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
+      <c r="F77" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15353,8 +15353,8 @@
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15389,8 +15389,8 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>17</v>
+      <c r="F79" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15425,8 +15425,8 @@
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>17</v>
+      <c r="F80" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15461,8 +15461,8 @@
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
+      <c r="F81" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15497,8 +15497,8 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
+      <c r="F82" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15533,8 +15533,8 @@
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15569,8 +15569,8 @@
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
+      <c r="F84" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15605,8 +15605,8 @@
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
+      <c r="F85" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15641,8 +15641,8 @@
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+      <c r="F86" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15677,8 +15677,8 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
+      <c r="F87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15713,8 +15713,8 @@
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15749,8 +15749,8 @@
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
+      <c r="F89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15785,8 +15785,8 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+      <c r="F90" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15821,8 +15821,8 @@
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
+      <c r="F91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15857,8 +15857,8 @@
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
+      <c r="F92" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15893,8 +15893,8 @@
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
+      <c r="F93" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15929,8 +15929,8 @@
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+      <c r="F94" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -15965,8 +15965,8 @@
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
+      <c r="F95" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16001,8 +16001,8 @@
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
+      <c r="F96" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16037,8 +16037,8 @@
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
+      <c r="F97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16073,8 +16073,8 @@
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>17</v>
+      <c r="F98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16109,8 +16109,8 @@
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>17</v>
+      <c r="F99" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16145,8 +16145,8 @@
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
+      <c r="F100" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16181,8 +16181,8 @@
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
+      <c r="F101" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16217,8 +16217,8 @@
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>17</v>
+      <c r="F102" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16253,8 +16253,8 @@
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>17</v>
+      <c r="F103" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16289,8 +16289,8 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>17</v>
+      <c r="F104" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16325,8 +16325,8 @@
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>17</v>
+      <c r="F105" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16361,8 +16361,8 @@
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>17</v>
+      <c r="F106" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16397,8 +16397,8 @@
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>17</v>
+      <c r="F107" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16433,8 +16433,8 @@
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>17</v>
+      <c r="F108" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16469,8 +16469,8 @@
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>17</v>
+      <c r="F109" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16505,8 +16505,8 @@
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>17</v>
+      <c r="F110" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16541,8 +16541,8 @@
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>17</v>
+      <c r="F111" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16577,8 +16577,8 @@
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>17</v>
+      <c r="F112" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16613,8 +16613,8 @@
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>17</v>
+      <c r="F113" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16649,8 +16649,8 @@
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>17</v>
+      <c r="F114" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16685,8 +16685,8 @@
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>17</v>
+      <c r="F115" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16721,8 +16721,8 @@
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>17</v>
+      <c r="F116" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16757,8 +16757,8 @@
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>17</v>
+      <c r="F117" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16793,8 +16793,8 @@
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>17</v>
+      <c r="F118" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16829,8 +16829,8 @@
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>17</v>
+      <c r="F119" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16868,7 +16868,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F2" sqref="F2:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16928,7 +16928,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16963,8 +16963,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -16999,8 +16999,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17035,8 +17035,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17071,8 +17071,8 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17108,8 +17108,8 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
+      <c r="F7" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
         <f>VLOOKUP(A7,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17144,8 +17144,8 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>VLOOKUP(A8,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17180,8 +17180,8 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
+      <c r="F9" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>VLOOKUP(A9,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17216,8 +17216,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>VLOOKUP(A10,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17252,8 +17252,8 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
+      <c r="F11" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>VLOOKUP(A11,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17288,8 +17288,8 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(A12,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17324,8 +17324,8 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+      <c r="F13" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(A13,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17360,8 +17360,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>VLOOKUP(A14,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17396,8 +17396,8 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>VLOOKUP(A15,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17432,8 +17432,8 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>VLOOKUP(A16,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17468,8 +17468,8 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
+      <c r="F17" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(A17,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17504,8 +17504,8 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(A18,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17540,8 +17540,8 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
         <f>VLOOKUP(A19,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17576,8 +17576,8 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
         <f>VLOOKUP(A20,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17612,8 +17612,8 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17648,8 +17648,8 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17684,8 +17684,8 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17720,8 +17720,8 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17756,8 +17756,8 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
+      <c r="F25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17792,8 +17792,8 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17828,8 +17828,8 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17864,8 +17864,8 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17900,8 +17900,8 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17936,8 +17936,8 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -17972,8 +17972,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18008,7 +18008,7 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
@@ -18044,7 +18044,7 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
@@ -18080,7 +18080,7 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
@@ -18116,7 +18116,7 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
@@ -18152,7 +18152,7 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
@@ -18188,7 +18188,7 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
@@ -18224,7 +18224,7 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
@@ -18260,7 +18260,7 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
@@ -18296,7 +18296,7 @@
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
@@ -18332,8 +18332,8 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
+      <c r="F41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18368,8 +18368,8 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18404,8 +18404,8 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
+      <c r="F43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18440,8 +18440,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
+      <c r="F44" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18476,8 +18476,8 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
+      <c r="F45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18512,8 +18512,8 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
+      <c r="F46" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18548,8 +18548,8 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
+      <c r="F47" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18584,8 +18584,8 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18620,8 +18620,8 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
+      <c r="F49" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18656,8 +18656,8 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18692,8 +18692,8 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+      <c r="F51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18728,8 +18728,8 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
+      <c r="F52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18764,8 +18764,8 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
+      <c r="F53" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18800,8 +18800,8 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>17</v>
+      <c r="F54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18836,8 +18836,8 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
+      <c r="F55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18872,8 +18872,8 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18908,8 +18908,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
+      <c r="F57" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18944,8 +18944,8 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -18980,8 +18980,8 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>17</v>
+      <c r="F59" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19016,8 +19016,8 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
+      <c r="F60" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19052,8 +19052,8 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
+      <c r="F61" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19088,8 +19088,8 @@
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>17</v>
+      <c r="F62" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19124,8 +19124,8 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
+      <c r="F63" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19160,8 +19160,8 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>17</v>
+      <c r="F64" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19196,8 +19196,8 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>17</v>
+      <c r="F65" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19232,8 +19232,8 @@
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
+      <c r="F66" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19268,8 +19268,8 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>17</v>
+      <c r="F67" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19304,8 +19304,8 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>17</v>
+      <c r="F68" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19340,8 +19340,8 @@
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
+      <c r="F69" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19376,8 +19376,8 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19412,8 +19412,8 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19448,8 +19448,8 @@
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+      <c r="F72" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19484,8 +19484,8 @@
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
+      <c r="F73" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19520,8 +19520,8 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
+      <c r="F74" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19556,8 +19556,8 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
+      <c r="F75" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19592,8 +19592,8 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
+      <c r="F76" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19628,8 +19628,8 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
+      <c r="F77" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19664,8 +19664,8 @@
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19700,8 +19700,8 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>17</v>
+      <c r="F79" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19736,8 +19736,8 @@
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>17</v>
+      <c r="F80" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19772,8 +19772,8 @@
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
+      <c r="F81" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19808,8 +19808,8 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
+      <c r="F82" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19844,8 +19844,8 @@
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19880,8 +19880,8 @@
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
+      <c r="F84" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19916,8 +19916,8 @@
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
+      <c r="F85" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19952,8 +19952,8 @@
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+      <c r="F86" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -19988,8 +19988,8 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
+      <c r="F87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20024,8 +20024,8 @@
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20060,8 +20060,8 @@
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
+      <c r="F89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20096,8 +20096,8 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+      <c r="F90" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20132,8 +20132,8 @@
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
+      <c r="F91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20168,8 +20168,8 @@
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
+      <c r="F92" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20204,8 +20204,8 @@
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
+      <c r="F93" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20240,8 +20240,8 @@
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+      <c r="F94" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20276,8 +20276,8 @@
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
+      <c r="F95" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20312,8 +20312,8 @@
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
+      <c r="F96" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20348,8 +20348,8 @@
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
+      <c r="F97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20384,8 +20384,8 @@
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>17</v>
+      <c r="F98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20420,8 +20420,8 @@
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>17</v>
+      <c r="F99" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20456,8 +20456,8 @@
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
+      <c r="F100" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20492,8 +20492,8 @@
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
+      <c r="F101" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20528,8 +20528,8 @@
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>17</v>
+      <c r="F102" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20564,8 +20564,8 @@
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>17</v>
+      <c r="F103" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20600,8 +20600,8 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>17</v>
+      <c r="F104" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20636,8 +20636,8 @@
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>17</v>
+      <c r="F105" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20672,8 +20672,8 @@
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>17</v>
+      <c r="F106" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20708,8 +20708,8 @@
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>17</v>
+      <c r="F107" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20744,8 +20744,8 @@
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>17</v>
+      <c r="F108" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20780,8 +20780,8 @@
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>17</v>
+      <c r="F109" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20816,8 +20816,8 @@
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>17</v>
+      <c r="F110" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20852,8 +20852,8 @@
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>17</v>
+      <c r="F111" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20888,8 +20888,8 @@
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>17</v>
+      <c r="F112" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20924,8 +20924,8 @@
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>17</v>
+      <c r="F113" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20960,8 +20960,8 @@
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>17</v>
+      <c r="F114" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
@@ -20996,8 +20996,8 @@
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>17</v>
+      <c r="F115" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21032,8 +21032,8 @@
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>17</v>
+      <c r="F116" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21068,8 +21068,8 @@
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>17</v>
+      <c r="F117" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21104,8 +21104,8 @@
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>17</v>
+      <c r="F118" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21140,8 +21140,8 @@
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>17</v>
+      <c r="F119" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21176,8 +21176,8 @@
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>17</v>
+      <c r="F120" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21212,8 +21212,8 @@
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>17</v>
+      <c r="F121" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21250,7 +21250,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21310,7 +21310,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21345,8 +21345,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21381,8 +21381,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21417,8 +21417,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21453,8 +21453,8 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21490,8 +21490,8 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
+      <c r="F7" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
         <f>VLOOKUP(A7,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21526,8 +21526,8 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>VLOOKUP(A8,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21562,8 +21562,8 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
+      <c r="F9" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>VLOOKUP(A9,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21598,8 +21598,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>VLOOKUP(A10,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21634,8 +21634,8 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
+      <c r="F11" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>VLOOKUP(A11,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21670,8 +21670,8 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(A12,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21706,8 +21706,8 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+      <c r="F13" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(A13,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21742,8 +21742,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>VLOOKUP(A14,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21778,8 +21778,8 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>VLOOKUP(A15,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21814,8 +21814,8 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>VLOOKUP(A16,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21850,8 +21850,8 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
+      <c r="F17" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(A17,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21886,8 +21886,8 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(A18,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21922,8 +21922,8 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
         <f>VLOOKUP(A19,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21958,8 +21958,8 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
         <f>VLOOKUP(A20,Common!$A$2:$B$199,2, FALSE)</f>
@@ -21994,8 +21994,8 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22030,8 +22030,8 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22066,8 +22066,8 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22102,8 +22102,8 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22138,8 +22138,8 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
+      <c r="F25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22174,8 +22174,8 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22210,8 +22210,8 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22246,8 +22246,8 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22282,8 +22282,8 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22318,8 +22318,8 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22354,8 +22354,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22390,8 +22390,8 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22426,8 +22426,8 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22462,8 +22462,8 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22498,8 +22498,8 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22534,8 +22534,8 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22570,8 +22570,8 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22606,8 +22606,8 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22642,8 +22642,8 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22678,8 +22678,8 @@
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22714,8 +22714,8 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
+      <c r="F41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22750,8 +22750,8 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22786,8 +22786,8 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
+      <c r="F43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22822,8 +22822,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
+      <c r="F44" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22858,8 +22858,8 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
+      <c r="F45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22894,8 +22894,8 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
+      <c r="F46" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22930,8 +22930,8 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
+      <c r="F47" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -22966,8 +22966,8 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23002,8 +23002,8 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
+      <c r="F49" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23038,8 +23038,8 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23074,8 +23074,8 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+      <c r="F51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23110,8 +23110,8 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
+      <c r="F52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23146,8 +23146,8 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
+      <c r="F53" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23182,8 +23182,8 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>17</v>
+      <c r="F54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23218,8 +23218,8 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
+      <c r="F55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23254,8 +23254,8 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23290,8 +23290,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
+      <c r="F57" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23326,8 +23326,8 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23362,8 +23362,8 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>17</v>
+      <c r="F59" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23398,8 +23398,8 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
+      <c r="F60" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23434,8 +23434,8 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
+      <c r="F61" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23470,8 +23470,8 @@
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>17</v>
+      <c r="F62" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23506,8 +23506,8 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
+      <c r="F63" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23542,8 +23542,8 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>17</v>
+      <c r="F64" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23578,8 +23578,8 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>17</v>
+      <c r="F65" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23614,8 +23614,8 @@
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
+      <c r="F66" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23650,8 +23650,8 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>17</v>
+      <c r="F67" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23686,8 +23686,8 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>17</v>
+      <c r="F68" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23722,8 +23722,8 @@
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
+      <c r="F69" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23758,8 +23758,8 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23794,8 +23794,8 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23830,8 +23830,8 @@
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+      <c r="F72" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23866,8 +23866,8 @@
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
+      <c r="F73" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23902,8 +23902,8 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>17</v>
+      <c r="F74" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23938,8 +23938,8 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>17</v>
+      <c r="F75" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
@@ -23974,8 +23974,8 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>17</v>
+      <c r="F76" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24010,8 +24010,8 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
+      <c r="F77" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24046,8 +24046,8 @@
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24082,8 +24082,8 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>17</v>
+      <c r="F79" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24118,8 +24118,8 @@
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>17</v>
+      <c r="F80" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24154,8 +24154,8 @@
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
+      <c r="F81" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24190,8 +24190,8 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
+      <c r="F82" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24226,8 +24226,8 @@
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24262,8 +24262,8 @@
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
+      <c r="F84" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24298,8 +24298,8 @@
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
+      <c r="F85" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24334,8 +24334,8 @@
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+      <c r="F86" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24370,8 +24370,8 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
+      <c r="F87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24406,8 +24406,8 @@
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24442,8 +24442,8 @@
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
+      <c r="F89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24478,8 +24478,8 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+      <c r="F90" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24514,8 +24514,8 @@
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
+      <c r="F91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24550,8 +24550,8 @@
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
+      <c r="F92" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24586,8 +24586,8 @@
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
+      <c r="F93" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24622,8 +24622,8 @@
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+      <c r="F94" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24658,8 +24658,8 @@
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
+      <c r="F95" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24694,8 +24694,8 @@
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
+      <c r="F96" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24730,8 +24730,8 @@
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
+      <c r="F97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24766,8 +24766,8 @@
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>17</v>
+      <c r="F98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24802,8 +24802,8 @@
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>17</v>
+      <c r="F99" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24838,8 +24838,8 @@
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
+      <c r="F100" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24874,8 +24874,8 @@
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
+      <c r="F101" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24910,8 +24910,8 @@
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>17</v>
+      <c r="F102" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24946,8 +24946,8 @@
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>17</v>
+      <c r="F103" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -24982,8 +24982,8 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>17</v>
+      <c r="F104" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25018,8 +25018,8 @@
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>17</v>
+      <c r="F105" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25054,8 +25054,8 @@
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>17</v>
+      <c r="F106" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25090,8 +25090,8 @@
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>17</v>
+      <c r="F107" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25126,8 +25126,8 @@
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>17</v>
+      <c r="F108" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25162,8 +25162,8 @@
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>17</v>
+      <c r="F109" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25198,8 +25198,8 @@
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>17</v>
+      <c r="F110" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25234,7 +25234,7 @@
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
@@ -25270,7 +25270,7 @@
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
@@ -25306,7 +25306,7 @@
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
@@ -25342,7 +25342,7 @@
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
@@ -25378,7 +25378,7 @@
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
@@ -25414,7 +25414,7 @@
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
@@ -25450,7 +25450,7 @@
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
@@ -25486,8 +25486,8 @@
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>17</v>
+      <c r="F118" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25522,8 +25522,8 @@
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>17</v>
+      <c r="F119" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25558,8 +25558,8 @@
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>17</v>
+      <c r="F120" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25594,8 +25594,8 @@
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>17</v>
+      <c r="F121" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25632,7 +25632,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25692,7 +25692,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25727,8 +25727,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25763,8 +25763,8 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25799,8 +25799,8 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25835,8 +25835,8 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25872,8 +25872,8 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
+      <c r="F7" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
         <f>VLOOKUP(A7,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25908,8 +25908,8 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+      <c r="F8" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
         <f>VLOOKUP(A8,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25944,8 +25944,8 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
+      <c r="F9" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>VLOOKUP(A9,Common!$A$2:$B$199,2, FALSE)</f>
@@ -25980,8 +25980,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>VLOOKUP(A10,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26016,8 +26016,8 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
+      <c r="F11" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>VLOOKUP(A11,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26052,8 +26052,8 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(A12,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26088,8 +26088,8 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+      <c r="F13" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(A13,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26124,8 +26124,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>VLOOKUP(A14,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26160,8 +26160,8 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>VLOOKUP(A15,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26196,8 +26196,8 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>VLOOKUP(A16,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26232,8 +26232,8 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
+      <c r="F17" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(A17,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26268,8 +26268,8 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(A18,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26304,8 +26304,8 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
         <f>VLOOKUP(A19,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26340,8 +26340,8 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
         <f>VLOOKUP(A20,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26376,8 +26376,8 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26412,8 +26412,8 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26448,8 +26448,8 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26484,8 +26484,8 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26520,8 +26520,8 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
+      <c r="F25" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26556,8 +26556,8 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
+      <c r="F26" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26592,8 +26592,8 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26628,8 +26628,8 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>17</v>
+      <c r="F28" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26664,8 +26664,8 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26700,8 +26700,8 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
+      <c r="F30" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26736,8 +26736,8 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
+      <c r="F31" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26772,8 +26772,8 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
+      <c r="F32" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26808,8 +26808,8 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26844,8 +26844,8 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
+      <c r="F34" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26880,8 +26880,8 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>17</v>
+      <c r="F35" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26916,8 +26916,8 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26952,8 +26952,8 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
+      <c r="F37" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
@@ -26988,8 +26988,8 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
+      <c r="F38" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27024,8 +27024,8 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
+      <c r="F39" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27060,8 +27060,8 @@
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
+      <c r="F40" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27096,8 +27096,8 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
+      <c r="F41" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27132,8 +27132,8 @@
       <c r="E42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
+      <c r="F42" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27168,8 +27168,8 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>17</v>
+      <c r="F43" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27204,8 +27204,8 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
+      <c r="F44" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27240,8 +27240,8 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
+      <c r="F45" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27276,8 +27276,8 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>17</v>
+      <c r="F46" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27312,8 +27312,8 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
+      <c r="F47" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27348,8 +27348,8 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
+      <c r="F48" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27384,8 +27384,8 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
+      <c r="F49" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27420,8 +27420,8 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+      <c r="F50" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27456,8 +27456,8 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+      <c r="F51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27492,8 +27492,8 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
+      <c r="F52" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27528,8 +27528,8 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
+      <c r="F53" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27564,8 +27564,8 @@
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>17</v>
+      <c r="F54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27600,8 +27600,8 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
+      <c r="F55" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27636,8 +27636,8 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27672,8 +27672,8 @@
       <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
+      <c r="F57" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27708,8 +27708,8 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
+      <c r="F58" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27744,8 +27744,8 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>17</v>
+      <c r="F59" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27780,8 +27780,8 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
+      <c r="F60" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27816,8 +27816,8 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
+      <c r="F61" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27852,8 +27852,8 @@
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>17</v>
+      <c r="F62" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27888,8 +27888,8 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
+      <c r="F63" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27924,8 +27924,8 @@
       <c r="E64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>17</v>
+      <c r="F64" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27960,8 +27960,8 @@
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>17</v>
+      <c r="F65" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
@@ -27996,8 +27996,8 @@
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>17</v>
+      <c r="F66" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28032,8 +28032,8 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>17</v>
+      <c r="F67" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28068,8 +28068,8 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>17</v>
+      <c r="F68" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28104,8 +28104,8 @@
       <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
+      <c r="F69" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28140,8 +28140,8 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>17</v>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28176,8 +28176,8 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>17</v>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28212,8 +28212,8 @@
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>17</v>
+      <c r="F72" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28248,8 +28248,8 @@
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>17</v>
+      <c r="F73" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28284,7 +28284,7 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
@@ -28320,7 +28320,7 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
@@ -28356,7 +28356,7 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
@@ -28392,7 +28392,7 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
@@ -28428,7 +28428,7 @@
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
@@ -28464,7 +28464,7 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
@@ -28500,7 +28500,7 @@
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
@@ -28536,7 +28536,7 @@
       <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
@@ -28572,7 +28572,7 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
@@ -28608,8 +28608,8 @@
       <c r="E83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+      <c r="F83" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28644,8 +28644,8 @@
       <c r="E84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>17</v>
+      <c r="F84" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28680,8 +28680,8 @@
       <c r="E85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
+      <c r="F85" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28716,8 +28716,8 @@
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+      <c r="F86" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28752,8 +28752,8 @@
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
+      <c r="F87" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28788,8 +28788,8 @@
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28824,8 +28824,8 @@
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
+      <c r="F89" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28860,8 +28860,8 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+      <c r="F90" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28896,8 +28896,8 @@
       <c r="E91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>17</v>
+      <c r="F91" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28932,8 +28932,8 @@
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>17</v>
+      <c r="F92" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -28968,8 +28968,8 @@
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>17</v>
+      <c r="F93" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29004,8 +29004,8 @@
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+      <c r="F94" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29040,8 +29040,8 @@
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>17</v>
+      <c r="F95" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29076,8 +29076,8 @@
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>17</v>
+      <c r="F96" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29112,8 +29112,8 @@
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>17</v>
+      <c r="F97" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29148,8 +29148,8 @@
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>17</v>
+      <c r="F98" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29184,8 +29184,8 @@
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>17</v>
+      <c r="F99" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29220,8 +29220,8 @@
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
+      <c r="F100" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29256,8 +29256,8 @@
       <c r="E101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
+      <c r="F101" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29292,8 +29292,8 @@
       <c r="E102" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>17</v>
+      <c r="F102" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29328,8 +29328,8 @@
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>17</v>
+      <c r="F103" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29364,8 +29364,8 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>17</v>
+      <c r="F104" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29400,8 +29400,8 @@
       <c r="E105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>17</v>
+      <c r="F105" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29436,8 +29436,8 @@
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>17</v>
+      <c r="F106" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29472,8 +29472,8 @@
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>17</v>
+      <c r="F107" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29508,8 +29508,8 @@
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>17</v>
+      <c r="F108" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29544,8 +29544,8 @@
       <c r="E109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>17</v>
+      <c r="F109" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29580,8 +29580,8 @@
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>17</v>
+      <c r="F110" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29616,8 +29616,8 @@
       <c r="E111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>17</v>
+      <c r="F111" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29652,8 +29652,8 @@
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>17</v>
+      <c r="F112" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29688,8 +29688,8 @@
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>17</v>
+      <c r="F113" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29724,8 +29724,8 @@
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>17</v>
+      <c r="F114" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29760,8 +29760,8 @@
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>17</v>
+      <c r="F115" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29796,8 +29796,8 @@
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>17</v>
+      <c r="F116" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29832,8 +29832,8 @@
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>17</v>
+      <c r="F117" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29868,8 +29868,8 @@
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>17</v>
+      <c r="F118" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29904,8 +29904,8 @@
       <c r="E119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>17</v>
+      <c r="F119" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29940,8 +29940,8 @@
       <c r="E120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>17</v>
+      <c r="F120" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
@@ -29976,8 +29976,8 @@
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>17</v>
+      <c r="F121" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30013,8 +30013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30078,7 +30078,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="str">
         <f>VLOOKUP(A2,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30113,8 +30113,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="F3" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>VLOOKUP(A3,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30149,8 +30149,8 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="F4" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>VLOOKUP(A4,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30185,8 +30185,8 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="F5" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(A5,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30221,8 +30221,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
+      <c r="F6" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>VLOOKUP(A6,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30257,7 +30257,7 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6" t="str">
@@ -30293,7 +30293,7 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="6" t="str">
@@ -30329,7 +30329,7 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="6" t="str">
@@ -30365,7 +30365,7 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="6" t="str">
@@ -30401,7 +30401,7 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="6" t="str">
@@ -30438,8 +30438,8 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
+      <c r="F12" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(A12,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30474,8 +30474,8 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
+      <c r="F13" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(A13,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30510,8 +30510,8 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
+      <c r="F14" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>VLOOKUP(A14,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30546,8 +30546,8 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
+      <c r="F15" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>VLOOKUP(A15,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30582,8 +30582,8 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
+      <c r="F16" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>VLOOKUP(A16,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30618,8 +30618,8 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
-        <v>17</v>
+      <c r="F17" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(A17,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30654,8 +30654,8 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
+      <c r="F18" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(A18,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30690,8 +30690,8 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
+      <c r="F19" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="str">
         <f>VLOOKUP(A19,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30726,8 +30726,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
+      <c r="F20" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="6" t="str">
         <f>VLOOKUP(A20,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30762,8 +30762,8 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
-        <v>17</v>
+      <c r="F21" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="6" t="str">
         <f>VLOOKUP(A21,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30798,8 +30798,8 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
-        <v>17</v>
+      <c r="F22" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="6" t="str">
         <f>VLOOKUP(A22,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30834,8 +30834,8 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
+      <c r="F23" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(A23,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30870,8 +30870,8 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
-        <v>17</v>
+      <c r="F24" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(A24,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30906,8 +30906,8 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
-        <v>17</v>
+      <c r="F25" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="str">
         <f>VLOOKUP(A25,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30942,8 +30942,8 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
-        <v>17</v>
+      <c r="F26" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="6" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
@@ -30978,8 +30978,8 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
-        <v>17</v>
+      <c r="F27" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31014,8 +31014,8 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
+      <c r="F28" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31050,8 +31050,8 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
-        <v>17</v>
+      <c r="F29" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31086,8 +31086,8 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
-        <v>17</v>
+      <c r="F30" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31122,8 +31122,8 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
-        <v>17</v>
+      <c r="F31" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31158,8 +31158,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
+      <c r="F32" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31194,8 +31194,8 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
-        <v>17</v>
+      <c r="F33" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31230,8 +31230,8 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
-        <v>17</v>
+      <c r="F34" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31266,8 +31266,8 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
+      <c r="F35" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31302,8 +31302,8 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
-        <v>17</v>
+      <c r="F36" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31338,8 +31338,8 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" t="s">
-        <v>17</v>
+      <c r="F37" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31374,8 +31374,8 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
+      <c r="F38" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31410,8 +31410,8 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
+      <c r="F39" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31446,8 +31446,8 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
-        <v>17</v>
+      <c r="F40" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31482,8 +31482,8 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
-        <v>17</v>
+      <c r="F41" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31518,8 +31518,8 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="F42" t="s">
-        <v>17</v>
+      <c r="F42" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31554,8 +31554,8 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F43" t="s">
-        <v>17</v>
+      <c r="F43" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31590,8 +31590,8 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
+      <c r="F44" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31626,8 +31626,8 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="F45" t="s">
-        <v>17</v>
+      <c r="F45" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31662,8 +31662,8 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" t="s">
-        <v>17</v>
+      <c r="F46" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31698,8 +31698,8 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" t="s">
-        <v>17</v>
+      <c r="F47" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31734,8 +31734,8 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" t="s">
-        <v>17</v>
+      <c r="F48" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31770,8 +31770,8 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="F49" t="s">
-        <v>17</v>
+      <c r="F49" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31806,8 +31806,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" t="s">
-        <v>17</v>
+      <c r="F50" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31842,8 +31842,8 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="F51" t="s">
-        <v>17</v>
+      <c r="F51" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31878,8 +31878,8 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="s">
-        <v>17</v>
+      <c r="F52" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31914,8 +31914,8 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
-        <v>17</v>
+      <c r="F53" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31950,8 +31950,8 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="F54" t="s">
-        <v>17</v>
+      <c r="F54" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
@@ -31986,8 +31986,8 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-      <c r="F55" t="s">
-        <v>17</v>
+      <c r="F55" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32022,8 +32022,8 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="F56" t="s">
-        <v>17</v>
+      <c r="F56" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32058,8 +32058,8 @@
       <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="F57" t="s">
-        <v>17</v>
+      <c r="F57" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32094,8 +32094,8 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" t="s">
-        <v>17</v>
+      <c r="F58" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32130,8 +32130,8 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" t="s">
-        <v>17</v>
+      <c r="F59" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32166,8 +32166,8 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" t="s">
-        <v>17</v>
+      <c r="F60" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32202,8 +32202,8 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" t="s">
-        <v>17</v>
+      <c r="F61" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32238,8 +32238,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="s">
-        <v>17</v>
+      <c r="F62" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32274,8 +32274,8 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" t="s">
-        <v>17</v>
+      <c r="F63" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32310,8 +32310,8 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" t="s">
-        <v>17</v>
+      <c r="F64" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32346,8 +32346,8 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" t="s">
-        <v>17</v>
+      <c r="F65" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32382,8 +32382,8 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" t="s">
-        <v>17</v>
+      <c r="F66" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32418,8 +32418,8 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="F67" t="s">
-        <v>17</v>
+      <c r="F67" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32454,8 +32454,8 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="s">
-        <v>17</v>
+      <c r="F68" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32490,8 +32490,8 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="F69" t="s">
-        <v>17</v>
+      <c r="F69" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32526,8 +32526,8 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="s">
-        <v>17</v>
+      <c r="F70" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32562,8 +32562,8 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" t="s">
-        <v>17</v>
+      <c r="F71" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32598,8 +32598,8 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
-        <v>17</v>
+      <c r="F72" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32634,8 +32634,8 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
-        <v>17</v>
+      <c r="F73" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32670,8 +32670,8 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="F74" t="s">
-        <v>17</v>
+      <c r="F74" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32706,8 +32706,8 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
-      <c r="F75" t="s">
-        <v>17</v>
+      <c r="F75" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32742,8 +32742,8 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="F76" t="s">
-        <v>17</v>
+      <c r="F76" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32778,8 +32778,8 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="F77" t="s">
-        <v>17</v>
+      <c r="F77" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32814,8 +32814,8 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="F78" t="s">
-        <v>17</v>
+      <c r="F78" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32850,8 +32850,8 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="F79" t="s">
-        <v>17</v>
+      <c r="F79" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32886,8 +32886,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="F80" t="s">
-        <v>17</v>
+      <c r="F80" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32922,8 +32922,8 @@
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="F81" t="s">
-        <v>17</v>
+      <c r="F81" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32958,8 +32958,8 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="F82" t="s">
-        <v>17</v>
+      <c r="F82" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
@@ -32994,7 +32994,7 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="6" t="str">
@@ -33030,7 +33030,7 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="6" t="str">
@@ -33066,7 +33066,7 @@
       <c r="E85" t="s">
         <v>9</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="6" t="str">
@@ -33102,8 +33102,8 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="F86" t="s">
-        <v>17</v>
+      <c r="F86" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33138,8 +33138,8 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="F87" t="s">
-        <v>17</v>
+      <c r="F87" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33174,7 +33174,7 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="6" t="str">
@@ -33210,7 +33210,7 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="6" t="str">
@@ -33246,7 +33246,7 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G90" s="6" t="str">
@@ -33282,7 +33282,7 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="6" t="str">
@@ -33318,8 +33318,8 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="s">
-        <v>17</v>
+      <c r="F92" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33354,8 +33354,8 @@
       <c r="E93" t="s">
         <v>9</v>
       </c>
-      <c r="F93" t="s">
-        <v>17</v>
+      <c r="F93" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33390,8 +33390,8 @@
       <c r="E94" t="s">
         <v>9</v>
       </c>
-      <c r="F94" t="s">
-        <v>17</v>
+      <c r="F94" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33426,8 +33426,8 @@
       <c r="E95" t="s">
         <v>9</v>
       </c>
-      <c r="F95" t="s">
-        <v>17</v>
+      <c r="F95" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33462,8 +33462,8 @@
       <c r="E96" t="s">
         <v>9</v>
       </c>
-      <c r="F96" t="s">
-        <v>17</v>
+      <c r="F96" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33498,8 +33498,8 @@
       <c r="E97" t="s">
         <v>9</v>
       </c>
-      <c r="F97" t="s">
-        <v>17</v>
+      <c r="F97" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33534,8 +33534,8 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
-        <v>17</v>
+      <c r="F98" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33570,8 +33570,8 @@
       <c r="E99" t="s">
         <v>9</v>
       </c>
-      <c r="F99" t="s">
-        <v>17</v>
+      <c r="F99" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33606,8 +33606,8 @@
       <c r="E100" t="s">
         <v>9</v>
       </c>
-      <c r="F100" t="s">
-        <v>17</v>
+      <c r="F100" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33642,8 +33642,8 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="F101" t="s">
-        <v>17</v>
+      <c r="F101" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33678,8 +33678,8 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="F102" t="s">
-        <v>17</v>
+      <c r="F102" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33714,8 +33714,8 @@
       <c r="E103" t="s">
         <v>9</v>
       </c>
-      <c r="F103" t="s">
-        <v>17</v>
+      <c r="F103" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33750,8 +33750,8 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="F104" t="s">
-        <v>17</v>
+      <c r="F104" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33786,8 +33786,8 @@
       <c r="E105" t="s">
         <v>9</v>
       </c>
-      <c r="F105" t="s">
-        <v>17</v>
+      <c r="F105" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33822,8 +33822,8 @@
       <c r="E106" t="s">
         <v>9</v>
       </c>
-      <c r="F106" t="s">
-        <v>17</v>
+      <c r="F106" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33858,8 +33858,8 @@
       <c r="E107" t="s">
         <v>9</v>
       </c>
-      <c r="F107" t="s">
-        <v>17</v>
+      <c r="F107" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33894,8 +33894,8 @@
       <c r="E108" t="s">
         <v>9</v>
       </c>
-      <c r="F108" t="s">
-        <v>17</v>
+      <c r="F108" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33930,8 +33930,8 @@
       <c r="E109" t="s">
         <v>9</v>
       </c>
-      <c r="F109" t="s">
-        <v>17</v>
+      <c r="F109" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
@@ -33966,8 +33966,8 @@
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="F110" t="s">
-        <v>17</v>
+      <c r="F110" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34002,8 +34002,8 @@
       <c r="E111" t="s">
         <v>9</v>
       </c>
-      <c r="F111" t="s">
-        <v>17</v>
+      <c r="F111" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34038,8 +34038,8 @@
       <c r="E112" t="s">
         <v>9</v>
       </c>
-      <c r="F112" t="s">
-        <v>17</v>
+      <c r="F112" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34074,8 +34074,8 @@
       <c r="E113" t="s">
         <v>9</v>
       </c>
-      <c r="F113" t="s">
-        <v>17</v>
+      <c r="F113" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34110,8 +34110,8 @@
       <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="F114" t="s">
-        <v>17</v>
+      <c r="F114" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34146,8 +34146,8 @@
       <c r="E115" t="s">
         <v>9</v>
       </c>
-      <c r="F115" t="s">
-        <v>17</v>
+      <c r="F115" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34182,8 +34182,8 @@
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" t="s">
-        <v>17</v>
+      <c r="F116" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34218,8 +34218,8 @@
       <c r="E117" t="s">
         <v>9</v>
       </c>
-      <c r="F117" t="s">
-        <v>17</v>
+      <c r="F117" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34254,8 +34254,8 @@
       <c r="E118" t="s">
         <v>9</v>
       </c>
-      <c r="F118" t="s">
-        <v>17</v>
+      <c r="F118" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34290,7 +34290,7 @@
       <c r="E119" t="s">
         <v>9</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G119" s="6" t="str">
@@ -34326,7 +34326,7 @@
       <c r="E120" t="s">
         <v>9</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G120" s="6" t="str">
@@ -34362,7 +34362,7 @@
       <c r="E121" t="s">
         <v>9</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G121" s="6" t="str">
@@ -34398,7 +34398,7 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="6" t="str">
@@ -34434,7 +34434,7 @@
       <c r="E123" t="s">
         <v>9</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G123" s="6" t="str">
@@ -34470,7 +34470,7 @@
       <c r="E124" t="s">
         <v>9</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G124" s="6" t="str">
@@ -34506,7 +34506,7 @@
       <c r="E125" t="s">
         <v>9</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G125" s="6" t="str">
@@ -34542,7 +34542,7 @@
       <c r="E126" t="s">
         <v>9</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G126" s="6" t="str">
@@ -34578,7 +34578,7 @@
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G127" s="6" t="str">
@@ -34614,7 +34614,7 @@
       <c r="E128" t="s">
         <v>9</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="6" t="str">
@@ -34650,7 +34650,7 @@
       <c r="E129" t="s">
         <v>9</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G129" s="6" t="str">
@@ -34686,7 +34686,7 @@
       <c r="E130" t="s">
         <v>9</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G130" s="6" t="str">
@@ -34722,7 +34722,7 @@
       <c r="E131" t="s">
         <v>9</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G131" s="6" t="str">
@@ -34758,7 +34758,7 @@
       <c r="E132" t="s">
         <v>9</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="6" t="str">
@@ -34794,8 +34794,8 @@
       <c r="E133" t="s">
         <v>9</v>
       </c>
-      <c r="F133" t="s">
-        <v>17</v>
+      <c r="F133" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G133" s="6" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34830,8 +34830,8 @@
       <c r="E134" t="s">
         <v>9</v>
       </c>
-      <c r="F134" t="s">
-        <v>17</v>
+      <c r="F134" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G134" s="6" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34866,8 +34866,8 @@
       <c r="E135" t="s">
         <v>9</v>
       </c>
-      <c r="F135" t="s">
-        <v>17</v>
+      <c r="F135" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G135" s="6" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34902,8 +34902,8 @@
       <c r="E136" t="s">
         <v>9</v>
       </c>
-      <c r="F136" t="s">
-        <v>17</v>
+      <c r="F136" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G136" s="6" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34938,8 +34938,8 @@
       <c r="E137" t="s">
         <v>9</v>
       </c>
-      <c r="F137" t="s">
-        <v>17</v>
+      <c r="F137" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G137" s="6" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$B$199,2, FALSE)</f>
@@ -34974,8 +34974,8 @@
       <c r="E138" t="s">
         <v>9</v>
       </c>
-      <c r="F138" t="s">
-        <v>17</v>
+      <c r="F138" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G138" s="6" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$B$199,2, FALSE)</f>
@@ -35010,8 +35010,8 @@
       <c r="E139" t="s">
         <v>9</v>
       </c>
-      <c r="F139" t="s">
-        <v>17</v>
+      <c r="F139" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G139" s="6" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$B$199,2, FALSE)</f>
@@ -35046,8 +35046,8 @@
       <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="F140" t="s">
-        <v>17</v>
+      <c r="F140" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G140" s="6" t="str">
         <f>VLOOKUP(A140,Common!$A$2:$B$199,2, FALSE)</f>
@@ -35082,8 +35082,8 @@
       <c r="E141" t="s">
         <v>9</v>
       </c>
-      <c r="F141" t="s">
-        <v>17</v>
+      <c r="F141" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G141" s="6" t="str">
         <f>VLOOKUP(A141,Common!$A$2:$B$199,2, FALSE)</f>
@@ -35118,8 +35118,8 @@
       <c r="E142" t="s">
         <v>9</v>
       </c>
-      <c r="F142" t="s">
-        <v>17</v>
+      <c r="F142" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="G142" s="6" t="str">
         <f>VLOOKUP(A142,Common!$A$2:$B$199,2, FALSE)</f>
@@ -35490,7 +35490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35931,7 +35933,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -35948,7 +35950,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -36031,7 +36033,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>

--- a/querymodule/doc/API field lists.xlsx
+++ b/querymodule/doc/API field lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="6"/>
+    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="patent" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet3" sheetId="10" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">inventor!$A$1:$I$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">inventor!$A$1:$I$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">patent!$A$1:$I$143</definedName>
     <definedName name="Type">Sheet3!$A$1:$A$4</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6534" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="562">
   <si>
     <t>API Field Name</t>
   </si>
@@ -1696,6 +1696,30 @@
   </si>
   <si>
     <t>Inventor's country on a patent</t>
+  </si>
+  <si>
+    <t>cpc_num_patents_for_inventor</t>
+  </si>
+  <si>
+    <t>The number of patents within a CPC subsection for a given inventor</t>
+  </si>
+  <si>
+    <t>cpc_num_patents_for_assignee</t>
+  </si>
+  <si>
+    <t>nber_num_patents_for_inventor</t>
+  </si>
+  <si>
+    <t>nber_num_patents_for_assignee</t>
+  </si>
+  <si>
+    <t>The number of patents within a NBER subcategory for a given inventor</t>
+  </si>
+  <si>
+    <t>The number of patents within a NBER subcategory for a given assignee</t>
+  </si>
+  <si>
+    <t>The number of patents within a CPC subsection for a given assignee</t>
   </si>
 </sst>
 </file>
@@ -7520,10 +7544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F139"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9514,28 +9538,28 @@
         <v>Description of CPC subsection</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="6" t="str">
+      <c r="G56" s="32" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Number of Patents for CPC Subsection</v>
       </c>
       <c r="H56" s="32" t="str">
         <f>IF(D56="N","NA",VLOOKUP(A56,Common!$A$2:$C$200,3,FALSE))</f>
@@ -9547,12 +9571,12 @@
       </c>
       <c r="J56" s="32" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of assignees on patents within a CPC subsection</v>
+        <v>The number of patents within a CPC subsection for a given inventor</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
@@ -9571,7 +9595,7 @@
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H57" s="32" t="str">
         <f>IF(D57="N","NA",VLOOKUP(A57,Common!$A$2:$C$200,3,FALSE))</f>
@@ -9583,12 +9607,12 @@
       </c>
       <c r="J57" s="32" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of inventors on patents within a CPC subsection</v>
+        <v>Total number of assignees on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
@@ -9607,7 +9631,7 @@
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H58" s="32" t="str">
         <f>IF(D58="N","NA",VLOOKUP(A58,Common!$A$2:$C$200,3,FALSE))</f>
@@ -9619,18 +9643,18 @@
       </c>
       <c r="J58" s="32" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents within a CPC subsection</v>
+        <v>Total number of inventors on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
@@ -9643,11 +9667,11 @@
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Name</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$D$200,4,FALSE))</f>
@@ -9655,18 +9679,18 @@
       </c>
       <c r="J59" s="32" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>First name of the inventor</v>
+        <v>Total number of patents within a CPC subsection</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
@@ -9679,7 +9703,7 @@
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>First Name</v>
       </c>
       <c r="H60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$C$200,3,FALSE))</f>
@@ -9691,18 +9715,18 @@
       </c>
       <c r="J60" s="32" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The earliest grant date for all an inventor's patents</v>
+        <v>First name of the inventor</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -9715,7 +9739,7 @@
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$C$200,3,FALSE))</f>
@@ -9727,12 +9751,12 @@
       </c>
       <c r="J61" s="32" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
+        <v>The earliest grant date for all an inventor's patents</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>72</v>
@@ -9751,7 +9775,7 @@
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known City</v>
+        <v>ID</v>
       </c>
       <c r="H62" s="32" t="str">
         <f>IF(D62="N","NA",VLOOKUP(A62,Common!$A$2:$C$200,3,FALSE))</f>
@@ -9763,12 +9787,12 @@
       </c>
       <c r="J62" s="32" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's city on most recent patent</v>
+        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>72</v>
@@ -9787,33 +9811,33 @@
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Country</v>
+        <v>Last Known City</v>
       </c>
       <c r="H63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J63" s="32" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on most recent patent</v>
+        <v>Inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>9</v>
@@ -9823,33 +9847,33 @@
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Latitude</v>
+        <v>Last Known Country</v>
       </c>
       <c r="H64" s="32" t="str">
         <f>IF(D64="N","NA",VLOOKUP(A64,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I64" s="32" t="str">
         <f>IF(D64="N","NA",VLOOKUP(A64,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J64" s="32" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude of inventor's city on most recent patent</v>
+        <v>Inventor's country on most recent patent</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
@@ -9859,11 +9883,11 @@
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Location ID</v>
+        <v>Last Known Latitude</v>
       </c>
       <c r="H65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$D$200,4,FALSE))</f>
@@ -9871,21 +9895,21 @@
       </c>
       <c r="J65" s="32" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique database ID for a an inventor's most recent location</v>
+        <v>Latitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
@@ -9895,11 +9919,11 @@
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Longitude</v>
+        <v>Last Known Location ID</v>
       </c>
       <c r="H66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$D$200,4,FALSE))</f>
@@ -9907,21 +9931,21 @@
       </c>
       <c r="J66" s="32" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude of inventor's city on most recent patent</v>
+        <v>Unique database ID for a an inventor's most recent location</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
@@ -9931,24 +9955,24 @@
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known State</v>
+        <v>Last Known Longitude</v>
       </c>
       <c r="H67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J67" s="32" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's state on most recent patent</v>
+        <v>Longitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>72</v>
@@ -9967,30 +9991,30 @@
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Name</v>
+        <v>Last Known State</v>
       </c>
       <c r="H68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J68" s="32" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Last name of inventor</v>
+        <v>Inventor's state on most recent patent</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -10003,7 +10027,7 @@
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Last Name</v>
       </c>
       <c r="H69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10015,18 +10039,18 @@
       </c>
       <c r="J69" s="32" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The most recent date for all an inventor's patents</v>
+        <v>Last name of inventor</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -10039,11 +10063,11 @@
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$D$200,4,FALSE))</f>
@@ -10051,21 +10075,21 @@
       </c>
       <c r="J70" s="32" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents associated with a given inventor</v>
+        <v>The most recent date for all an inventor's patents</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
@@ -10075,11 +10099,11 @@
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Action Date</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$D$200,4,FALSE))</f>
@@ -10087,21 +10111,21 @@
       </c>
       <c r="J71" s="32" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date an IPC is issued for a patent</v>
+        <v>Total number of patents associated with a given inventor</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
@@ -10111,24 +10135,24 @@
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Class</v>
+        <v>Action Date</v>
       </c>
       <c r="H72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>NA</v>
       </c>
       <c r="I72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J72" s="32" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
+        <v>Date an IPC is issued for a patent</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>86</v>
@@ -10137,7 +10161,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -10147,24 +10171,24 @@
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Data Source</v>
+        <v>Class</v>
       </c>
       <c r="H73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J73" s="32" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$E$199,5, FALSE)</f>
-        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
+        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -10173,7 +10197,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -10183,30 +10207,30 @@
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Value</v>
+        <v>Classification Data Source</v>
       </c>
       <c r="H74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>I | N</v>
+        <v>NA</v>
       </c>
       <c r="J74" s="32" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
+        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -10219,24 +10243,24 @@
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Classification Value</v>
       </c>
       <c r="H75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>I | N</v>
       </c>
       <c r="J75" s="32" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a IPC group</v>
+        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>86</v>
@@ -10255,7 +10279,7 @@
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10267,18 +10291,18 @@
       </c>
       <c r="J76" s="32" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a IPC group</v>
+        <v>The date of the earliest patent within a IPC group</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -10291,24 +10315,24 @@
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Main Group</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J77" s="32" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the subclass within the IPC system</v>
+        <v>The date of the most recent patent within a IPC group</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>86</v>
@@ -10327,24 +10351,24 @@
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Section</v>
+        <v>Main Group</v>
       </c>
       <c r="H78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | B | C | D | E | F | G | H</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J78" s="32" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
+        <v>Subdivisions of the subclass within the IPC system</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>86</v>
@@ -10363,7 +10387,7 @@
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass</v>
+        <v>Section</v>
       </c>
       <c r="H79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10371,16 +10395,16 @@
       </c>
       <c r="I79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
+        <v>A | B | C | D | E | F | G | H</v>
       </c>
       <c r="J79" s="32" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the class within IPC system</v>
+        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>86</v>
@@ -10399,24 +10423,24 @@
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup</v>
+        <v>Subclass</v>
       </c>
       <c r="H80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
       </c>
       <c r="J80" s="32" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the main group within the IPC system</v>
+        <v>Subdivisions of the class within IPC system</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -10435,30 +10459,30 @@
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Symbol Position</v>
+        <v>Subgroup</v>
       </c>
       <c r="H81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">F | L </v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J81" s="32" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
+        <v>Subdivisions of the main group within the IPC system</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -10471,24 +10495,24 @@
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Symbol Position</v>
       </c>
       <c r="H82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v xml:space="preserve">F | L </v>
       </c>
       <c r="J82" s="32" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within an IPC class.</v>
+        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
@@ -10507,7 +10531,7 @@
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H83" s="32" t="str">
         <f>IF(D83="N","NA",VLOOKUP(A83,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10519,21 +10543,21 @@
       </c>
       <c r="J83" s="32" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within an IPC class</v>
+        <v>The total number of unique assignees on patents within an IPC class.</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>9</v>
@@ -10543,11 +10567,11 @@
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Version Indicator</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$D$200,4,FALSE))</f>
@@ -10555,21 +10579,21 @@
       </c>
       <c r="J84" s="32" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The version of the IPC classification system</v>
+        <v>The total number of unique inventors on patents within an IPC class</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>9</v>
@@ -10579,11 +10603,11 @@
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>City</v>
+        <v>Version Indicator</v>
       </c>
       <c r="H85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$D$200,4,FALSE))</f>
@@ -10591,12 +10615,12 @@
       </c>
       <c r="J85" s="32" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>City associated with a location</v>
+        <v>The version of the IPC classification system</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>183</v>
@@ -10615,33 +10639,33 @@
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>City</v>
       </c>
       <c r="H86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J86" s="32" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country associated with a location</v>
+        <v>City associated with a location</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
@@ -10651,33 +10675,33 @@
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Latitude</v>
+        <v>Country</v>
       </c>
       <c r="H87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J87" s="32" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude associated with a location</v>
+        <v>Country associated with a location</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>9</v>
@@ -10687,11 +10711,11 @@
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Location ID</v>
+        <v>Latitude</v>
       </c>
       <c r="H88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$D$200,4,FALSE))</f>
@@ -10699,21 +10723,21 @@
       </c>
       <c r="J88" s="32" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Disambiguated Location ID generated by the disambiguation algorithm</v>
+        <v>Latitude associated with a location</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -10723,11 +10747,11 @@
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Longitude</v>
+        <v>Location ID</v>
       </c>
       <c r="H89" s="32" t="str">
         <f>IF(D89="N","NA",VLOOKUP(A89,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I89" s="32" t="str">
         <f>IF(D89="N","NA",VLOOKUP(A89,Common!$A$2:$D$200,4,FALSE))</f>
@@ -10735,21 +10759,21 @@
       </c>
       <c r="J89" s="32" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude associated with the selected location</v>
+        <v>Disambiguated Location ID generated by the disambiguation algorithm</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -10759,27 +10783,27 @@
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>State</v>
+        <v>Longitude</v>
       </c>
       <c r="H90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J90" s="32" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>State assocaited with a location</v>
+        <v>Longitude associated with the selected location</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
@@ -10795,7 +10819,7 @@
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category ID</v>
+        <v>State</v>
       </c>
       <c r="H91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10803,16 +10827,16 @@
       </c>
       <c r="I91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
+        <v>List of states</v>
       </c>
       <c r="J91" s="32" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER category ID (see nber_category_title for details)</v>
+        <v>State assocaited with a location</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>102</v>
@@ -10831,7 +10855,7 @@
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category Title</v>
+        <v>Category ID</v>
       </c>
       <c r="H92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10839,22 +10863,22 @@
       </c>
       <c r="I92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
+        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
       </c>
       <c r="J92" s="32" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER category</v>
+        <v>NBER category ID (see nber_category_title for details)</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>9</v>
@@ -10867,24 +10891,24 @@
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Category Title</v>
       </c>
       <c r="H93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
       </c>
       <c r="J93" s="32" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a NBER subcategory</v>
+        <v>Description of NBER category</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>102</v>
@@ -10903,7 +10927,7 @@
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$C$200,3,FALSE))</f>
@@ -10915,18 +10939,18 @@
       </c>
       <c r="J94" s="32" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a NBER subcategory</v>
+        <v>The date of the earliest patent within a NBER subcategory</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
@@ -10939,66 +10963,66 @@
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory ID</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
+        <v>NA</v>
       </c>
       <c r="J95" s="32" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" s="1" t="s">
+        <v>The date of the most recent patent within a NBER subcategory</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="C96" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="6" t="str">
+      <c r="G96" s="32" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory Title</v>
+        <v>Number of Patents for NBER Subcategory</v>
       </c>
       <c r="H96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
+        <v>NA</v>
       </c>
       <c r="J96" s="32" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER subcategory</v>
+        <v>The number of patents within a NBER subcategory for a given inventor</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
@@ -11011,30 +11035,30 @@
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Subcategory ID</v>
       </c>
       <c r="H97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
       </c>
       <c r="J97" s="32" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a NBER subcategory</v>
+        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
@@ -11047,24 +11071,24 @@
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Subcategory Title</v>
       </c>
       <c r="H98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
       </c>
       <c r="J98" s="32" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within a NBER subcategory</v>
+        <v>Description of NBER subcategory</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>102</v>
@@ -11083,7 +11107,7 @@
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11095,21 +11119,21 @@
       </c>
       <c r="J99" s="32" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a NBER subcategory</v>
+        <v>The total number of unique assignees on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>9</v>
@@ -11119,11 +11143,11 @@
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Abstract</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H100" s="32" t="str">
         <f>IF(D100="N","NA",VLOOKUP(A100,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I100" s="32" t="str">
         <f>IF(D100="N","NA",VLOOKUP(A100,Common!$A$2:$D$200,4,FALSE))</f>
@@ -11131,18 +11155,18 @@
       </c>
       <c r="J100" s="32" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Abtract associated with the patent</v>
+        <v>The total number of unique inventors on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
@@ -11155,33 +11179,33 @@
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>US</v>
+        <v>NA</v>
       </c>
       <c r="J101" s="32" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country assciated with a patent (always U.S.)</v>
+        <v>The total number of patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
@@ -11191,11 +11215,11 @@
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Date</v>
+        <v>Abstract</v>
       </c>
       <c r="H102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$D$200,4,FALSE))</f>
@@ -11203,12 +11227,12 @@
       </c>
       <c r="J102" s="32" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date patent was granted</v>
+        <v>Abtract associated with the patent</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>112</v>
@@ -11227,30 +11251,30 @@
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee City</v>
+        <v>Country</v>
       </c>
       <c r="H103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>US</v>
       </c>
       <c r="J103" s="32" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
+        <v>Country assciated with a patent (always U.S.)</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
@@ -11263,24 +11287,24 @@
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Country</v>
+        <v>Date</v>
       </c>
       <c r="H104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J104" s="32" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>Date patent was granted</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>112</v>
@@ -11299,7 +11323,7 @@
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee ID</v>
+        <v>First Named Assignee City</v>
       </c>
       <c r="H105" s="32" t="str">
         <f>IF(D105="N","NA",VLOOKUP(A105,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11311,21 +11335,21 @@
       </c>
       <c r="J105" s="32" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>9</v>
@@ -11335,24 +11359,24 @@
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Latitude</v>
+        <v>First Named Assignee Country</v>
       </c>
       <c r="H106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J106" s="32" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>112</v>
@@ -11371,7 +11395,7 @@
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Location ID</v>
+        <v>First Named Assignee ID</v>
       </c>
       <c r="H107" s="32" t="str">
         <f>IF(D107="N","NA",VLOOKUP(A107,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11383,12 +11407,12 @@
       </c>
       <c r="J107" s="32" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>112</v>
@@ -11407,7 +11431,7 @@
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Longitude</v>
+        <v>First Named Assignee Latitude</v>
       </c>
       <c r="H108" s="32" t="str">
         <f>IF(D108="N","NA",VLOOKUP(A108,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11419,12 +11443,12 @@
       </c>
       <c r="J108" s="32" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>112</v>
@@ -11443,33 +11467,33 @@
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee State</v>
+        <v>First Named Assignee Location ID</v>
       </c>
       <c r="H109" s="32" t="str">
         <f>IF(D109="N","NA",VLOOKUP(A109,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I109" s="32" t="str">
         <f>IF(D109="N","NA",VLOOKUP(A109,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J109" s="32" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>9</v>
@@ -11479,11 +11503,11 @@
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor City</v>
+        <v>First Named Assignee Longitude</v>
       </c>
       <c r="H110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$D$200,4,FALSE))</f>
@@ -11491,12 +11515,12 @@
       </c>
       <c r="J110" s="32" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>112</v>
@@ -11515,7 +11539,7 @@
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Country</v>
+        <v>First Named Assignee State</v>
       </c>
       <c r="H111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11523,16 +11547,16 @@
       </c>
       <c r="I111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>List of states</v>
       </c>
       <c r="J111" s="32" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
@@ -11551,7 +11575,7 @@
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor ID</v>
+        <v>First Named Inventor City</v>
       </c>
       <c r="H112" s="32" t="str">
         <f>IF(D112="N","NA",VLOOKUP(A112,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11563,21 +11587,21 @@
       </c>
       <c r="J112" s="32" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
@@ -11587,24 +11611,24 @@
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Latitude</v>
+        <v>First Named Inventor Country</v>
       </c>
       <c r="H113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J113" s="32" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>112</v>
@@ -11623,7 +11647,7 @@
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Location ID</v>
+        <v>First Named Inventor ID</v>
       </c>
       <c r="H114" s="32" t="str">
         <f>IF(D114="N","NA",VLOOKUP(A114,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11635,12 +11659,12 @@
       </c>
       <c r="J114" s="32" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>112</v>
@@ -11659,7 +11683,7 @@
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Longitude</v>
+        <v>First Named Inventor Latitude</v>
       </c>
       <c r="H115" s="32" t="str">
         <f>IF(D115="N","NA",VLOOKUP(A115,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11671,12 +11695,12 @@
       </c>
       <c r="J115" s="32" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
+        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>112</v>
@@ -11695,33 +11719,33 @@
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor State</v>
+        <v>First Named Inventor Location ID</v>
       </c>
       <c r="H116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J116" s="32" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
@@ -11731,11 +11755,11 @@
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>First Named Inventor Longitude</v>
       </c>
       <c r="H117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$D$200,4,FALSE))</f>
@@ -11743,12 +11767,12 @@
       </c>
       <c r="J117" s="32" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>US Patent number, as assigned by USPTO</v>
+        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>112</v>
@@ -11767,7 +11791,7 @@
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Kind</v>
+        <v>First Named Inventor State</v>
       </c>
       <c r="H118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11775,16 +11799,16 @@
       </c>
       <c r="I118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
+        <v>List of states</v>
       </c>
       <c r="J118" s="32" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
+        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>112</v>
@@ -11803,7 +11827,7 @@
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number</v>
+        <v>ID</v>
       </c>
       <c r="H119" s="32" t="str">
         <f>IF(D119="N","NA",VLOOKUP(A119,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11820,13 +11844,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
@@ -11839,33 +11863,33 @@
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number Cited by US Patents</v>
+        <v>Kind</v>
       </c>
       <c r="H120" s="32" t="str">
         <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I120" s="32" t="str">
         <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
       </c>
       <c r="J120" s="32" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of times a patent was cited by other US patents</v>
+        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
@@ -11875,11 +11899,11 @@
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Claims</v>
+        <v>Number</v>
       </c>
       <c r="H121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$D$200,4,FALSE))</f>
@@ -11887,12 +11911,12 @@
       </c>
       <c r="J121" s="32" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Number of claim statements on patent</v>
+        <v>US Patent number, as assigned by USPTO</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>112</v>
@@ -11911,7 +11935,7 @@
       </c>
       <c r="G122" s="6" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Combined Citations</v>
+        <v>Number Cited by US Patents</v>
       </c>
       <c r="H122" s="32" t="str">
         <f>IF(D122="N","NA",VLOOKUP(A122,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11923,12 +11947,12 @@
       </c>
       <c r="J122" s="32" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
+        <v>The number of times a patent was cited by other US patents</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>112</v>
@@ -11937,7 +11961,7 @@
         <v>23</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>9</v>
@@ -11947,11 +11971,11 @@
       </c>
       <c r="G123" s="6" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Foreign Citations</v>
+        <v>Number of Claims</v>
       </c>
       <c r="H123" s="32" t="str">
         <f>IF(D123="N","NA",VLOOKUP(A123,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I123" s="32" t="str">
         <f>IF(D123="N","NA",VLOOKUP(A123,Common!$A$2:$D$200,4,FALSE))</f>
@@ -11959,12 +11983,12 @@
       </c>
       <c r="J123" s="32" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of foreign patents that the selected patent cites</v>
+        <v>Number of claim statements on patent</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>112</v>
@@ -11983,7 +12007,7 @@
       </c>
       <c r="G124" s="6" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Application Citations</v>
+        <v>Number of Combined Citations</v>
       </c>
       <c r="H124" s="32" t="str">
         <f>IF(D124="N","NA",VLOOKUP(A124,Common!$A$2:$C$200,3,FALSE))</f>
@@ -11995,12 +12019,12 @@
       </c>
       <c r="J124" s="32" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of applications that the selected patent cites</v>
+        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>112</v>
@@ -12019,7 +12043,7 @@
       </c>
       <c r="G125" s="6" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Patent Citations</v>
+        <v>Number of Foreign Citations</v>
       </c>
       <c r="H125" s="32" t="str">
         <f>IF(D125="N","NA",VLOOKUP(A125,Common!$A$2:$C$200,3,FALSE))</f>
@@ -12031,18 +12055,18 @@
       </c>
       <c r="J125" s="32" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of other US patents that the selected patent cites</v>
+        <v>The number of foreign patents that the selected patent cites</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
@@ -12055,11 +12079,11 @@
       </c>
       <c r="G126" s="6" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Title</v>
+        <v>Number of US Application Citations</v>
       </c>
       <c r="H126" s="32" t="str">
         <f>IF(D126="N","NA",VLOOKUP(A126,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I126" s="32" t="str">
         <f>IF(D126="N","NA",VLOOKUP(A126,Common!$A$2:$D$200,4,FALSE))</f>
@@ -12067,18 +12091,18 @@
       </c>
       <c r="J126" s="32" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Title of the  patent</v>
+        <v>The number of applications that the selected patent cites</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
@@ -12091,30 +12115,30 @@
       </c>
       <c r="G127" s="6" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Type</v>
+        <v>Number of US Patent Citations</v>
       </c>
       <c r="H127" s="32" t="str">
         <f>IF(D127="N","NA",VLOOKUP(A127,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I127" s="32" t="str">
         <f>IF(D127="N","NA",VLOOKUP(A127,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
+        <v>NA</v>
       </c>
       <c r="J127" s="32" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Category of patent</v>
+        <v>The number of other US patents that the selected patent cites</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
@@ -12127,7 +12151,7 @@
       </c>
       <c r="G128" s="6" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Title</v>
       </c>
       <c r="H128" s="32" t="str">
         <f>IF(D128="N","NA",VLOOKUP(A128,Common!$A$2:$C$200,3,FALSE))</f>
@@ -12139,18 +12163,18 @@
       </c>
       <c r="J128" s="32" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a USPC mainclass</v>
+        <v>Title of the  patent</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
@@ -12163,30 +12187,30 @@
       </c>
       <c r="G129" s="6" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Type</v>
       </c>
       <c r="H129" s="32" t="str">
         <f>IF(D129="N","NA",VLOOKUP(A129,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I129" s="32" t="str">
         <f>IF(D129="N","NA",VLOOKUP(A129,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
       </c>
       <c r="J129" s="32" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a USPC mainclass</v>
+        <v>Category of patent</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
@@ -12199,30 +12223,30 @@
       </c>
       <c r="G130" s="6" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass ID</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H130" s="32" t="str">
         <f>IF(D130="N","NA",VLOOKUP(A130,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I130" s="32" t="str">
         <f>IF(D130="N","NA",VLOOKUP(A130,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
+        <v>NA</v>
       </c>
       <c r="J130" s="32" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of the USPC mainclass</v>
+        <v>The date of the earliest patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>9</v>
@@ -12235,7 +12259,7 @@
       </c>
       <c r="G131" s="6" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass Title</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H131" s="32" t="str">
         <f>IF(D131="N","NA",VLOOKUP(A131,Common!$A$2:$C$200,3,FALSE))</f>
@@ -12247,18 +12271,18 @@
       </c>
       <c r="J131" s="32" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC mainclass</v>
+        <v>The date of the most recent patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
@@ -12271,24 +12295,24 @@
       </c>
       <c r="G132" s="6" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Inventor</v>
+        <v>Mainclass ID</v>
       </c>
       <c r="H132" s="32" t="str">
         <f>IF(D132="N","NA",VLOOKUP(A132,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I132" s="32" t="str">
         <f>IF(D132="N","NA",VLOOKUP(A132,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
       </c>
       <c r="J132" s="32" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique patents within a USPC mainclass with a given inventor</v>
+        <v>ID of the USPC mainclass</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>145</v>
@@ -12307,7 +12331,7 @@
       </c>
       <c r="G133" s="6" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass ID</v>
+        <v>Mainclass Title</v>
       </c>
       <c r="H133" s="32" t="str">
         <f>IF(D133="N","NA",VLOOKUP(A133,Common!$A$2:$C$200,3,FALSE))</f>
@@ -12319,18 +12343,18 @@
       </c>
       <c r="J133" s="32" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of USPC subclass</v>
+        <v>Text describing USPC mainclass</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>9</v>
@@ -12343,11 +12367,11 @@
       </c>
       <c r="G134" s="6" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass Title</v>
+        <v>Number of Patents for Inventor</v>
       </c>
       <c r="H134" s="32" t="str">
         <f>IF(D134="N","NA",VLOOKUP(A134,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I134" s="32" t="str">
         <f>IF(D134="N","NA",VLOOKUP(A134,Common!$A$2:$D$200,4,FALSE))</f>
@@ -12355,18 +12379,18 @@
       </c>
       <c r="J134" s="32" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC subclass</v>
+        <v>The total number of unique patents within a USPC mainclass with a given inventor</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>9</v>
@@ -12379,11 +12403,11 @@
       </c>
       <c r="G135" s="6" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Subclass ID</v>
       </c>
       <c r="H135" s="32" t="str">
         <f>IF(D135="N","NA",VLOOKUP(A135,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I135" s="32" t="str">
         <f>IF(D135="N","NA",VLOOKUP(A135,Common!$A$2:$D$200,4,FALSE))</f>
@@ -12391,18 +12415,18 @@
       </c>
       <c r="J135" s="32" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a USPC mainclass</v>
+        <v>ID of USPC subclass</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>9</v>
@@ -12415,11 +12439,11 @@
       </c>
       <c r="G136" s="6" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Subclass Title</v>
       </c>
       <c r="H136" s="32" t="str">
         <f>IF(D136="N","NA",VLOOKUP(A136,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I136" s="32" t="str">
         <f>IF(D136="N","NA",VLOOKUP(A136,Common!$A$2:$D$200,4,FALSE))</f>
@@ -12427,12 +12451,12 @@
       </c>
       <c r="J136" s="32" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
+        <v>Text describing USPC subclass</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>145</v>
@@ -12451,7 +12475,7 @@
       </c>
       <c r="G137" s="6" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H137" s="32" t="str">
         <f>IF(D137="N","NA",VLOOKUP(A137,Common!$A$2:$C$200,3,FALSE))</f>
@@ -12463,15 +12487,15 @@
       </c>
       <c r="J137" s="32" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a USPC mainclass</v>
+        <v>The total number of unique assignees on patents within a USPC mainclass</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>23</v>
@@ -12487,11 +12511,11 @@
       </c>
       <c r="G138" s="6" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H138" s="32" t="str">
         <f>IF(D138="N","NA",VLOOKUP(A138,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I138" s="32" t="str">
         <f>IF(D138="N","NA",VLOOKUP(A138,Common!$A$2:$D$200,4,FALSE))</f>
@@ -12499,21 +12523,21 @@
       </c>
       <c r="J138" s="32" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$E$199,5, FALSE)</f>
-        <v xml:space="preserve">Year </v>
+        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
@@ -12523,11 +12547,11 @@
       </c>
       <c r="G139" s="6" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Inventor</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H139" s="32" t="str">
         <f>IF(D139="N","NA",VLOOKUP(A139,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I139" s="32" t="str">
         <f>IF(D139="N","NA",VLOOKUP(A139,Common!$A$2:$D$200,4,FALSE))</f>
@@ -12535,6 +12559,78 @@
       </c>
       <c r="J139" s="32" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$E$199,5, FALSE)</f>
+        <v>The total number of patents within a USPC mainclass</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="6" t="str">
+        <f>VLOOKUP(A140,Common!$A$2:$B$199,2, FALSE)</f>
+        <v>ID</v>
+      </c>
+      <c r="H140" s="32" t="str">
+        <f>IF(D140="N","NA",VLOOKUP(A140,Common!$A$2:$C$200,3,FALSE))</f>
+        <v>Open Field, No Validation</v>
+      </c>
+      <c r="I140" s="32" t="str">
+        <f>IF(D140="N","NA",VLOOKUP(A140,Common!$A$2:$D$200,4,FALSE))</f>
+        <v>NA</v>
+      </c>
+      <c r="J140" s="32" t="str">
+        <f>VLOOKUP(A140,Common!$A$2:$E$199,5, FALSE)</f>
+        <v xml:space="preserve">Year </v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="6" t="str">
+        <f>VLOOKUP(A141,Common!$A$2:$B$199,2, FALSE)</f>
+        <v>Number of Patents for Inventor</v>
+      </c>
+      <c r="H141" s="32" t="str">
+        <f>IF(D141="N","NA",VLOOKUP(A141,Common!$A$2:$C$200,3,FALSE))</f>
+        <v>NA</v>
+      </c>
+      <c r="I141" s="32" t="str">
+        <f>IF(D141="N","NA",VLOOKUP(A141,Common!$A$2:$D$200,4,FALSE))</f>
+        <v>NA</v>
+      </c>
+      <c r="J141" s="32" t="str">
+        <f>VLOOKUP(A141,Common!$A$2:$E$199,5, FALSE)</f>
         <v>The number of patents for an inventor for a given year</v>
       </c>
     </row>
@@ -12554,10 +12650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F119"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13465,45 +13561,45 @@
         <v>The date of the most recent patent within a CPC subsection</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="C26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="6" t="str">
+      <c r="G26" s="32" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Section ID</v>
+        <v>Number of Patents for CPC Subsection</v>
       </c>
       <c r="H26" s="32" t="str">
         <f>IF(D26="N","NA",VLOOKUP(A26,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I26" s="32" t="str">
         <f>IF(D26="N","NA",VLOOKUP(A26,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>G | F | B | H | C | Y | A | E | D</v>
+        <v>NA</v>
       </c>
       <c r="J26" s="32" t="str">
         <f>VLOOKUP(A26,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC Section ID (A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity, Y = General Tagging of new technological developments)</v>
+        <v>The number of patents within a CPC subsection for a given assignee</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
@@ -13522,24 +13618,24 @@
       </c>
       <c r="G27" s="6" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup ID</v>
+        <v>Section ID</v>
       </c>
       <c r="H27" s="32" t="str">
         <f>IF(D27="N","NA",VLOOKUP(A27,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I27" s="32" t="str">
         <f>IF(D27="N","NA",VLOOKUP(A27,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/cpc.html</v>
+        <v>G | F | B | H | C | Y | A | E | D</v>
       </c>
       <c r="J27" s="32" t="str">
         <f>VLOOKUP(A27,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC Subgroup ID</v>
+        <v>CPC Section ID (A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity, Y = General Tagging of new technological developments)</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>57</v>
@@ -13558,7 +13654,7 @@
       </c>
       <c r="G28" s="6" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup Title</v>
+        <v>Subgroup ID</v>
       </c>
       <c r="H28" s="32" t="str">
         <f>IF(D28="N","NA",VLOOKUP(A28,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13570,12 +13666,12 @@
       </c>
       <c r="J28" s="32" t="str">
         <f>VLOOKUP(A28,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of CPC Subgroup</v>
+        <v>CPC Subgroup ID</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
@@ -13594,7 +13690,7 @@
       </c>
       <c r="G29" s="6" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subsection ID</v>
+        <v>Subgroup Title</v>
       </c>
       <c r="H29" s="32" t="str">
         <f>IF(D29="N","NA",VLOOKUP(A29,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13606,12 +13702,12 @@
       </c>
       <c r="J29" s="32" t="str">
         <f>VLOOKUP(A29,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC subsection ID</v>
+        <v>Description of CPC Subgroup</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
@@ -13630,7 +13726,7 @@
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subsection Title</v>
+        <v>Subsection ID</v>
       </c>
       <c r="H30" s="32" t="str">
         <f>IF(D30="N","NA",VLOOKUP(A30,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13642,18 +13738,18 @@
       </c>
       <c r="J30" s="32" t="str">
         <f>VLOOKUP(A30,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of CPC subsection</v>
+        <v>CPC subsection ID</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
@@ -13666,24 +13762,24 @@
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Subsection Title</v>
       </c>
       <c r="H31" s="32" t="str">
         <f>IF(D31="N","NA",VLOOKUP(A31,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I31" s="32" t="str">
         <f>IF(D31="N","NA",VLOOKUP(A31,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/cpc.html</v>
       </c>
       <c r="J31" s="32" t="str">
         <f>VLOOKUP(A31,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of assignees on patents within a CPC subsection</v>
+        <v>Description of CPC subsection</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>57</v>
@@ -13702,7 +13798,7 @@
       </c>
       <c r="G32" s="6" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H32" s="32" t="str">
         <f>IF(D32="N","NA",VLOOKUP(A32,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13714,12 +13810,12 @@
       </c>
       <c r="J32" s="32" t="str">
         <f>VLOOKUP(A32,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of inventors on patents within a CPC subsection</v>
+        <v>Total number of assignees on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>57</v>
@@ -13738,7 +13834,7 @@
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H33" s="32" t="str">
         <f>IF(D33="N","NA",VLOOKUP(A33,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13750,18 +13846,18 @@
       </c>
       <c r="J33" s="32" t="str">
         <f>VLOOKUP(A33,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents within a CPC subsection</v>
+        <v>Total number of inventors on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -13774,11 +13870,11 @@
       </c>
       <c r="G34" s="6" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>City</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H34" s="32" t="str">
         <f>IF(D34="N","NA",VLOOKUP(A34,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I34" s="32" t="str">
         <f>IF(D34="N","NA",VLOOKUP(A34,Common!$A$2:$D$200,4,FALSE))</f>
@@ -13786,12 +13882,12 @@
       </c>
       <c r="J34" s="32" t="str">
         <f>VLOOKUP(A34,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's city on a patent</v>
+        <v>Total number of patents within a CPC subsection</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>72</v>
@@ -13810,24 +13906,24 @@
       </c>
       <c r="G35" s="6" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>City</v>
       </c>
       <c r="H35" s="32" t="str">
         <f>IF(D35="N","NA",VLOOKUP(A35,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I35" s="32" t="str">
         <f>IF(D35="N","NA",VLOOKUP(A35,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J35" s="32" t="str">
         <f>VLOOKUP(A35,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patent</v>
+        <v>Inventor's city on a patent</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
@@ -13846,30 +13942,30 @@
       </c>
       <c r="G36" s="6" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Name</v>
+        <v>Country</v>
       </c>
       <c r="H36" s="32" t="str">
         <f>IF(D36="N","NA",VLOOKUP(A36,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I36" s="32" t="str">
         <f>IF(D36="N","NA",VLOOKUP(A36,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J36" s="32" t="str">
         <f>VLOOKUP(A36,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>First name of the inventor</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -13882,7 +13978,7 @@
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>First Name</v>
       </c>
       <c r="H37" s="32" t="str">
         <f>IF(D37="N","NA",VLOOKUP(A37,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13894,18 +13990,18 @@
       </c>
       <c r="J37" s="32" t="str">
         <f>VLOOKUP(A37,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The earliest grant date for all an inventor's patents</v>
+        <v>First name of the inventor</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -13918,7 +14014,7 @@
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H38" s="32" t="str">
         <f>IF(D38="N","NA",VLOOKUP(A38,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13930,12 +14026,12 @@
       </c>
       <c r="J38" s="32" t="str">
         <f>VLOOKUP(A38,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
+        <v>The earliest grant date for all an inventor's patents</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
@@ -13954,7 +14050,7 @@
       </c>
       <c r="G39" s="6" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known City</v>
+        <v>ID</v>
       </c>
       <c r="H39" s="32" t="str">
         <f>IF(D39="N","NA",VLOOKUP(A39,Common!$A$2:$C$200,3,FALSE))</f>
@@ -13966,12 +14062,12 @@
       </c>
       <c r="J39" s="32" t="str">
         <f>VLOOKUP(A39,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's city on most recent patent</v>
+        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>72</v>
@@ -13990,33 +14086,33 @@
       </c>
       <c r="G40" s="6" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Country</v>
+        <v>Last Known City</v>
       </c>
       <c r="H40" s="32" t="str">
         <f>IF(D40="N","NA",VLOOKUP(A40,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I40" s="32" t="str">
         <f>IF(D40="N","NA",VLOOKUP(A40,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J40" s="32" t="str">
         <f>VLOOKUP(A40,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on most recent patent</v>
+        <v>Inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
@@ -14026,33 +14122,33 @@
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Latitude</v>
+        <v>Last Known Country</v>
       </c>
       <c r="H41" s="32" t="str">
         <f>IF(D41="N","NA",VLOOKUP(A41,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I41" s="32" t="str">
         <f>IF(D41="N","NA",VLOOKUP(A41,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J41" s="32" t="str">
         <f>VLOOKUP(A41,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude of inventor's city on most recent patent</v>
+        <v>Inventor's country on most recent patent</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
@@ -14062,11 +14158,11 @@
       </c>
       <c r="G42" s="6" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Location ID</v>
+        <v>Last Known Latitude</v>
       </c>
       <c r="H42" s="32" t="str">
         <f>IF(D42="N","NA",VLOOKUP(A42,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I42" s="32" t="str">
         <f>IF(D42="N","NA",VLOOKUP(A42,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14074,21 +14170,21 @@
       </c>
       <c r="J42" s="32" t="str">
         <f>VLOOKUP(A42,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique database ID for a an inventor's most recent location</v>
+        <v>Latitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
@@ -14098,11 +14194,11 @@
       </c>
       <c r="G43" s="6" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Longitude</v>
+        <v>Last Known Location ID</v>
       </c>
       <c r="H43" s="32" t="str">
         <f>IF(D43="N","NA",VLOOKUP(A43,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I43" s="32" t="str">
         <f>IF(D43="N","NA",VLOOKUP(A43,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14110,21 +14206,21 @@
       </c>
       <c r="J43" s="32" t="str">
         <f>VLOOKUP(A43,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude of inventor's city on most recent patent</v>
+        <v>Unique database ID for a an inventor's most recent location</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
@@ -14134,24 +14230,24 @@
       </c>
       <c r="G44" s="6" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known State</v>
+        <v>Last Known Longitude</v>
       </c>
       <c r="H44" s="32" t="str">
         <f>IF(D44="N","NA",VLOOKUP(A44,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I44" s="32" t="str">
         <f>IF(D44="N","NA",VLOOKUP(A44,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J44" s="32" t="str">
         <f>VLOOKUP(A44,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's state on most recent patent</v>
+        <v>Longitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>72</v>
@@ -14170,30 +14266,30 @@
       </c>
       <c r="G45" s="6" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Name</v>
+        <v>Last Known State</v>
       </c>
       <c r="H45" s="32" t="str">
         <f>IF(D45="N","NA",VLOOKUP(A45,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I45" s="32" t="str">
         <f>IF(D45="N","NA",VLOOKUP(A45,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J45" s="32" t="str">
         <f>VLOOKUP(A45,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Last name of inventor</v>
+        <v>Inventor's state on most recent patent</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
@@ -14206,7 +14302,7 @@
       </c>
       <c r="G46" s="6" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Last Name</v>
       </c>
       <c r="H46" s="32" t="str">
         <f>IF(D46="N","NA",VLOOKUP(A46,Common!$A$2:$C$200,3,FALSE))</f>
@@ -14218,21 +14314,21 @@
       </c>
       <c r="J46" s="32" t="str">
         <f>VLOOKUP(A46,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The most recent date for all an inventor's patents</v>
+        <v>Last name of inventor</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>9</v>
@@ -14242,11 +14338,11 @@
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Latitude</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H47" s="32" t="str">
         <f>IF(D47="N","NA",VLOOKUP(A47,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I47" s="32" t="str">
         <f>IF(D47="N","NA",VLOOKUP(A47,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14254,12 +14350,12 @@
       </c>
       <c r="J47" s="32" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude of inventor's city on a given patent</v>
+        <v>The most recent date for all an inventor's patents</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>72</v>
@@ -14278,7 +14374,7 @@
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Longitude</v>
+        <v>Latitude</v>
       </c>
       <c r="H48" s="32" t="str">
         <f>IF(D48="N","NA",VLOOKUP(A48,Common!$A$2:$C$200,3,FALSE))</f>
@@ -14290,21 +14386,21 @@
       </c>
       <c r="J48" s="32" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude of inventor's city on a given patent</v>
+        <v>Latitude of inventor's city on a given patent</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
@@ -14314,11 +14410,11 @@
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Assignee</v>
+        <v>Longitude</v>
       </c>
       <c r="H49" s="32" t="str">
         <f>IF(D49="N","NA",VLOOKUP(A49,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I49" s="32" t="str">
         <f>IF(D49="N","NA",VLOOKUP(A49,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14326,18 +14422,18 @@
       </c>
       <c r="J49" s="32" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents associated with an assignee and an inventor</v>
+        <v>Longitude of inventor's city on a given patent</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
@@ -14350,30 +14446,30 @@
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>State</v>
+        <v>Number of Patents for Assignee</v>
       </c>
       <c r="H50" s="32" t="str">
         <f>IF(D50="N","NA",VLOOKUP(A50,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I50" s="32" t="str">
         <f>IF(D50="N","NA",VLOOKUP(A50,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J50" s="32" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's state on a given patent</v>
+        <v>The number of patents associated with an assignee and an inventor</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
@@ -14386,33 +14482,33 @@
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>State</v>
       </c>
       <c r="H51" s="32" t="str">
         <f>IF(D51="N","NA",VLOOKUP(A51,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I51" s="32" t="str">
         <f>IF(D51="N","NA",VLOOKUP(A51,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J51" s="32" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents associated with a given inventor</v>
+        <v>Inventor's state on a given patent</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -14422,11 +14518,11 @@
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Action Date</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H52" s="32" t="str">
         <f>IF(D52="N","NA",VLOOKUP(A52,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I52" s="32" t="str">
         <f>IF(D52="N","NA",VLOOKUP(A52,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14434,21 +14530,21 @@
       </c>
       <c r="J52" s="32" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date an IPC is issued for a patent</v>
+        <v>Total number of patents associated with a given inventor</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
@@ -14458,24 +14554,24 @@
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Class</v>
+        <v>Action Date</v>
       </c>
       <c r="H53" s="32" t="str">
         <f>IF(D53="N","NA",VLOOKUP(A53,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>NA</v>
       </c>
       <c r="I53" s="32" t="str">
         <f>IF(D53="N","NA",VLOOKUP(A53,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J53" s="32" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
+        <v>Date an IPC is issued for a patent</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>86</v>
@@ -14484,7 +14580,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
@@ -14494,24 +14590,24 @@
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Data Source</v>
+        <v>Class</v>
       </c>
       <c r="H54" s="32" t="str">
         <f>IF(D54="N","NA",VLOOKUP(A54,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I54" s="32" t="str">
         <f>IF(D54="N","NA",VLOOKUP(A54,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J54" s="32" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$E$199,5, FALSE)</f>
-        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
+        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>86</v>
@@ -14520,7 +14616,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
@@ -14530,30 +14626,30 @@
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Value</v>
+        <v>Classification Data Source</v>
       </c>
       <c r="H55" s="32" t="str">
         <f>IF(D55="N","NA",VLOOKUP(A55,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I55" s="32" t="str">
         <f>IF(D55="N","NA",VLOOKUP(A55,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>I | N</v>
+        <v>NA</v>
       </c>
       <c r="J55" s="32" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
+        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -14566,24 +14662,24 @@
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Classification Value</v>
       </c>
       <c r="H56" s="32" t="str">
         <f>IF(D56="N","NA",VLOOKUP(A56,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I56" s="32" t="str">
         <f>IF(D56="N","NA",VLOOKUP(A56,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>I | N</v>
       </c>
       <c r="J56" s="32" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a IPC group</v>
+        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>86</v>
@@ -14602,7 +14698,7 @@
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H57" s="32" t="str">
         <f>IF(D57="N","NA",VLOOKUP(A57,Common!$A$2:$C$200,3,FALSE))</f>
@@ -14614,18 +14710,18 @@
       </c>
       <c r="J57" s="32" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a IPC group</v>
+        <v>The date of the earliest patent within a IPC group</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
@@ -14638,24 +14734,24 @@
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Main Group</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H58" s="32" t="str">
         <f>IF(D58="N","NA",VLOOKUP(A58,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I58" s="32" t="str">
         <f>IF(D58="N","NA",VLOOKUP(A58,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J58" s="32" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the subclass within the IPC system</v>
+        <v>The date of the most recent patent within a IPC group</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>86</v>
@@ -14674,24 +14770,24 @@
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Section</v>
+        <v>Main Group</v>
       </c>
       <c r="H59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | B | C | D | E | F | G | H</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J59" s="32" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
+        <v>Subdivisions of the subclass within the IPC system</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>86</v>
@@ -14710,7 +14806,7 @@
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass</v>
+        <v>Section</v>
       </c>
       <c r="H60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$C$200,3,FALSE))</f>
@@ -14718,16 +14814,16 @@
       </c>
       <c r="I60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
+        <v>A | B | C | D | E | F | G | H</v>
       </c>
       <c r="J60" s="32" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the class within IPC system</v>
+        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>86</v>
@@ -14746,24 +14842,24 @@
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup</v>
+        <v>Subclass</v>
       </c>
       <c r="H61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
       </c>
       <c r="J61" s="32" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the main group within the IPC system</v>
+        <v>Subdivisions of the class within IPC system</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>86</v>
@@ -14782,30 +14878,30 @@
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Symbol Position</v>
+        <v>Subgroup</v>
       </c>
       <c r="H62" s="32" t="str">
         <f>IF(D62="N","NA",VLOOKUP(A62,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I62" s="32" t="str">
         <f>IF(D62="N","NA",VLOOKUP(A62,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">F | L </v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J62" s="32" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
+        <v>Subdivisions of the main group within the IPC system</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -14818,24 +14914,24 @@
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Symbol Position</v>
       </c>
       <c r="H63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v xml:space="preserve">F | L </v>
       </c>
       <c r="J63" s="32" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within an IPC class.</v>
+        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>86</v>
@@ -14854,7 +14950,7 @@
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H64" s="32" t="str">
         <f>IF(D64="N","NA",VLOOKUP(A64,Common!$A$2:$C$200,3,FALSE))</f>
@@ -14866,21 +14962,21 @@
       </c>
       <c r="J64" s="32" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within an IPC class</v>
+        <v>The total number of unique assignees on patents within an IPC class.</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
@@ -14890,11 +14986,11 @@
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Version Indicator</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14902,21 +14998,21 @@
       </c>
       <c r="J65" s="32" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The version of the IPC classification system</v>
+        <v>The total number of unique inventors on patents within an IPC class</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
@@ -14926,11 +15022,11 @@
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>City</v>
+        <v>Version Indicator</v>
       </c>
       <c r="H66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$D$200,4,FALSE))</f>
@@ -14938,12 +15034,12 @@
       </c>
       <c r="J66" s="32" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>City associated with a location</v>
+        <v>The version of the IPC classification system</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>183</v>
@@ -14962,24 +15058,24 @@
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>City</v>
       </c>
       <c r="H67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J67" s="32" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country associated with a location</v>
+        <v>City associated with a location</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>183</v>
@@ -14998,33 +15094,33 @@
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Country</v>
       </c>
       <c r="H68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J68" s="32" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Disambiguated Location ID generated by the disambiguation algorithm</v>
+        <v>Country associated with a location</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
@@ -15034,11 +15130,11 @@
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Latitude</v>
+        <v>ID</v>
       </c>
       <c r="H69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$D$200,4,FALSE))</f>
@@ -15046,12 +15142,12 @@
       </c>
       <c r="J69" s="32" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude associated with a location</v>
+        <v>Disambiguated Location ID generated by the disambiguation algorithm</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>183</v>
@@ -15070,7 +15166,7 @@
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Longitude</v>
+        <v>Latitude</v>
       </c>
       <c r="H70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15082,21 +15178,21 @@
       </c>
       <c r="J70" s="32" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude associated with the selected location</v>
+        <v>Latitude associated with a location</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
@@ -15106,27 +15202,27 @@
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>State</v>
+        <v>Longitude</v>
       </c>
       <c r="H71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J71" s="32" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>State assocaited with a location</v>
+        <v>Longitude associated with the selected location</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -15142,7 +15238,7 @@
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category ID</v>
+        <v>State</v>
       </c>
       <c r="H72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15150,16 +15246,16 @@
       </c>
       <c r="I72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
+        <v>List of states</v>
       </c>
       <c r="J72" s="32" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER category ID (see nber_category_title for details)</v>
+        <v>State assocaited with a location</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>102</v>
@@ -15178,7 +15274,7 @@
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category Title</v>
+        <v>Category ID</v>
       </c>
       <c r="H73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15186,22 +15282,22 @@
       </c>
       <c r="I73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
+        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
       </c>
       <c r="J73" s="32" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER category</v>
+        <v>NBER category ID (see nber_category_title for details)</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -15214,24 +15310,24 @@
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Category Title</v>
       </c>
       <c r="H74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
       </c>
       <c r="J74" s="32" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a NBER subcategory</v>
+        <v>Description of NBER category</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>102</v>
@@ -15250,7 +15346,7 @@
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15262,18 +15358,18 @@
       </c>
       <c r="J75" s="32" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a NBER subcategory</v>
+        <v>The date of the earliest patent within a NBER subcategory</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -15286,66 +15382,66 @@
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory ID</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
+        <v>NA</v>
       </c>
       <c r="J76" s="32" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="1" t="s">
+        <v>The date of the most recent patent within a NBER subcategory</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="C77" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="6" t="str">
-        <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory Title</v>
+      <c r="G77" s="32" t="str">
+        <f>VLOOKUP(A77,Common!$1:$1048576,2,FALSE)</f>
+        <v>Number of Patents for NBER Subcategory</v>
       </c>
       <c r="H77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
+        <v>NA</v>
       </c>
       <c r="J77" s="32" t="str">
-        <f>VLOOKUP(A77,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER subcategory</v>
+        <f>VLOOKUP(A77,Common!$1:$1048576,5,FALSE)</f>
+        <v>The number of patents within a NBER subcategory for a given assignee</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
@@ -15358,30 +15454,30 @@
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Subcategory ID</v>
       </c>
       <c r="H78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
       </c>
       <c r="J78" s="32" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a NBER subcategory</v>
+        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
@@ -15394,24 +15490,24 @@
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Subcategory Title</v>
       </c>
       <c r="H79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
       </c>
       <c r="J79" s="32" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within a NBER subcategory</v>
+        <v>Description of NBER subcategory</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>102</v>
@@ -15430,7 +15526,7 @@
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15442,21 +15538,21 @@
       </c>
       <c r="J80" s="32" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a NBER subcategory</v>
+        <v>The total number of unique assignees on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
@@ -15466,11 +15562,11 @@
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Abstract</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$D$200,4,FALSE))</f>
@@ -15478,18 +15574,18 @@
       </c>
       <c r="J81" s="32" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Abtract associated with the patent</v>
+        <v>The total number of unique inventors on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -15502,33 +15598,33 @@
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>US</v>
+        <v>NA</v>
       </c>
       <c r="J82" s="32" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country assciated with a patent (always U.S.)</v>
+        <v>The total number of patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>9</v>
@@ -15538,11 +15634,11 @@
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Date</v>
+        <v>Abstract</v>
       </c>
       <c r="H83" s="32" t="str">
         <f>IF(D83="N","NA",VLOOKUP(A83,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I83" s="32" t="str">
         <f>IF(D83="N","NA",VLOOKUP(A83,Common!$A$2:$D$200,4,FALSE))</f>
@@ -15550,12 +15646,12 @@
       </c>
       <c r="J83" s="32" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date patent was granted</v>
+        <v>Abtract associated with the patent</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>112</v>
@@ -15574,30 +15670,30 @@
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee City</v>
+        <v>Country</v>
       </c>
       <c r="H84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>US</v>
       </c>
       <c r="J84" s="32" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
+        <v>Country assciated with a patent (always U.S.)</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
@@ -15610,24 +15706,24 @@
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Country</v>
+        <v>Date</v>
       </c>
       <c r="H85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J85" s="32" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>Date patent was granted</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>112</v>
@@ -15646,7 +15742,7 @@
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee ID</v>
+        <v>First Named Assignee City</v>
       </c>
       <c r="H86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15658,21 +15754,21 @@
       </c>
       <c r="J86" s="32" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
@@ -15682,24 +15778,24 @@
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Latitude</v>
+        <v>First Named Assignee Country</v>
       </c>
       <c r="H87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J87" s="32" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>112</v>
@@ -15718,7 +15814,7 @@
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Location ID</v>
+        <v>First Named Assignee ID</v>
       </c>
       <c r="H88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15730,12 +15826,12 @@
       </c>
       <c r="J88" s="32" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>112</v>
@@ -15754,7 +15850,7 @@
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Longitude</v>
+        <v>First Named Assignee Latitude</v>
       </c>
       <c r="H89" s="32" t="str">
         <f>IF(D89="N","NA",VLOOKUP(A89,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15766,12 +15862,12 @@
       </c>
       <c r="J89" s="32" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>112</v>
@@ -15790,33 +15886,33 @@
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee State</v>
+        <v>First Named Assignee Location ID</v>
       </c>
       <c r="H90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J90" s="32" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -15826,11 +15922,11 @@
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor City</v>
+        <v>First Named Assignee Longitude</v>
       </c>
       <c r="H91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$D$200,4,FALSE))</f>
@@ -15838,12 +15934,12 @@
       </c>
       <c r="J91" s="32" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>112</v>
@@ -15862,7 +15958,7 @@
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Country</v>
+        <v>First Named Assignee State</v>
       </c>
       <c r="H92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15870,16 +15966,16 @@
       </c>
       <c r="I92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>List of states</v>
       </c>
       <c r="J92" s="32" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>112</v>
@@ -15898,7 +15994,7 @@
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor ID</v>
+        <v>First Named Inventor City</v>
       </c>
       <c r="H93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15910,21 +16006,21 @@
       </c>
       <c r="J93" s="32" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>9</v>
@@ -15934,24 +16030,24 @@
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Latitude</v>
+        <v>First Named Inventor Country</v>
       </c>
       <c r="H94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J94" s="32" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>112</v>
@@ -15970,7 +16066,7 @@
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Location ID</v>
+        <v>First Named Inventor ID</v>
       </c>
       <c r="H95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$C$200,3,FALSE))</f>
@@ -15982,12 +16078,12 @@
       </c>
       <c r="J95" s="32" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>112</v>
@@ -16006,7 +16102,7 @@
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Longitude</v>
+        <v>First Named Inventor Latitude</v>
       </c>
       <c r="H96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16018,12 +16114,12 @@
       </c>
       <c r="J96" s="32" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
+        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>112</v>
@@ -16042,33 +16138,33 @@
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor State</v>
+        <v>First Named Inventor Location ID</v>
       </c>
       <c r="H97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J97" s="32" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
@@ -16078,11 +16174,11 @@
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>First Named Inventor Longitude</v>
       </c>
       <c r="H98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16090,12 +16186,12 @@
       </c>
       <c r="J98" s="32" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>US Patent number, as assigned by USPTO</v>
+        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>112</v>
@@ -16114,7 +16210,7 @@
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Kind</v>
+        <v>First Named Inventor State</v>
       </c>
       <c r="H99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16122,16 +16218,16 @@
       </c>
       <c r="I99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
+        <v>List of states</v>
       </c>
       <c r="J99" s="32" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
+        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>112</v>
@@ -16150,7 +16246,7 @@
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number</v>
+        <v>ID</v>
       </c>
       <c r="H100" s="32" t="str">
         <f>IF(D100="N","NA",VLOOKUP(A100,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16167,13 +16263,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
@@ -16186,33 +16282,33 @@
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number Cited by US Patents</v>
+        <v>Kind</v>
       </c>
       <c r="H101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
       </c>
       <c r="J101" s="32" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of times a patent was cited by other US patents</v>
+        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
@@ -16222,11 +16318,11 @@
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Claims</v>
+        <v>Number</v>
       </c>
       <c r="H102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16234,12 +16330,12 @@
       </c>
       <c r="J102" s="32" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Number of claim statements on patent</v>
+        <v>US Patent number, as assigned by USPTO</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>112</v>
@@ -16258,7 +16354,7 @@
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Combined Citations</v>
+        <v>Number Cited by US Patents</v>
       </c>
       <c r="H103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16270,12 +16366,12 @@
       </c>
       <c r="J103" s="32" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
+        <v>The number of times a patent was cited by other US patents</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>112</v>
@@ -16284,7 +16380,7 @@
         <v>23</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>9</v>
@@ -16294,11 +16390,11 @@
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Foreign Citations</v>
+        <v>Number of Claims</v>
       </c>
       <c r="H104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16306,12 +16402,12 @@
       </c>
       <c r="J104" s="32" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of foreign patents that the selected patent cites</v>
+        <v>Number of claim statements on patent</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>112</v>
@@ -16330,7 +16426,7 @@
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Application Citations</v>
+        <v>Number of Combined Citations</v>
       </c>
       <c r="H105" s="32" t="str">
         <f>IF(D105="N","NA",VLOOKUP(A105,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16342,12 +16438,12 @@
       </c>
       <c r="J105" s="32" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of applications that the selected patent cites</v>
+        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>112</v>
@@ -16366,7 +16462,7 @@
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Patent Citations</v>
+        <v>Number of Foreign Citations</v>
       </c>
       <c r="H106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16378,18 +16474,18 @@
       </c>
       <c r="J106" s="32" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of other US patents that the selected patent cites</v>
+        <v>The number of foreign patents that the selected patent cites</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
@@ -16402,11 +16498,11 @@
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Title</v>
+        <v>Number of US Application Citations</v>
       </c>
       <c r="H107" s="32" t="str">
         <f>IF(D107="N","NA",VLOOKUP(A107,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I107" s="32" t="str">
         <f>IF(D107="N","NA",VLOOKUP(A107,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16414,18 +16510,18 @@
       </c>
       <c r="J107" s="32" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Title of the  patent</v>
+        <v>The number of applications that the selected patent cites</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>9</v>
@@ -16438,30 +16534,30 @@
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Type</v>
+        <v>Number of US Patent Citations</v>
       </c>
       <c r="H108" s="32" t="str">
         <f>IF(D108="N","NA",VLOOKUP(A108,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I108" s="32" t="str">
         <f>IF(D108="N","NA",VLOOKUP(A108,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
+        <v>NA</v>
       </c>
       <c r="J108" s="32" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Category of patent</v>
+        <v>The number of other US patents that the selected patent cites</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -16474,7 +16570,7 @@
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Title</v>
       </c>
       <c r="H109" s="32" t="str">
         <f>IF(D109="N","NA",VLOOKUP(A109,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16486,18 +16582,18 @@
       </c>
       <c r="J109" s="32" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a USPC mainclass</v>
+        <v>Title of the  patent</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
@@ -16510,30 +16606,30 @@
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Type</v>
       </c>
       <c r="H110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
       </c>
       <c r="J110" s="32" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a USPC mainclass</v>
+        <v>Category of patent</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
@@ -16546,30 +16642,30 @@
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass ID</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
+        <v>NA</v>
       </c>
       <c r="J111" s="32" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of the USPC mainclass</v>
+        <v>The date of the earliest patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
@@ -16582,7 +16678,7 @@
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass Title</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H112" s="32" t="str">
         <f>IF(D112="N","NA",VLOOKUP(A112,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16594,21 +16690,21 @@
       </c>
       <c r="J112" s="32" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC mainclass</v>
+        <v>The date of the most recent patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
@@ -16618,24 +16714,24 @@
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Assignee</v>
+        <v>Mainclass ID</v>
       </c>
       <c r="H113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
       </c>
       <c r="J113" s="32" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique patents within a USPC mainclass with a given assignee</v>
+        <v>ID of the USPC mainclass</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>145</v>
@@ -16654,7 +16750,7 @@
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass ID</v>
+        <v>Mainclass Title</v>
       </c>
       <c r="H114" s="32" t="str">
         <f>IF(D114="N","NA",VLOOKUP(A114,Common!$A$2:$C$200,3,FALSE))</f>
@@ -16666,21 +16762,21 @@
       </c>
       <c r="J114" s="32" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of USPC subclass</v>
+        <v>Text describing USPC mainclass</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
@@ -16690,11 +16786,11 @@
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass Title</v>
+        <v>Number of Patents for Assignee</v>
       </c>
       <c r="H115" s="32" t="str">
         <f>IF(D115="N","NA",VLOOKUP(A115,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I115" s="32" t="str">
         <f>IF(D115="N","NA",VLOOKUP(A115,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16702,18 +16798,18 @@
       </c>
       <c r="J115" s="32" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC subclass</v>
+        <v>The total number of unique patents within a USPC mainclass with a given assignee</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>9</v>
@@ -16726,11 +16822,11 @@
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Subclass ID</v>
       </c>
       <c r="H116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16738,18 +16834,18 @@
       </c>
       <c r="J116" s="32" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a USPC mainclass</v>
+        <v>ID of USPC subclass</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>9</v>
@@ -16762,11 +16858,11 @@
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Subclass Title</v>
       </c>
       <c r="H117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16774,15 +16870,15 @@
       </c>
       <c r="J117" s="32" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
+        <v>Text describing USPC subclass</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
@@ -16798,11 +16894,11 @@
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16810,21 +16906,21 @@
       </c>
       <c r="J118" s="32" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$E$199,5, FALSE)</f>
-        <v xml:space="preserve">Year </v>
+        <v>The total number of unique assignees on patents within a USPC mainclass</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
@@ -16834,11 +16930,11 @@
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Assignee</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H119" s="32" t="str">
         <f>IF(D119="N","NA",VLOOKUP(A119,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I119" s="32" t="str">
         <f>IF(D119="N","NA",VLOOKUP(A119,Common!$A$2:$D$200,4,FALSE))</f>
@@ -16846,6 +16942,78 @@
       </c>
       <c r="J119" s="32" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$E$199,5, FALSE)</f>
+        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="6" t="str">
+        <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
+        <v>ID</v>
+      </c>
+      <c r="H120" s="32" t="str">
+        <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$C$200,3,FALSE))</f>
+        <v>Open Field, No Validation</v>
+      </c>
+      <c r="I120" s="32" t="str">
+        <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$D$200,4,FALSE))</f>
+        <v>NA</v>
+      </c>
+      <c r="J120" s="32" t="str">
+        <f>VLOOKUP(A120,Common!$A$2:$E$199,5, FALSE)</f>
+        <v xml:space="preserve">Year </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="6" t="str">
+        <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
+        <v>Number of Patents for Assignee</v>
+      </c>
+      <c r="H121" s="32" t="str">
+        <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$C$200,3,FALSE))</f>
+        <v>NA</v>
+      </c>
+      <c r="I121" s="32" t="str">
+        <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$D$200,4,FALSE))</f>
+        <v>NA</v>
+      </c>
+      <c r="J121" s="32" t="str">
+        <f>VLOOKUP(A121,Common!$A$2:$E$199,5, FALSE)</f>
         <v>The number of patents for a assignee for a given year.</v>
       </c>
     </row>
@@ -21217,7 +21385,7 @@
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for CPCSubsection</v>
+        <v>Number of Patents for CPC Subsection</v>
       </c>
       <c r="H121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$C$200,3,FALSE))</f>
@@ -30013,8 +30181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F142"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35490,8 +35658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO218"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38838,7 +39006,7 @@
         <v>333</v>
       </c>
       <c r="B192" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C192" t="s">
         <v>323</v>
@@ -38855,7 +39023,7 @@
         <v>212</v>
       </c>
       <c r="B193" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C193" t="s">
         <v>323</v>
@@ -38916,6 +39084,74 @@
       </c>
       <c r="E196" s="26" t="s">
         <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>554</v>
+      </c>
+      <c r="B197" t="s">
+        <v>349</v>
+      </c>
+      <c r="C197" t="s">
+        <v>323</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="1:37" x14ac:dyDescent="0.25">

--- a/querymodule/doc/API field lists.xlsx
+++ b/querymodule/doc/API field lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="1"/>
+    <workbookView xWindow="-45" yWindow="60" windowWidth="28800" windowHeight="16380" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="patent" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">inventor!$A$1:$I$141</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">patent!$A$1:$I$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">patent!$A$1:$I$140</definedName>
     <definedName name="Type">Sheet3!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6548" uniqueCount="562">
   <si>
     <t>API Field Name</t>
   </si>
@@ -2311,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,16 +4167,16 @@
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -4186,24 +4186,24 @@
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Sequence</v>
+        <v>Subgroup ID</v>
       </c>
       <c r="H52" s="32" t="str">
         <f>IF(D52="N","NA",VLOOKUP(A52,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I52" s="32" t="str">
         <f>IF(D52="N","NA",VLOOKUP(A52,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/cpc.html</v>
       </c>
       <c r="J52" s="32" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The order of the CPC classification in the list of classifications for the selected patent</v>
+        <v>CPC Subgroup ID</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>57</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup ID</v>
+        <v>Subgroup Title</v>
       </c>
       <c r="H53" s="32" t="str">
         <f>IF(D53="N","NA",VLOOKUP(A53,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="J53" s="32" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC Subgroup ID</v>
+        <v>Description of CPC Subgroup</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>57</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup Title</v>
+        <v>Subsection ID</v>
       </c>
       <c r="H54" s="32" t="str">
         <f>IF(D54="N","NA",VLOOKUP(A54,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4270,12 +4270,12 @@
       </c>
       <c r="J54" s="32" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of CPC Subgroup</v>
+        <v>CPC subsection ID</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>57</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subsection ID</v>
+        <v>Subsection Title</v>
       </c>
       <c r="H55" s="32" t="str">
         <f>IF(D55="N","NA",VLOOKUP(A55,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4306,18 +4306,18 @@
       </c>
       <c r="J55" s="32" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC subsection ID</v>
+        <v>Description of CPC subsection</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -4330,24 +4330,24 @@
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subsection Title</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H56" s="32" t="str">
         <f>IF(D56="N","NA",VLOOKUP(A56,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I56" s="32" t="str">
         <f>IF(D56="N","NA",VLOOKUP(A56,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/cpc.html</v>
+        <v>NA</v>
       </c>
       <c r="J56" s="32" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of CPC subsection</v>
+        <v>Total number of assignees on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H57" s="32" t="str">
         <f>IF(D57="N","NA",VLOOKUP(A57,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4378,12 +4378,12 @@
       </c>
       <c r="J57" s="32" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of assignees on patents within a CPC subsection</v>
+        <v>Total number of inventors on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H58" s="32" t="str">
         <f>IF(D58="N","NA",VLOOKUP(A58,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4414,18 +4414,18 @@
       </c>
       <c r="J58" s="32" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of inventors on patents within a CPC subsection</v>
+        <v>Total number of patents within a CPC subsection</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
@@ -4438,11 +4438,11 @@
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>City</v>
       </c>
       <c r="H59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$D$200,4,FALSE))</f>
@@ -4450,12 +4450,12 @@
       </c>
       <c r="J59" s="32" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents within a CPC subsection</v>
+        <v>Inventor's city on a patent</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>72</v>
@@ -4474,24 +4474,24 @@
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>City</v>
+        <v>Country</v>
       </c>
       <c r="H60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J60" s="32" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's city on a patent</v>
+        <v>Inventor's country on a patent</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>72</v>
@@ -4510,30 +4510,30 @@
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>First Name</v>
       </c>
       <c r="H61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J61" s="32" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on a patent</v>
+        <v>First name of the inventor</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Name</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H62" s="32" t="str">
         <f>IF(D62="N","NA",VLOOKUP(A62,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4558,18 +4558,18 @@
       </c>
       <c r="J62" s="32" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>First name of the inventor</v>
+        <v>The earliest grant date for all an inventor's patents</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>ID</v>
       </c>
       <c r="H63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4594,12 +4594,12 @@
       </c>
       <c r="J63" s="32" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The earliest grant date for all an inventor's patents</v>
+        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>72</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Last Name</v>
       </c>
       <c r="H64" s="32" t="str">
         <f>IF(D64="N","NA",VLOOKUP(A64,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4630,18 +4630,18 @@
       </c>
       <c r="J64" s="32" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
+        <v>Last name of inventor</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Name</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4666,18 +4666,18 @@
       </c>
       <c r="J65" s="32" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Last name of inventor</v>
+        <v>The most recent date for all an inventor's patents</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Last Known City</v>
       </c>
       <c r="H66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$C$200,3,FALSE))</f>
@@ -4702,12 +4702,12 @@
       </c>
       <c r="J66" s="32" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The most recent date for all an inventor's patents</v>
+        <v>Inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>72</v>
@@ -4726,33 +4726,33 @@
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known City</v>
+        <v>Last Known Country</v>
       </c>
       <c r="H67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J67" s="32" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's city on most recent patent</v>
+        <v>Inventor's country on most recent patent</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>9</v>
@@ -4762,33 +4762,33 @@
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Country</v>
+        <v>Last Known Latitude</v>
       </c>
       <c r="H68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J68" s="32" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on most recent patent</v>
+        <v>Latitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
@@ -4798,11 +4798,11 @@
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Latitude</v>
+        <v>Last Known Location ID</v>
       </c>
       <c r="H69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$D$200,4,FALSE))</f>
@@ -4810,21 +4810,21 @@
       </c>
       <c r="J69" s="32" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude of inventor's city on most recent patent</v>
+        <v>Unique database ID for a an inventor's most recent location</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
@@ -4834,11 +4834,11 @@
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Location ID</v>
+        <v>Last Known Longitude</v>
       </c>
       <c r="H70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$D$200,4,FALSE))</f>
@@ -4846,21 +4846,21 @@
       </c>
       <c r="J70" s="32" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique database ID for a an inventor's most recent location</v>
+        <v>Longitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
@@ -4870,33 +4870,33 @@
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Longitude</v>
+        <v>Last Known State</v>
       </c>
       <c r="H71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J71" s="32" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude of inventor's city on most recent patent</v>
+        <v>Inventor's state on most recent patent</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
@@ -4906,33 +4906,33 @@
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known State</v>
+        <v>Latitude</v>
       </c>
       <c r="H72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J72" s="32" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's state on most recent patent</v>
+        <v>Latitude of inventor's city on a given patent</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Latitude</v>
+        <v>Location ID</v>
       </c>
       <c r="H73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$D$200,4,FALSE))</f>
@@ -4954,21 +4954,21 @@
       </c>
       <c r="J73" s="32" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude of inventor's city on a given patent</v>
+        <v>Unique database ID for a an inventor's location on a given patent</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -4978,11 +4978,11 @@
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Location ID</v>
+        <v>Longitude</v>
       </c>
       <c r="H74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$D$200,4,FALSE))</f>
@@ -4990,21 +4990,21 @@
       </c>
       <c r="J74" s="32" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique database ID for a an inventor's location on a given patent</v>
+        <v>Longitude of inventor's city on a given patent</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
@@ -5014,11 +5014,11 @@
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Longitude</v>
+        <v>Sequence</v>
       </c>
       <c r="H75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$D$200,4,FALSE))</f>
@@ -5026,18 +5026,18 @@
       </c>
       <c r="J75" s="32" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude of inventor's city on a given patent</v>
+        <v>Order in which an inventor is listed on a patent</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -5050,30 +5050,30 @@
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Sequence</v>
+        <v>State</v>
       </c>
       <c r="H76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J76" s="32" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Order in which an inventor is listed on a patent</v>
+        <v>Inventor's state on a given patent</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -5086,33 +5086,33 @@
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>State</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J77" s="32" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's state on a given patent</v>
+        <v>Total number of patents associated with a given inventor</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
@@ -5122,11 +5122,11 @@
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Action Date</v>
       </c>
       <c r="H78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$D$200,4,FALSE))</f>
@@ -5134,21 +5134,21 @@
       </c>
       <c r="J78" s="32" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents associated with a given inventor</v>
+        <v>Date an IPC is issued for a patent</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>9</v>
@@ -5158,24 +5158,24 @@
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Action Date</v>
+        <v>Class</v>
       </c>
       <c r="H79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J79" s="32" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date an IPC is issued for a patent</v>
+        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>86</v>
@@ -5184,7 +5184,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
@@ -5194,24 +5194,24 @@
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Class</v>
+        <v>Classification Data Source</v>
       </c>
       <c r="H80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>NA</v>
       </c>
       <c r="I80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J80" s="32" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
+        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -5220,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>9</v>
@@ -5230,30 +5230,30 @@
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Data Source</v>
+        <v>Classification Value</v>
       </c>
       <c r="H81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>I | N</v>
       </c>
       <c r="J81" s="32" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$E$199,5, FALSE)</f>
-        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
+        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -5266,24 +5266,24 @@
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Value</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>I | N</v>
+        <v>NA</v>
       </c>
       <c r="J82" s="32" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
+        <v>The date of the earliest patent within a IPC group</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H83" s="32" t="str">
         <f>IF(D83="N","NA",VLOOKUP(A83,Common!$A$2:$C$200,3,FALSE))</f>
@@ -5314,18 +5314,18 @@
       </c>
       <c r="J83" s="32" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a IPC group</v>
+        <v>The date of the most recent patent within a IPC group</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
@@ -5338,24 +5338,24 @@
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Main Group</v>
       </c>
       <c r="H84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J84" s="32" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a IPC group</v>
+        <v>Subdivisions of the subclass within the IPC system</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
@@ -5374,24 +5374,24 @@
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Main Group</v>
+        <v>Section</v>
       </c>
       <c r="H85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>A | B | C | D | E | F | G | H</v>
       </c>
       <c r="J85" s="32" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the subclass within the IPC system</v>
+        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Section</v>
+        <v>Subclass</v>
       </c>
       <c r="H86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$C$200,3,FALSE))</f>
@@ -5418,25 +5418,25 @@
       </c>
       <c r="I86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | B | C | D | E | F | G | H</v>
+        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
       </c>
       <c r="J86" s="32" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
+        <v>Subdivisions of the class within IPC system</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
@@ -5446,24 +5446,24 @@
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Sequence</v>
+        <v>Subgroup</v>
       </c>
       <c r="H87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J87" s="32" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The order of the IPC classification in the list of classifications for the selected patent</v>
+        <v>Subdivisions of the main group within the IPC system</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass</v>
+        <v>Symbol Position</v>
       </c>
       <c r="H88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$C$200,3,FALSE))</f>
@@ -5490,22 +5490,22 @@
       </c>
       <c r="I88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
+        <v xml:space="preserve">F | L </v>
       </c>
       <c r="J88" s="32" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the class within IPC system</v>
+        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
@@ -5518,30 +5518,30 @@
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H89" s="32" t="str">
         <f>IF(D89="N","NA",VLOOKUP(A89,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I89" s="32" t="str">
         <f>IF(D89="N","NA",VLOOKUP(A89,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J89" s="32" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the main group within the IPC system</v>
+        <v>The total number of unique assignees on patents within an IPC class.</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>9</v>
@@ -5554,33 +5554,33 @@
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Symbol Position</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">F | L </v>
+        <v>NA</v>
       </c>
       <c r="J90" s="32" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
+        <v>The total number of unique inventors on patents within an IPC class</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -5590,11 +5590,11 @@
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Version Indicator</v>
       </c>
       <c r="H91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$D$200,4,FALSE))</f>
@@ -5602,18 +5602,18 @@
       </c>
       <c r="J91" s="32" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within an IPC class.</v>
+        <v>The version of the IPC classification system</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
@@ -5626,33 +5626,33 @@
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Category ID</v>
       </c>
       <c r="H92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
       </c>
       <c r="J92" s="32" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within an IPC class</v>
+        <v>NBER category ID (see nber_category_title for details)</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
@@ -5662,30 +5662,30 @@
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Version Indicator</v>
+        <v>Category Title</v>
       </c>
       <c r="H93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
       </c>
       <c r="J93" s="32" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The version of the IPC classification system</v>
+        <v>Description of NBER category</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
@@ -5698,30 +5698,30 @@
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category ID</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
+        <v>NA</v>
       </c>
       <c r="J94" s="32" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER category ID (see nber_category_title for details)</v>
+        <v>The date of the earliest patent within a NBER subcategory</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
@@ -5734,30 +5734,30 @@
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category Title</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
+        <v>NA</v>
       </c>
       <c r="J95" s="32" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER category</v>
+        <v>The date of the most recent patent within a NBER subcategory</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
@@ -5770,30 +5770,30 @@
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Subcategory ID</v>
       </c>
       <c r="H96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
       </c>
       <c r="J96" s="32" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a NBER subcategory</v>
+        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
@@ -5806,30 +5806,30 @@
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Subcategory Title</v>
       </c>
       <c r="H97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
       </c>
       <c r="J97" s="32" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a NBER subcategory</v>
+        <v>Description of NBER subcategory</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
@@ -5842,30 +5842,30 @@
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory ID</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
+        <v>NA</v>
       </c>
       <c r="J98" s="32" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
+        <v>The total number of unique assignees on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
@@ -5878,24 +5878,24 @@
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory Title</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
+        <v>NA</v>
       </c>
       <c r="J99" s="32" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER subcategory</v>
+        <v>The total number of unique inventors on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>102</v>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H100" s="32" t="str">
         <f>IF(D100="N","NA",VLOOKUP(A100,Common!$A$2:$C$200,3,FALSE))</f>
@@ -5926,21 +5926,21 @@
       </c>
       <c r="J100" s="32" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a NBER subcategory</v>
+        <v>The total number of patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
@@ -5950,11 +5950,11 @@
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Abstract</v>
       </c>
       <c r="H101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$D$200,4,FALSE))</f>
@@ -5962,15 +5962,15 @@
       </c>
       <c r="J101" s="32" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within a NBER subcategory</v>
+        <v>Abtract associated with the patent</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>23</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Average Processing Time</v>
       </c>
       <c r="H102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$C$200,3,FALSE))</f>
@@ -5998,21 +5998,21 @@
       </c>
       <c r="J102" s="32" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a NBER subcategory</v>
+        <v>Average processing time for patents belonging to the same USPC mainclass category as the selected patent</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>9</v>
@@ -6022,30 +6022,30 @@
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Abstract</v>
+        <v>Country</v>
       </c>
       <c r="H103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>US</v>
       </c>
       <c r="J103" s="32" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Abtract associated with the patent</v>
+        <v>Country assciated with a patent (always U.S.)</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
@@ -6058,11 +6058,11 @@
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Average Processing Time</v>
+        <v>Date</v>
       </c>
       <c r="H104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$D$200,4,FALSE))</f>
@@ -6070,12 +6070,12 @@
       </c>
       <c r="J104" s="32" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Average processing time for patents belonging to the same USPC mainclass category as the selected patent</v>
+        <v>Date patent was granted</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>112</v>
@@ -6094,30 +6094,30 @@
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>First Named Assignee City</v>
       </c>
       <c r="H105" s="32" t="str">
         <f>IF(D105="N","NA",VLOOKUP(A105,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I105" s="32" t="str">
         <f>IF(D105="N","NA",VLOOKUP(A105,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>US</v>
+        <v>NA</v>
       </c>
       <c r="J105" s="32" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country assciated with a patent (always U.S.)</v>
+        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
@@ -6130,24 +6130,24 @@
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Date</v>
+        <v>First Named Assignee Country</v>
       </c>
       <c r="H106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J106" s="32" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date patent was granted</v>
+        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>112</v>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee City</v>
+        <v>First Named Assignee ID</v>
       </c>
       <c r="H107" s="32" t="str">
         <f>IF(D107="N","NA",VLOOKUP(A107,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6178,21 +6178,21 @@
       </c>
       <c r="J107" s="32" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
+        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>9</v>
@@ -6202,24 +6202,24 @@
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Country</v>
+        <v>First Named Assignee Latitude</v>
       </c>
       <c r="H108" s="32" t="str">
         <f>IF(D108="N","NA",VLOOKUP(A108,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I108" s="32" t="str">
         <f>IF(D108="N","NA",VLOOKUP(A108,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J108" s="32" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>112</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee ID</v>
+        <v>First Named Assignee Location ID</v>
       </c>
       <c r="H109" s="32" t="str">
         <f>IF(D109="N","NA",VLOOKUP(A109,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6250,12 +6250,12 @@
       </c>
       <c r="J109" s="32" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>112</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Latitude</v>
+        <v>First Named Assignee Longitude</v>
       </c>
       <c r="H110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6286,12 +6286,12 @@
       </c>
       <c r="J110" s="32" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>112</v>
@@ -6310,33 +6310,33 @@
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Location ID</v>
+        <v>First Named Assignee State</v>
       </c>
       <c r="H111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J111" s="32" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
@@ -6346,11 +6346,11 @@
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Longitude</v>
+        <v>First Named Inventor City</v>
       </c>
       <c r="H112" s="32" t="str">
         <f>IF(D112="N","NA",VLOOKUP(A112,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I112" s="32" t="str">
         <f>IF(D112="N","NA",VLOOKUP(A112,Common!$A$2:$D$200,4,FALSE))</f>
@@ -6358,12 +6358,12 @@
       </c>
       <c r="J112" s="32" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>112</v>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee State</v>
+        <v>First Named Inventor Country</v>
       </c>
       <c r="H113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6390,16 +6390,16 @@
       </c>
       <c r="I113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>List of countries</v>
       </c>
       <c r="J113" s="32" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>112</v>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor City</v>
+        <v>First Named Inventor ID</v>
       </c>
       <c r="H114" s="32" t="str">
         <f>IF(D114="N","NA",VLOOKUP(A114,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6430,21 +6430,21 @@
       </c>
       <c r="J114" s="32" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
@@ -6454,24 +6454,24 @@
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Country</v>
+        <v>First Named Inventor Latitude</v>
       </c>
       <c r="H115" s="32" t="str">
         <f>IF(D115="N","NA",VLOOKUP(A115,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I115" s="32" t="str">
         <f>IF(D115="N","NA",VLOOKUP(A115,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J115" s="32" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>112</v>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor ID</v>
+        <v>First Named Inventor Location ID</v>
       </c>
       <c r="H116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6502,12 +6502,12 @@
       </c>
       <c r="J116" s="32" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>112</v>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Latitude</v>
+        <v>First Named Inventor Longitude</v>
       </c>
       <c r="H117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="J117" s="32" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>112</v>
@@ -6562,33 +6562,33 @@
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Location ID</v>
+        <v>First Named Inventor State</v>
       </c>
       <c r="H118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J118" s="32" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
@@ -6598,11 +6598,11 @@
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Longitude</v>
+        <v>ID</v>
       </c>
       <c r="H119" s="32" t="str">
         <f>IF(D119="N","NA",VLOOKUP(A119,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I119" s="32" t="str">
         <f>IF(D119="N","NA",VLOOKUP(A119,Common!$A$2:$D$200,4,FALSE))</f>
@@ -6610,12 +6610,12 @@
       </c>
       <c r="J119" s="32" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
+        <v>US Patent number, as assigned by USPTO</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>112</v>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor State</v>
+        <v>Kind</v>
       </c>
       <c r="H120" s="32" t="str">
         <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6642,22 +6642,22 @@
       </c>
       <c r="I120" s="32" t="str">
         <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
       </c>
       <c r="J120" s="32" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
@@ -6670,11 +6670,11 @@
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Number Cited by US Patents</v>
       </c>
       <c r="H121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$D$200,4,FALSE))</f>
@@ -6682,21 +6682,21 @@
       </c>
       <c r="J121" s="32" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>US Patent number, as assigned by USPTO</v>
+        <v>The number of times a patent was cited by other US patents</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>9</v>
@@ -6706,24 +6706,24 @@
       </c>
       <c r="G122" s="6" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Kind</v>
+        <v>Number of Claims</v>
       </c>
       <c r="H122" s="32" t="str">
         <f>IF(D122="N","NA",VLOOKUP(A122,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I122" s="32" t="str">
         <f>IF(D122="N","NA",VLOOKUP(A122,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
+        <v>NA</v>
       </c>
       <c r="J122" s="32" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
+        <v>Number of claim statements on patent</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>112</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="G123" s="6" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number Cited by US Patents</v>
+        <v>Number of Combined Citations</v>
       </c>
       <c r="H123" s="32" t="str">
         <f>IF(D123="N","NA",VLOOKUP(A123,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6754,12 +6754,12 @@
       </c>
       <c r="J123" s="32" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of times a patent was cited by other US patents</v>
+        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>112</v>
@@ -6768,7 +6768,7 @@
         <v>23</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>9</v>
@@ -6778,11 +6778,11 @@
       </c>
       <c r="G124" s="6" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Claims</v>
+        <v>Number of Foreign Citations</v>
       </c>
       <c r="H124" s="32" t="str">
         <f>IF(D124="N","NA",VLOOKUP(A124,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I124" s="32" t="str">
         <f>IF(D124="N","NA",VLOOKUP(A124,Common!$A$2:$D$200,4,FALSE))</f>
@@ -6790,12 +6790,12 @@
       </c>
       <c r="J124" s="32" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Number of claim statements on patent</v>
+        <v>The number of foreign patents that the selected patent cites</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>112</v>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G125" s="6" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Combined Citations</v>
+        <v>Number of US Application Citations</v>
       </c>
       <c r="H125" s="32" t="str">
         <f>IF(D125="N","NA",VLOOKUP(A125,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="J125" s="32" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
+        <v>The number of applications that the selected patent cites</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>112</v>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G126" s="6" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Foreign Citations</v>
+        <v>Number of US Patent Citations</v>
       </c>
       <c r="H126" s="32" t="str">
         <f>IF(D126="N","NA",VLOOKUP(A126,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6862,18 +6862,18 @@
       </c>
       <c r="J126" s="32" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of foreign patents that the selected patent cites</v>
+        <v>The number of other US patents that the selected patent cites</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
@@ -6886,11 +6886,11 @@
       </c>
       <c r="G127" s="6" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Application Citations</v>
+        <v>Number</v>
       </c>
       <c r="H127" s="32" t="str">
         <f>IF(D127="N","NA",VLOOKUP(A127,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I127" s="32" t="str">
         <f>IF(D127="N","NA",VLOOKUP(A127,Common!$A$2:$D$200,4,FALSE))</f>
@@ -6898,12 +6898,12 @@
       </c>
       <c r="J127" s="32" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of applications that the selected patent cites</v>
+        <v>US Patent number, as assigned by USPTO</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>112</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="G128" s="6" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Patent Citations</v>
+        <v>Processing Time</v>
       </c>
       <c r="H128" s="32" t="str">
         <f>IF(D128="N","NA",VLOOKUP(A128,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6934,18 +6934,18 @@
       </c>
       <c r="J128" s="32" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of other US patents that the selected patent cites</v>
+        <v>Time from application date to granted date for a patent</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="G129" s="6" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number</v>
+        <v>Title</v>
       </c>
       <c r="H129" s="32" t="str">
         <f>IF(D129="N","NA",VLOOKUP(A129,Common!$A$2:$C$200,3,FALSE))</f>
@@ -6970,18 +6970,18 @@
       </c>
       <c r="J129" s="32" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>US Patent number, as assigned by USPTO</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Title of the  patent</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
@@ -6994,30 +6994,30 @@
       </c>
       <c r="G130" s="6" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Processing Time</v>
+        <v>Type</v>
       </c>
       <c r="H130" s="32" t="str">
         <f>IF(D130="N","NA",VLOOKUP(A130,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I130" s="32" t="str">
         <f>IF(D130="N","NA",VLOOKUP(A130,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
       </c>
       <c r="J130" s="32" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Time from application date to granted date for a patent</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Category of patent</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>9</v>
@@ -7030,11 +7030,11 @@
       </c>
       <c r="G131" s="6" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Title</v>
+        <v>Year</v>
       </c>
       <c r="H131" s="32" t="str">
         <f>IF(D131="N","NA",VLOOKUP(A131,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I131" s="32" t="str">
         <f>IF(D131="N","NA",VLOOKUP(A131,Common!$A$2:$D$200,4,FALSE))</f>
@@ -7042,18 +7042,18 @@
       </c>
       <c r="J131" s="32" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Title of the  patent</v>
+        <v>Year patent was granted</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
@@ -7066,30 +7066,30 @@
       </c>
       <c r="G132" s="6" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Type</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H132" s="32" t="str">
         <f>IF(D132="N","NA",VLOOKUP(A132,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I132" s="32" t="str">
         <f>IF(D132="N","NA",VLOOKUP(A132,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
+        <v>NA</v>
       </c>
       <c r="J132" s="32" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Category of patent</v>
+        <v>The date of the earliest patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>9</v>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="G133" s="6" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Year</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H133" s="32" t="str">
         <f>IF(D133="N","NA",VLOOKUP(A133,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I133" s="32" t="str">
         <f>IF(D133="N","NA",VLOOKUP(A133,Common!$A$2:$D$200,4,FALSE))</f>
@@ -7114,18 +7114,18 @@
       </c>
       <c r="J133" s="32" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Year patent was granted</v>
+        <v>The date of the most recent patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>9</v>
@@ -7138,30 +7138,30 @@
       </c>
       <c r="G134" s="6" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Mainclass ID</v>
       </c>
       <c r="H134" s="32" t="str">
         <f>IF(D134="N","NA",VLOOKUP(A134,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I134" s="32" t="str">
         <f>IF(D134="N","NA",VLOOKUP(A134,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
       </c>
       <c r="J134" s="32" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a USPC mainclass</v>
+        <v>ID of the USPC mainclass</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>9</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G135" s="6" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Mainclass Title</v>
       </c>
       <c r="H135" s="32" t="str">
         <f>IF(D135="N","NA",VLOOKUP(A135,Common!$A$2:$C$200,3,FALSE))</f>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="J135" s="32" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a USPC mainclass</v>
+        <v>Text describing USPC mainclass</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>145</v>
@@ -7210,24 +7210,24 @@
       </c>
       <c r="G136" s="6" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass ID</v>
+        <v>Subclass ID</v>
       </c>
       <c r="H136" s="32" t="str">
         <f>IF(D136="N","NA",VLOOKUP(A136,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I136" s="32" t="str">
         <f>IF(D136="N","NA",VLOOKUP(A136,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
+        <v>NA</v>
       </c>
       <c r="J136" s="32" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of the USPC mainclass</v>
+        <v>ID of USPC subclass</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>145</v>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="G137" s="6" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass Title</v>
+        <v>Subclass Title</v>
       </c>
       <c r="H137" s="32" t="str">
         <f>IF(D137="N","NA",VLOOKUP(A137,Common!$A$2:$C$200,3,FALSE))</f>
@@ -7258,12 +7258,12 @@
       </c>
       <c r="J137" s="32" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC mainclass</v>
+        <v>Text describing USPC subclass</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>145</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="G138" s="6" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Sequence</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H138" s="32" t="str">
         <f>IF(D138="N","NA",VLOOKUP(A138,Common!$A$2:$C$200,3,FALSE))</f>
@@ -7294,18 +7294,18 @@
       </c>
       <c r="J138" s="32" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The order of the USPC classification in the list of classifications for the selected patent</v>
+        <v>The total number of unique assignees on patents within a USPC mainclass</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
@@ -7318,11 +7318,11 @@
       </c>
       <c r="G139" s="6" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass ID</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H139" s="32" t="str">
         <f>IF(D139="N","NA",VLOOKUP(A139,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I139" s="32" t="str">
         <f>IF(D139="N","NA",VLOOKUP(A139,Common!$A$2:$D$200,4,FALSE))</f>
@@ -7330,18 +7330,18 @@
       </c>
       <c r="J139" s="32" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of USPC subclass</v>
+        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
@@ -7354,11 +7354,11 @@
       </c>
       <c r="G140" s="6" t="str">
         <f>VLOOKUP(A140,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass Title</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H140" s="32" t="str">
         <f>IF(D140="N","NA",VLOOKUP(A140,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I140" s="32" t="str">
         <f>IF(D140="N","NA",VLOOKUP(A140,Common!$A$2:$D$200,4,FALSE))</f>
@@ -7366,122 +7366,14 @@
       </c>
       <c r="J140" s="32" t="str">
         <f>VLOOKUP(A140,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC subclass</v>
+        <v>The total number of patents within a USPC mainclass</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f>VLOOKUP(A141,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
-      </c>
-      <c r="H141" s="32" t="str">
-        <f>IF(D141="N","NA",VLOOKUP(A141,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
-      </c>
-      <c r="I141" s="32" t="str">
-        <f>IF(D141="N","NA",VLOOKUP(A141,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
-      </c>
-      <c r="J141" s="32" t="str">
-        <f>VLOOKUP(A141,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a USPC mainclass</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="6" t="str">
-        <f>VLOOKUP(A142,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
-      </c>
-      <c r="H142" s="32" t="str">
-        <f>IF(D142="N","NA",VLOOKUP(A142,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
-      </c>
-      <c r="I142" s="32" t="str">
-        <f>IF(D142="N","NA",VLOOKUP(A142,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
-      </c>
-      <c r="J142" s="32" t="str">
-        <f>VLOOKUP(A142,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" s="6" t="str">
-        <f>VLOOKUP(A143,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
-      </c>
-      <c r="H143" s="32" t="str">
-        <f>IF(D143="N","NA",VLOOKUP(A143,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
-      </c>
-      <c r="I143" s="32" t="str">
-        <f>IF(D143="N","NA",VLOOKUP(A143,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
-      </c>
-      <c r="J143" s="32" t="str">
-        <f>VLOOKUP(A143,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a USPC mainclass</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J144" s="13"/>
+      <c r="J141" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I143">
+  <autoFilter ref="A1:I140">
     <sortState ref="A2:I144">
       <sortCondition ref="B2:B144"/>
       <sortCondition ref="A2:A144"/>
@@ -7546,8 +7438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17036,7 +16928,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F121"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21418,7 +21310,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F121"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30179,10 +30071,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31852,16 +31744,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -31871,24 +31763,24 @@
       </c>
       <c r="G47" s="6" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Sequence</v>
+        <v>Subgroup ID</v>
       </c>
       <c r="H47" s="32" t="str">
         <f>IF(D47="N","NA",VLOOKUP(A47,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I47" s="32" t="str">
         <f>IF(D47="N","NA",VLOOKUP(A47,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/cpc.html</v>
       </c>
       <c r="J47" s="32" t="str">
         <f>VLOOKUP(A47,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The order of the CPC classification in the list of classifications for the selected patent</v>
+        <v>CPC Subgroup ID</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
@@ -31907,7 +31799,7 @@
       </c>
       <c r="G48" s="6" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup ID</v>
+        <v>Subgroup Title</v>
       </c>
       <c r="H48" s="32" t="str">
         <f>IF(D48="N","NA",VLOOKUP(A48,Common!$A$2:$C$200,3,FALSE))</f>
@@ -31919,12 +31811,12 @@
       </c>
       <c r="J48" s="32" t="str">
         <f>VLOOKUP(A48,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC Subgroup ID</v>
+        <v>Description of CPC Subgroup</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
@@ -31943,7 +31835,7 @@
       </c>
       <c r="G49" s="6" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup Title</v>
+        <v>Subsection ID</v>
       </c>
       <c r="H49" s="32" t="str">
         <f>IF(D49="N","NA",VLOOKUP(A49,Common!$A$2:$C$200,3,FALSE))</f>
@@ -31955,12 +31847,12 @@
       </c>
       <c r="J49" s="32" t="str">
         <f>VLOOKUP(A49,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of CPC Subgroup</v>
+        <v>CPC subsection ID</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
@@ -31979,7 +31871,7 @@
       </c>
       <c r="G50" s="6" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subsection ID</v>
+        <v>Subsection Title</v>
       </c>
       <c r="H50" s="32" t="str">
         <f>IF(D50="N","NA",VLOOKUP(A50,Common!$A$2:$C$200,3,FALSE))</f>
@@ -31991,18 +31883,18 @@
       </c>
       <c r="J50" s="32" t="str">
         <f>VLOOKUP(A50,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>CPC subsection ID</v>
+        <v>Description of CPC subsection</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -32015,24 +31907,24 @@
       </c>
       <c r="G51" s="6" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subsection Title</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H51" s="32" t="str">
         <f>IF(D51="N","NA",VLOOKUP(A51,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I51" s="32" t="str">
         <f>IF(D51="N","NA",VLOOKUP(A51,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/cpc.html</v>
+        <v>NA</v>
       </c>
       <c r="J51" s="32" t="str">
         <f>VLOOKUP(A51,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of CPC subsection</v>
+        <v>Total number of assignees on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -32051,7 +31943,7 @@
       </c>
       <c r="G52" s="6" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H52" s="32" t="str">
         <f>IF(D52="N","NA",VLOOKUP(A52,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32063,12 +31955,12 @@
       </c>
       <c r="J52" s="32" t="str">
         <f>VLOOKUP(A52,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of assignees on patents within a CPC subsection</v>
+        <v>Total number of inventors on patents within a CPC subsection</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
@@ -32087,7 +31979,7 @@
       </c>
       <c r="G53" s="6" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H53" s="32" t="str">
         <f>IF(D53="N","NA",VLOOKUP(A53,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32099,18 +31991,18 @@
       </c>
       <c r="J53" s="32" t="str">
         <f>VLOOKUP(A53,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of inventors on patents within a CPC subsection</v>
+        <v>Total number of patents within a CPC subsection</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -32123,11 +32015,11 @@
       </c>
       <c r="G54" s="6" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>First Name</v>
       </c>
       <c r="H54" s="32" t="str">
         <f>IF(D54="N","NA",VLOOKUP(A54,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I54" s="32" t="str">
         <f>IF(D54="N","NA",VLOOKUP(A54,Common!$A$2:$D$200,4,FALSE))</f>
@@ -32135,18 +32027,18 @@
       </c>
       <c r="J54" s="32" t="str">
         <f>VLOOKUP(A54,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents within a CPC subsection</v>
+        <v>First name of the inventor</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -32159,7 +32051,7 @@
       </c>
       <c r="G55" s="6" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Name</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H55" s="32" t="str">
         <f>IF(D55="N","NA",VLOOKUP(A55,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32171,18 +32063,18 @@
       </c>
       <c r="J55" s="32" t="str">
         <f>VLOOKUP(A55,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>First name of the inventor</v>
+        <v>The earliest grant date for all an inventor's patents</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -32195,7 +32087,7 @@
       </c>
       <c r="G56" s="6" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>ID</v>
       </c>
       <c r="H56" s="32" t="str">
         <f>IF(D56="N","NA",VLOOKUP(A56,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32207,12 +32099,12 @@
       </c>
       <c r="J56" s="32" t="str">
         <f>VLOOKUP(A56,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The earliest grant date for all an inventor's patents</v>
+        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -32231,7 +32123,7 @@
       </c>
       <c r="G57" s="6" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Last Known City</v>
       </c>
       <c r="H57" s="32" t="str">
         <f>IF(D57="N","NA",VLOOKUP(A57,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32243,12 +32135,12 @@
       </c>
       <c r="J57" s="32" t="str">
         <f>VLOOKUP(A57,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique ID for an inventor assigned by disambiguation algorithm</v>
+        <v>Inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -32267,33 +32159,33 @@
       </c>
       <c r="G58" s="6" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known City</v>
+        <v>Last Known Country</v>
       </c>
       <c r="H58" s="32" t="str">
         <f>IF(D58="N","NA",VLOOKUP(A58,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I58" s="32" t="str">
         <f>IF(D58="N","NA",VLOOKUP(A58,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J58" s="32" t="str">
         <f>VLOOKUP(A58,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's city on most recent patent</v>
+        <v>Inventor's country on most recent patent</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -32303,33 +32195,33 @@
       </c>
       <c r="G59" s="6" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Country</v>
+        <v>Last Known Latitude</v>
       </c>
       <c r="H59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I59" s="32" t="str">
         <f>IF(D59="N","NA",VLOOKUP(A59,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J59" s="32" t="str">
         <f>VLOOKUP(A59,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's country on most recent patent</v>
+        <v>Latitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -32339,11 +32231,11 @@
       </c>
       <c r="G60" s="6" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Latitude</v>
+        <v>Last Known Location ID</v>
       </c>
       <c r="H60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I60" s="32" t="str">
         <f>IF(D60="N","NA",VLOOKUP(A60,Common!$A$2:$D$200,4,FALSE))</f>
@@ -32351,21 +32243,21 @@
       </c>
       <c r="J60" s="32" t="str">
         <f>VLOOKUP(A60,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude of inventor's city on most recent patent</v>
+        <v>Unique database ID for a an inventor's most recent location</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -32375,11 +32267,11 @@
       </c>
       <c r="G61" s="6" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Location ID</v>
+        <v>Last Known Longitude</v>
       </c>
       <c r="H61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I61" s="32" t="str">
         <f>IF(D61="N","NA",VLOOKUP(A61,Common!$A$2:$D$200,4,FALSE))</f>
@@ -32387,21 +32279,21 @@
       </c>
       <c r="J61" s="32" t="str">
         <f>VLOOKUP(A61,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Unique database ID for a an inventor's most recent location</v>
+        <v>Longitude of inventor's city on most recent patent</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -32411,24 +32303,24 @@
       </c>
       <c r="G62" s="6" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known Longitude</v>
+        <v>Last Known State</v>
       </c>
       <c r="H62" s="32" t="str">
         <f>IF(D62="N","NA",VLOOKUP(A62,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I62" s="32" t="str">
         <f>IF(D62="N","NA",VLOOKUP(A62,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J62" s="32" t="str">
         <f>VLOOKUP(A62,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude of inventor's city on most recent patent</v>
+        <v>Inventor's state on most recent patent</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -32447,30 +32339,30 @@
       </c>
       <c r="G63" s="6" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Known State</v>
+        <v>Last Name</v>
       </c>
       <c r="H63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I63" s="32" t="str">
         <f>IF(D63="N","NA",VLOOKUP(A63,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J63" s="32" t="str">
         <f>VLOOKUP(A63,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Inventor's state on most recent patent</v>
+        <v>Last name of inventor</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -32483,7 +32375,7 @@
       </c>
       <c r="G64" s="6" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Name</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H64" s="32" t="str">
         <f>IF(D64="N","NA",VLOOKUP(A64,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32495,21 +32387,21 @@
       </c>
       <c r="J64" s="32" t="str">
         <f>VLOOKUP(A64,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Last name of inventor</v>
+        <v>The most recent date for all an inventor's patents</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -32519,11 +32411,11 @@
       </c>
       <c r="G65" s="6" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Number of Patents for Location</v>
       </c>
       <c r="H65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I65" s="32" t="str">
         <f>IF(D65="N","NA",VLOOKUP(A65,Common!$A$2:$D$200,4,FALSE))</f>
@@ -32531,12 +32423,12 @@
       </c>
       <c r="J65" s="32" t="str">
         <f>VLOOKUP(A65,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The most recent date for all an inventor's patents</v>
+        <v>The number of patents for an inventor within a location</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -32545,7 +32437,7 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -32555,11 +32447,11 @@
       </c>
       <c r="G66" s="6" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Location</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I66" s="32" t="str">
         <f>IF(D66="N","NA",VLOOKUP(A66,Common!$A$2:$D$200,4,FALSE))</f>
@@ -32567,21 +32459,21 @@
       </c>
       <c r="J66" s="32" t="str">
         <f>VLOOKUP(A66,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents for an inventor within a location</v>
+        <v>Total number of patents associated with a given inventor</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -32591,11 +32483,11 @@
       </c>
       <c r="G67" s="6" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Action Date</v>
       </c>
       <c r="H67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I67" s="32" t="str">
         <f>IF(D67="N","NA",VLOOKUP(A67,Common!$A$2:$D$200,4,FALSE))</f>
@@ -32603,21 +32495,21 @@
       </c>
       <c r="J67" s="32" t="str">
         <f>VLOOKUP(A67,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Total number of patents associated with a given inventor</v>
+        <v>Date an IPC is issued for a patent</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -32627,24 +32519,24 @@
       </c>
       <c r="G68" s="6" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Action Date</v>
+        <v>Class</v>
       </c>
       <c r="H68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I68" s="32" t="str">
         <f>IF(D68="N","NA",VLOOKUP(A68,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J68" s="32" t="str">
         <f>VLOOKUP(A68,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date an IPC is issued for a patent</v>
+        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
         <v>86</v>
@@ -32653,7 +32545,7 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -32663,24 +32555,24 @@
       </c>
       <c r="G69" s="6" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Class</v>
+        <v>Classification Data Source</v>
       </c>
       <c r="H69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>NA</v>
       </c>
       <c r="I69" s="32" t="str">
         <f>IF(D69="N","NA",VLOOKUP(A69,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J69" s="32" t="str">
         <f>VLOOKUP(A69,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Second hierarchial level of the IPC system, sections are subdivided into classes</v>
+        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>86</v>
@@ -32689,7 +32581,7 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -32699,30 +32591,30 @@
       </c>
       <c r="G70" s="6" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Data Source</v>
+        <v>Classification Value</v>
       </c>
       <c r="H70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I70" s="32" t="str">
         <f>IF(D70="N","NA",VLOOKUP(A70,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>I | N</v>
       </c>
       <c r="J70" s="32" t="str">
         <f>VLOOKUP(A70,Common!$A$2:$E$199,5, FALSE)</f>
-        <v xml:space="preserve"> “H” defining “Human - Generated”, “M” defining “Machine - Generated” and “G” defining “G enerated via Software”</v>
+        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -32735,24 +32627,24 @@
       </c>
       <c r="G71" s="6" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Classification Value</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I71" s="32" t="str">
         <f>IF(D71="N","NA",VLOOKUP(A71,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>I | N</v>
+        <v>NA</v>
       </c>
       <c r="J71" s="32" t="str">
         <f>VLOOKUP(A71,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“ I ” defining “invention information” or “N” defining “non - invention information”</v>
+        <v>The date of the earliest patent within a IPC group</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
@@ -32771,7 +32663,7 @@
       </c>
       <c r="G72" s="6" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H72" s="32" t="str">
         <f>IF(D72="N","NA",VLOOKUP(A72,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32783,18 +32675,18 @@
       </c>
       <c r="J72" s="32" t="str">
         <f>VLOOKUP(A72,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a IPC group</v>
+        <v>The date of the most recent patent within a IPC group</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -32807,24 +32699,24 @@
       </c>
       <c r="G73" s="6" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Main Group</v>
       </c>
       <c r="H73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I73" s="32" t="str">
         <f>IF(D73="N","NA",VLOOKUP(A73,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J73" s="32" t="str">
         <f>VLOOKUP(A73,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a IPC group</v>
+        <v>Subdivisions of the subclass within the IPC system</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
         <v>86</v>
@@ -32843,24 +32735,24 @@
       </c>
       <c r="G74" s="6" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Main Group</v>
+        <v>Section</v>
       </c>
       <c r="H74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I74" s="32" t="str">
         <f>IF(D74="N","NA",VLOOKUP(A74,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>A | B | C | D | E | F | G | H</v>
       </c>
       <c r="J74" s="32" t="str">
         <f>VLOOKUP(A74,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the subclass within the IPC system</v>
+        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
@@ -32879,7 +32771,7 @@
       </c>
       <c r="G75" s="6" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Section</v>
+        <v>Subclass</v>
       </c>
       <c r="H75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32887,25 +32779,25 @@
       </c>
       <c r="I75" s="32" t="str">
         <f>IF(D75="N","NA",VLOOKUP(A75,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | B | C | D | E | F | G | H</v>
+        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
       </c>
       <c r="J75" s="32" t="str">
         <f>VLOOKUP(A75,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>One of the eight highest hierarchical levels of the IPC corresponding to very broad technical fields ( A = Human Necessitites, B = Performing Operations; Transporint, C = Chemistry; Metallurgy, D = Textiles; paper, E = Fixed Constructing, F = Mechanical Engineering; Lighting; Heating; Weapons; Blasting Engines; Pumps, G = Physics, H = Electricity)</v>
+        <v>Subdivisions of the class within IPC system</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -32915,24 +32807,24 @@
       </c>
       <c r="G76" s="6" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Sequence</v>
+        <v>Subgroup</v>
       </c>
       <c r="H76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I76" s="32" t="str">
         <f>IF(D76="N","NA",VLOOKUP(A76,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
       </c>
       <c r="J76" s="32" t="str">
         <f>VLOOKUP(A76,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The order of the IPC classification in the list of classifications for the selected patent</v>
+        <v>Subdivisions of the main group within the IPC system</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
@@ -32951,7 +32843,7 @@
       </c>
       <c r="G77" s="6" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass</v>
+        <v>Symbol Position</v>
       </c>
       <c r="H77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$C$200,3,FALSE))</f>
@@ -32959,22 +32851,22 @@
       </c>
       <c r="I77" s="32" t="str">
         <f>IF(D77="N","NA",VLOOKUP(A77,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | X | Y | Z </v>
+        <v xml:space="preserve">F | L </v>
       </c>
       <c r="J77" s="32" t="str">
         <f>VLOOKUP(A77,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the class within IPC system</v>
+        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -32987,30 +32879,30 @@
       </c>
       <c r="G78" s="6" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subgroup</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I78" s="32" t="str">
         <f>IF(D78="N","NA",VLOOKUP(A78,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.wipo.int/export/sites/www/classifications/ipc/en/guide/guide_ipc.pdf</v>
+        <v>NA</v>
       </c>
       <c r="J78" s="32" t="str">
         <f>VLOOKUP(A78,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Subdivisions of the main group within the IPC system</v>
+        <v>The total number of unique assignees on patents within an IPC class.</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -33023,33 +32915,33 @@
       </c>
       <c r="G79" s="6" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Symbol Position</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I79" s="32" t="str">
         <f>IF(D79="N","NA",VLOOKUP(A79,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">F | L </v>
+        <v>NA</v>
       </c>
       <c r="J79" s="32" t="str">
         <f>VLOOKUP(A79,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>“F” defining “first” for the sole or first “invention information” IPC, or “L” defining “later” for any second and succeeding “invention information” IPC and for any “non - invention informati on” IPC</v>
+        <v>The total number of unique inventors on patents within an IPC class</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -33059,11 +32951,11 @@
       </c>
       <c r="G80" s="6" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Version Indicator</v>
       </c>
       <c r="H80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I80" s="32" t="str">
         <f>IF(D80="N","NA",VLOOKUP(A80,Common!$A$2:$D$200,4,FALSE))</f>
@@ -33071,18 +32963,18 @@
       </c>
       <c r="J80" s="32" t="str">
         <f>VLOOKUP(A80,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within an IPC class.</v>
+        <v>The version of the IPC classification system</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -33095,11 +32987,11 @@
       </c>
       <c r="G81" s="6" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>City</v>
       </c>
       <c r="H81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I81" s="32" t="str">
         <f>IF(D81="N","NA",VLOOKUP(A81,Common!$A$2:$D$200,4,FALSE))</f>
@@ -33107,21 +32999,21 @@
       </c>
       <c r="J81" s="32" t="str">
         <f>VLOOKUP(A81,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within an IPC class</v>
+        <v>City associated with a location</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -33131,24 +33023,24 @@
       </c>
       <c r="G82" s="6" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Version Indicator</v>
+        <v>Country</v>
       </c>
       <c r="H82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I82" s="32" t="str">
         <f>IF(D82="N","NA",VLOOKUP(A82,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J82" s="32" t="str">
         <f>VLOOKUP(A82,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The version of the IPC classification system</v>
+        <v>Country associated with a location</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
         <v>183</v>
@@ -33167,7 +33059,7 @@
       </c>
       <c r="G83" s="6" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>City</v>
+        <v>ID</v>
       </c>
       <c r="H83" s="32" t="str">
         <f>IF(D83="N","NA",VLOOKUP(A83,Common!$A$2:$C$200,3,FALSE))</f>
@@ -33179,21 +33071,21 @@
       </c>
       <c r="J83" s="32" t="str">
         <f>VLOOKUP(A83,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>City associated with a location</v>
+        <v>Disambiguated Location ID generated by the disambiguation algorithm</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" t="s">
         <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -33203,33 +33095,33 @@
       </c>
       <c r="G84" s="6" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>Latitude</v>
       </c>
       <c r="H84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I84" s="32" t="str">
         <f>IF(D84="N","NA",VLOOKUP(A84,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J84" s="32" t="str">
         <f>VLOOKUP(A84,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country associated with a location</v>
+        <v>Latitude associated with a location</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B85" t="s">
         <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -33239,11 +33131,11 @@
       </c>
       <c r="G85" s="6" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Longitude</v>
       </c>
       <c r="H85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I85" s="32" t="str">
         <f>IF(D85="N","NA",VLOOKUP(A85,Common!$A$2:$D$200,4,FALSE))</f>
@@ -33251,21 +33143,21 @@
       </c>
       <c r="J85" s="32" t="str">
         <f>VLOOKUP(A85,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Disambiguated Location ID generated by the disambiguation algorithm</v>
+        <v>Longitude associated with the selected location</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
         <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -33275,33 +33167,33 @@
       </c>
       <c r="G86" s="6" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Latitude</v>
+        <v>State</v>
       </c>
       <c r="H86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I86" s="32" t="str">
         <f>IF(D86="N","NA",VLOOKUP(A86,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J86" s="32" t="str">
         <f>VLOOKUP(A86,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Latitude associated with a location</v>
+        <v>State assocaited with a location</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="B87" t="s">
         <v>183</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -33311,11 +33203,11 @@
       </c>
       <c r="G87" s="6" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Longitude</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I87" s="32" t="str">
         <f>IF(D87="N","NA",VLOOKUP(A87,Common!$A$2:$D$200,4,FALSE))</f>
@@ -33323,18 +33215,18 @@
       </c>
       <c r="J87" s="32" t="str">
         <f>VLOOKUP(A87,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Longitude associated with the selected location</v>
+        <v>The number of unique assignees on patents for a given location.</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
         <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -33347,24 +33239,24 @@
       </c>
       <c r="G88" s="6" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>State</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I88" s="32" t="str">
         <f>IF(D88="N","NA",VLOOKUP(A88,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>NA</v>
       </c>
       <c r="J88" s="32" t="str">
         <f>VLOOKUP(A88,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>State assocaited with a location</v>
+        <v>The number of unique inventors on patents for a given location.</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
         <v>183</v>
@@ -33383,7 +33275,7 @@
       </c>
       <c r="G89" s="6" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H89" s="32" t="str">
         <f>IF(D89="N","NA",VLOOKUP(A89,Common!$A$2:$C$200,3,FALSE))</f>
@@ -33395,18 +33287,18 @@
       </c>
       <c r="J89" s="32" t="str">
         <f>VLOOKUP(A89,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of unique assignees on patents for a given location.</v>
+        <v>The number of patents for the selected location</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -33419,30 +33311,30 @@
       </c>
       <c r="G90" s="6" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Category ID</v>
       </c>
       <c r="H90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I90" s="32" t="str">
         <f>IF(D90="N","NA",VLOOKUP(A90,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
       </c>
       <c r="J90" s="32" t="str">
         <f>VLOOKUP(A90,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of unique inventors on patents for a given location.</v>
+        <v>NBER category ID (see nber_category_title for details)</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -33455,30 +33347,30 @@
       </c>
       <c r="G91" s="6" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Category Title</v>
       </c>
       <c r="H91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I91" s="32" t="str">
         <f>IF(D91="N","NA",VLOOKUP(A91,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
       </c>
       <c r="J91" s="32" t="str">
         <f>VLOOKUP(A91,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents for the selected location</v>
+        <v>Description of NBER category</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
         <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -33491,30 +33383,30 @@
       </c>
       <c r="G92" s="6" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category ID</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I92" s="32" t="str">
         <f>IF(D92="N","NA",VLOOKUP(A92,Common!$A$2:$D$200,4,FALSE))</f>
-        <v xml:space="preserve">1 | 2 | 3 | 4 | 5 | 6 | 7 </v>
+        <v>NA</v>
       </c>
       <c r="J92" s="32" t="str">
         <f>VLOOKUP(A92,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER category ID (see nber_category_title for details)</v>
+        <v>The date of the earliest patent within a NBER subcategory</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -33527,30 +33419,30 @@
       </c>
       <c r="G93" s="6" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Category Title</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I93" s="32" t="str">
         <f>IF(D93="N","NA",VLOOKUP(A93,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Chemical | Cmp &amp; Cmm | Drgs&amp;Med | Elec |  Mech | Others | Unclassified</v>
+        <v>NA</v>
       </c>
       <c r="J93" s="32" t="str">
         <f>VLOOKUP(A93,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER category</v>
+        <v>The date of the most recent patent within a NBER subcategory</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -33563,30 +33455,30 @@
       </c>
       <c r="G94" s="6" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Subcategory ID</v>
       </c>
       <c r="H94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I94" s="32" t="str">
         <f>IF(D94="N","NA",VLOOKUP(A94,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
       </c>
       <c r="J94" s="32" t="str">
         <f>VLOOKUP(A94,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a NBER subcategory</v>
+        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -33599,30 +33491,30 @@
       </c>
       <c r="G95" s="6" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Subcategory Title</v>
       </c>
       <c r="H95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I95" s="32" t="str">
         <f>IF(D95="N","NA",VLOOKUP(A95,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
       </c>
       <c r="J95" s="32" t="str">
         <f>VLOOKUP(A95,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a NBER subcategory</v>
+        <v>Description of NBER subcategory</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -33635,30 +33527,30 @@
       </c>
       <c r="G96" s="6" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory ID</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I96" s="32" t="str">
         <f>IF(D96="N","NA",VLOOKUP(A96,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>'11 | 12 | 13 | 14 | 15 | 19 | 21 | 22 | 23 | 24 | 25 | 31 | 32 | 33 | 39 | 41 | 42 | 43 | 44 | 45 | 46 | 49 | 51 | 52 | 53 | 54 | 55 | 59 | 61 | 62 | 63 | 64 | 65 | 66 | 67 | 68 | 69 | 70'</v>
+        <v>NA</v>
       </c>
       <c r="J96" s="32" t="str">
         <f>VLOOKUP(A96,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>NBER subcategory ID (See nber_subcategory_title for details)</v>
+        <v>The total number of unique assignees on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -33671,24 +33563,24 @@
       </c>
       <c r="G97" s="6" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subcategory Title</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I97" s="32" t="str">
         <f>IF(D97="N","NA",VLOOKUP(A97,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>Unclassified | Transportation | Semiconductor Devices | Resins | Receptacles | Power Systems | Pipes &amp; Joints | Organic Compounds | Optics | Nuclear &amp; X-rays | Motors &amp; Engines + Parts | Miscellaneous | Metal Working | Measuring &amp; Testing | Mat. Proc &amp; Handling | Information Storage | Heating | Genetics | Gas | Furniture,House Fixtures | Electronic business methods and software | Electrical Lighting | Electrical Devices | Earth Working &amp; Wells | Drugs | Computer Peripherials | Computer Hardware &amp; Software | Communications | Coating | Apparel &amp; Textile | Amusement Devices | Agriculture,Husbandry,Food | Agriculture,Food,Textiles'</v>
+        <v>NA</v>
       </c>
       <c r="J97" s="32" t="str">
         <f>VLOOKUP(A97,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Description of NBER subcategory</v>
+        <v>The total number of unique inventors on patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
@@ -33707,7 +33599,7 @@
       </c>
       <c r="G98" s="6" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H98" s="32" t="str">
         <f>IF(D98="N","NA",VLOOKUP(A98,Common!$A$2:$C$200,3,FALSE))</f>
@@ -33719,21 +33611,21 @@
       </c>
       <c r="J98" s="32" t="str">
         <f>VLOOKUP(A98,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a NBER subcategory</v>
+        <v>The total number of patents within a NBER subcategory</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -33743,11 +33635,11 @@
       </c>
       <c r="G99" s="6" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
+        <v>Abstract</v>
       </c>
       <c r="H99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I99" s="32" t="str">
         <f>IF(D99="N","NA",VLOOKUP(A99,Common!$A$2:$D$200,4,FALSE))</f>
@@ -33755,15 +33647,15 @@
       </c>
       <c r="J99" s="32" t="str">
         <f>VLOOKUP(A99,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents within a NBER subcategory</v>
+        <v>Abtract associated with the patent</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -33779,7 +33671,7 @@
       </c>
       <c r="G100" s="6" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
+        <v>Average Processing Time</v>
       </c>
       <c r="H100" s="32" t="str">
         <f>IF(D100="N","NA",VLOOKUP(A100,Common!$A$2:$C$200,3,FALSE))</f>
@@ -33791,21 +33683,21 @@
       </c>
       <c r="J100" s="32" t="str">
         <f>VLOOKUP(A100,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a NBER subcategory</v>
+        <v>Average processing time for patents belonging to the same USPC mainclass category as the selected patent</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -33815,30 +33707,30 @@
       </c>
       <c r="G101" s="6" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Abstract</v>
+        <v>Country</v>
       </c>
       <c r="H101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I101" s="32" t="str">
         <f>IF(D101="N","NA",VLOOKUP(A101,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>US</v>
       </c>
       <c r="J101" s="32" t="str">
         <f>VLOOKUP(A101,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Abtract associated with the patent</v>
+        <v>Country assciated with a patent (always U.S.)</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
         <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -33851,11 +33743,11 @@
       </c>
       <c r="G102" s="6" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Average Processing Time</v>
+        <v>Date</v>
       </c>
       <c r="H102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I102" s="32" t="str">
         <f>IF(D102="N","NA",VLOOKUP(A102,Common!$A$2:$D$200,4,FALSE))</f>
@@ -33863,12 +33755,12 @@
       </c>
       <c r="J102" s="32" t="str">
         <f>VLOOKUP(A102,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Average processing time for patents belonging to the same USPC mainclass category as the selected patent</v>
+        <v>Date patent was granted</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
@@ -33887,30 +33779,30 @@
       </c>
       <c r="G103" s="6" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Country</v>
+        <v>First Named Assignee City</v>
       </c>
       <c r="H103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I103" s="32" t="str">
         <f>IF(D103="N","NA",VLOOKUP(A103,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>US</v>
+        <v>NA</v>
       </c>
       <c r="J103" s="32" t="str">
         <f>VLOOKUP(A103,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Country assciated with a patent (always U.S.)</v>
+        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
         <v>112</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -33923,24 +33815,24 @@
       </c>
       <c r="G104" s="6" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Date</v>
+        <v>First Named Assignee Country</v>
       </c>
       <c r="H104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I104" s="32" t="str">
         <f>IF(D104="N","NA",VLOOKUP(A104,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of countries</v>
       </c>
       <c r="J104" s="32" t="str">
         <f>VLOOKUP(A104,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Date patent was granted</v>
+        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
@@ -33959,7 +33851,7 @@
       </c>
       <c r="G105" s="6" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee City</v>
+        <v>First Named Assignee ID</v>
       </c>
       <c r="H105" s="32" t="str">
         <f>IF(D105="N","NA",VLOOKUP(A105,Common!$A$2:$C$200,3,FALSE))</f>
@@ -33971,21 +33863,21 @@
       </c>
       <c r="J105" s="32" t="str">
         <f>VLOOKUP(A105,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) assignee on a patent.</v>
+        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -33995,24 +33887,24 @@
       </c>
       <c r="G106" s="6" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Country</v>
+        <v>First Named Assignee Latitude</v>
       </c>
       <c r="H106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I106" s="32" t="str">
         <f>IF(D106="N","NA",VLOOKUP(A106,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J106" s="32" t="str">
         <f>VLOOKUP(A106,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
@@ -34031,7 +33923,7 @@
       </c>
       <c r="G107" s="6" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee ID</v>
+        <v>First Named Assignee Location ID</v>
       </c>
       <c r="H107" s="32" t="str">
         <f>IF(D107="N","NA",VLOOKUP(A107,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34043,12 +33935,12 @@
       </c>
       <c r="J107" s="32" t="str">
         <f>VLOOKUP(A107,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
         <v>112</v>
@@ -34067,7 +33959,7 @@
       </c>
       <c r="G108" s="6" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Latitude</v>
+        <v>First Named Assignee Longitude</v>
       </c>
       <c r="H108" s="32" t="str">
         <f>IF(D108="N","NA",VLOOKUP(A108,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34079,12 +33971,12 @@
       </c>
       <c r="J108" s="32" t="str">
         <f>VLOOKUP(A108,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
         <v>112</v>
@@ -34103,33 +33995,33 @@
       </c>
       <c r="G109" s="6" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Location ID</v>
+        <v>First Named Assignee State</v>
       </c>
       <c r="H109" s="32" t="str">
         <f>IF(D109="N","NA",VLOOKUP(A109,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I109" s="32" t="str">
         <f>IF(D109="N","NA",VLOOKUP(A109,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J109" s="32" t="str">
         <f>VLOOKUP(A109,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -34139,11 +34031,11 @@
       </c>
       <c r="G110" s="6" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee Longitude</v>
+        <v>First Named Inventor City</v>
       </c>
       <c r="H110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I110" s="32" t="str">
         <f>IF(D110="N","NA",VLOOKUP(A110,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34151,12 +34043,12 @@
       </c>
       <c r="J110" s="32" t="str">
         <f>VLOOKUP(A110,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -34175,7 +34067,7 @@
       </c>
       <c r="G111" s="6" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Assignee State</v>
+        <v>First Named Inventor Country</v>
       </c>
       <c r="H111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34183,16 +34075,16 @@
       </c>
       <c r="I111" s="32" t="str">
         <f>IF(D111="N","NA",VLOOKUP(A111,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>List of countries</v>
       </c>
       <c r="J111" s="32" t="str">
         <f>VLOOKUP(A111,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) assignee on a patent</v>
+        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
@@ -34211,7 +34103,7 @@
       </c>
       <c r="G112" s="6" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor City</v>
+        <v>First Named Inventor ID</v>
       </c>
       <c r="H112" s="32" t="str">
         <f>IF(D112="N","NA",VLOOKUP(A112,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34223,21 +34115,21 @@
       </c>
       <c r="J112" s="32" t="str">
         <f>VLOOKUP(A112,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The city for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -34247,24 +34139,24 @@
       </c>
       <c r="G113" s="6" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Country</v>
+        <v>First Named Inventor Latitude</v>
       </c>
       <c r="H113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>NA</v>
       </c>
       <c r="I113" s="32" t="str">
         <f>IF(D113="N","NA",VLOOKUP(A113,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of countries</v>
+        <v>NA</v>
       </c>
       <c r="J113" s="32" t="str">
         <f>VLOOKUP(A113,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The country for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -34283,7 +34175,7 @@
       </c>
       <c r="G114" s="6" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor ID</v>
+        <v>First Named Inventor Location ID</v>
       </c>
       <c r="H114" s="32" t="str">
         <f>IF(D114="N","NA",VLOOKUP(A114,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34295,12 +34187,12 @@
       </c>
       <c r="J114" s="32" t="str">
         <f>VLOOKUP(A114,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Inventor ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
         <v>112</v>
@@ -34319,7 +34211,7 @@
       </c>
       <c r="G115" s="6" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Latitude</v>
+        <v>First Named Inventor Longitude</v>
       </c>
       <c r="H115" s="32" t="str">
         <f>IF(D115="N","NA",VLOOKUP(A115,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34331,12 +34223,12 @@
       </c>
       <c r="J115" s="32" t="str">
         <f>VLOOKUP(A115,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The latitude for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
         <v>112</v>
@@ -34355,33 +34247,33 @@
       </c>
       <c r="G116" s="6" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Location ID</v>
+        <v>First Named Inventor State</v>
       </c>
       <c r="H116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I116" s="32" t="str">
         <f>IF(D116="N","NA",VLOOKUP(A116,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>List of states</v>
       </c>
       <c r="J116" s="32" t="str">
         <f>VLOOKUP(A116,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The Location ID for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B117" t="s">
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -34391,11 +34283,11 @@
       </c>
       <c r="G117" s="6" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor Longitude</v>
+        <v>ID</v>
       </c>
       <c r="H117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I117" s="32" t="str">
         <f>IF(D117="N","NA",VLOOKUP(A117,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34403,12 +34295,12 @@
       </c>
       <c r="J117" s="32" t="str">
         <f>VLOOKUP(A117,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The longitude for the first-named (i.e. first in the list) inventor on  patent.</v>
+        <v>US Patent number, as assigned by USPTO</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
         <v>112</v>
@@ -34427,7 +34319,7 @@
       </c>
       <c r="G118" s="6" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Named Inventor State</v>
+        <v>Kind</v>
       </c>
       <c r="H118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34435,16 +34327,16 @@
       </c>
       <c r="I118" s="32" t="str">
         <f>IF(D118="N","NA",VLOOKUP(A118,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>List of states</v>
+        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
       </c>
       <c r="J118" s="32" t="str">
         <f>VLOOKUP(A118,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The state for the first-named (i.e. first in the list) inventor on a patent</v>
+        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
         <v>112</v>
@@ -34463,7 +34355,7 @@
       </c>
       <c r="G119" s="6" t="str">
         <f>VLOOKUP(A119,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>ID</v>
+        <v>Number</v>
       </c>
       <c r="H119" s="32" t="str">
         <f>IF(D119="N","NA",VLOOKUP(A119,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34480,13 +34372,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B120" t="s">
         <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -34499,33 +34391,33 @@
       </c>
       <c r="G120" s="6" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Kind</v>
+        <v>Number Cited by US Patents</v>
       </c>
       <c r="H120" s="32" t="str">
         <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I120" s="32" t="str">
         <f>IF(D120="N","NA",VLOOKUP(A120,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>A | E | S | I5 | P | B1 | B2 | S1 | H | H1 | H2 | P2 | P3 | E1 | I4</v>
+        <v>NA</v>
       </c>
       <c r="J120" s="32" t="str">
         <f>VLOOKUP(A120,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>World Intellectual Property Organization (WIPO) Standard ST.16 Patent Code (http://www.uspto.gov/learning-and-resources/support-centers/electronic-business-center/kind-codes-included-uspto-patent)</v>
+        <v>The number of times a patent was cited by other US patents</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="B121" t="s">
         <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -34535,11 +34427,11 @@
       </c>
       <c r="G121" s="6" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number</v>
+        <v>Number Cited by US Patents for Location</v>
       </c>
       <c r="H121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>NA</v>
       </c>
       <c r="I121" s="32" t="str">
         <f>IF(D121="N","NA",VLOOKUP(A121,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34547,12 +34439,12 @@
       </c>
       <c r="J121" s="32" t="str">
         <f>VLOOKUP(A121,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>US Patent number, as assigned by USPTO</v>
+        <v>The number of times a patent was cited by other US patents for a selected location</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
         <v>112</v>
@@ -34561,7 +34453,7 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -34571,11 +34463,11 @@
       </c>
       <c r="G122" s="6" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number Cited by US Patents</v>
+        <v>Number of Claims</v>
       </c>
       <c r="H122" s="32" t="str">
         <f>IF(D122="N","NA",VLOOKUP(A122,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>NA</v>
       </c>
       <c r="I122" s="32" t="str">
         <f>IF(D122="N","NA",VLOOKUP(A122,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34583,12 +34475,12 @@
       </c>
       <c r="J122" s="32" t="str">
         <f>VLOOKUP(A122,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of times a patent was cited by other US patents</v>
+        <v>Number of claim statements on patent</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
         <v>112</v>
@@ -34597,7 +34489,7 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -34607,11 +34499,11 @@
       </c>
       <c r="G123" s="6" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number Cited by US Patents for Location</v>
+        <v>Number of Combined Citations</v>
       </c>
       <c r="H123" s="32" t="str">
         <f>IF(D123="N","NA",VLOOKUP(A123,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I123" s="32" t="str">
         <f>IF(D123="N","NA",VLOOKUP(A123,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34619,12 +34511,12 @@
       </c>
       <c r="J123" s="32" t="str">
         <f>VLOOKUP(A123,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of times a patent was cited by other US patents for a selected location</v>
+        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
@@ -34633,7 +34525,7 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -34643,11 +34535,11 @@
       </c>
       <c r="G124" s="6" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Claims</v>
+        <v>Number of Foreign Citations</v>
       </c>
       <c r="H124" s="32" t="str">
         <f>IF(D124="N","NA",VLOOKUP(A124,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I124" s="32" t="str">
         <f>IF(D124="N","NA",VLOOKUP(A124,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34655,12 +34547,12 @@
       </c>
       <c r="J124" s="32" t="str">
         <f>VLOOKUP(A124,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Number of claim statements on patent</v>
+        <v>The number of foreign patents that the selected patent cites</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
         <v>112</v>
@@ -34679,7 +34571,7 @@
       </c>
       <c r="G125" s="6" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Combined Citations</v>
+        <v>Number of US Application Citations</v>
       </c>
       <c r="H125" s="32" t="str">
         <f>IF(D125="N","NA",VLOOKUP(A125,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34691,12 +34583,12 @@
       </c>
       <c r="J125" s="32" t="str">
         <f>VLOOKUP(A125,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents and applications cited by the selected patent. This is the sum of citations of US patents , citations of foreign patents, and US applications.</v>
+        <v>The number of applications that the selected patent cites</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
         <v>112</v>
@@ -34715,7 +34607,7 @@
       </c>
       <c r="G126" s="6" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Foreign Citations</v>
+        <v>Number of US Patent Citations</v>
       </c>
       <c r="H126" s="32" t="str">
         <f>IF(D126="N","NA",VLOOKUP(A126,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34727,12 +34619,12 @@
       </c>
       <c r="J126" s="32" t="str">
         <f>VLOOKUP(A126,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of foreign patents that the selected patent cites</v>
+        <v>The number of other US patents that the selected patent cites</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B127" t="s">
         <v>112</v>
@@ -34751,7 +34643,7 @@
       </c>
       <c r="G127" s="6" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Application Citations</v>
+        <v>Processing Time</v>
       </c>
       <c r="H127" s="32" t="str">
         <f>IF(D127="N","NA",VLOOKUP(A127,Common!$A$2:$C$200,3,FALSE))</f>
@@ -34763,18 +34655,18 @@
       </c>
       <c r="J127" s="32" t="str">
         <f>VLOOKUP(A127,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of applications that the selected patent cites</v>
+        <v>Time from application date to granted date for a patent</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B128" t="s">
         <v>112</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -34787,11 +34679,11 @@
       </c>
       <c r="G128" s="6" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of US Patent Citations</v>
+        <v>Title</v>
       </c>
       <c r="H128" s="32" t="str">
         <f>IF(D128="N","NA",VLOOKUP(A128,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I128" s="32" t="str">
         <f>IF(D128="N","NA",VLOOKUP(A128,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34799,18 +34691,18 @@
       </c>
       <c r="J128" s="32" t="str">
         <f>VLOOKUP(A128,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of other US patents that the selected patent cites</v>
+        <v>Title of the  patent</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -34823,30 +34715,30 @@
       </c>
       <c r="G129" s="6" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Processing Time</v>
+        <v>Type</v>
       </c>
       <c r="H129" s="32" t="str">
         <f>IF(D129="N","NA",VLOOKUP(A129,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Drop Down Menu</v>
       </c>
       <c r="I129" s="32" t="str">
         <f>IF(D129="N","NA",VLOOKUP(A129,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
       </c>
       <c r="J129" s="32" t="str">
         <f>VLOOKUP(A129,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Time from application date to granted date for a patent</v>
+        <v>Category of patent</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -34859,11 +34751,11 @@
       </c>
       <c r="G130" s="6" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Title</v>
+        <v>Year</v>
       </c>
       <c r="H130" s="32" t="str">
         <f>IF(D130="N","NA",VLOOKUP(A130,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I130" s="32" t="str">
         <f>IF(D130="N","NA",VLOOKUP(A130,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34871,18 +34763,18 @@
       </c>
       <c r="J130" s="32" t="str">
         <f>VLOOKUP(A130,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Title of the  patent</v>
+        <v>Year patent was granted</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -34895,30 +34787,30 @@
       </c>
       <c r="G131" s="6" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Type</v>
+        <v>First Seen Date</v>
       </c>
       <c r="H131" s="32" t="str">
         <f>IF(D131="N","NA",VLOOKUP(A131,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Drop Down Menu</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I131" s="32" t="str">
         <f>IF(D131="N","NA",VLOOKUP(A131,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NULL | Defensive Publcation | Design | Plant | Reissue | Statutory Invention Registration | TVPP | Utility</v>
+        <v>NA</v>
       </c>
       <c r="J131" s="32" t="str">
         <f>VLOOKUP(A131,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Category of patent</v>
+        <v>The date of the earliest patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -34931,11 +34823,11 @@
       </c>
       <c r="G132" s="6" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Year</v>
+        <v>Last Seen Date</v>
       </c>
       <c r="H132" s="32" t="str">
         <f>IF(D132="N","NA",VLOOKUP(A132,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I132" s="32" t="str">
         <f>IF(D132="N","NA",VLOOKUP(A132,Common!$A$2:$D$200,4,FALSE))</f>
@@ -34943,18 +34835,18 @@
       </c>
       <c r="J132" s="32" t="str">
         <f>VLOOKUP(A132,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Year patent was granted</v>
+        <v>The date of the most recent patent within a USPC mainclass</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B133" t="s">
         <v>145</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -34967,30 +34859,30 @@
       </c>
       <c r="G133" s="6" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>First Seen Date</v>
+        <v>Mainclass ID</v>
       </c>
       <c r="H133" s="32" t="str">
         <f>IF(D133="N","NA",VLOOKUP(A133,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field with link to Data Values</v>
       </c>
       <c r="I133" s="32" t="str">
         <f>IF(D133="N","NA",VLOOKUP(A133,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
+        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
       </c>
       <c r="J133" s="32" t="str">
         <f>VLOOKUP(A133,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the earliest patent within a USPC mainclass</v>
+        <v>ID of the USPC mainclass</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
         <v>145</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -35003,7 +34895,7 @@
       </c>
       <c r="G134" s="6" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Last Seen Date</v>
+        <v>Mainclass Title</v>
       </c>
       <c r="H134" s="32" t="str">
         <f>IF(D134="N","NA",VLOOKUP(A134,Common!$A$2:$C$200,3,FALSE))</f>
@@ -35015,21 +34907,21 @@
       </c>
       <c r="J134" s="32" t="str">
         <f>VLOOKUP(A134,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The date of the most recent patent within a USPC mainclass</v>
+        <v>Text describing USPC mainclass</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="B135" t="s">
         <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -35039,24 +34931,24 @@
       </c>
       <c r="G135" s="6" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass ID</v>
+        <v>Number of Patents for Location</v>
       </c>
       <c r="H135" s="32" t="str">
         <f>IF(D135="N","NA",VLOOKUP(A135,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field with link to Data Values</v>
+        <v>NA</v>
       </c>
       <c r="I135" s="32" t="str">
         <f>IF(D135="N","NA",VLOOKUP(A135,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>http://www.uspto.gov/web/patents/classification/selectbynum.htm</v>
+        <v>NA</v>
       </c>
       <c r="J135" s="32" t="str">
         <f>VLOOKUP(A135,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of the USPC mainclass</v>
+        <v>The number of patents within a USPC mainclass for a given location</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
         <v>145</v>
@@ -35075,7 +34967,7 @@
       </c>
       <c r="G136" s="6" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Mainclass Title</v>
+        <v>Subclass ID</v>
       </c>
       <c r="H136" s="32" t="str">
         <f>IF(D136="N","NA",VLOOKUP(A136,Common!$A$2:$C$200,3,FALSE))</f>
@@ -35087,21 +34979,21 @@
       </c>
       <c r="J136" s="32" t="str">
         <f>VLOOKUP(A136,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC mainclass</v>
+        <v>ID of USPC subclass</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
         <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -35111,11 +35003,11 @@
       </c>
       <c r="G137" s="6" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Number of Patents for Location</v>
+        <v>Subclass Title</v>
       </c>
       <c r="H137" s="32" t="str">
         <f>IF(D137="N","NA",VLOOKUP(A137,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>NA</v>
+        <v>Open Field, No Validation</v>
       </c>
       <c r="I137" s="32" t="str">
         <f>IF(D137="N","NA",VLOOKUP(A137,Common!$A$2:$D$200,4,FALSE))</f>
@@ -35123,18 +35015,18 @@
       </c>
       <c r="J137" s="32" t="str">
         <f>VLOOKUP(A137,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The number of patents within a USPC mainclass for a given location</v>
+        <v>Text describing USPC subclass</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -35147,11 +35039,11 @@
       </c>
       <c r="G138" s="6" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass ID</v>
+        <v>Total Number of Assignees</v>
       </c>
       <c r="H138" s="32" t="str">
         <f>IF(D138="N","NA",VLOOKUP(A138,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I138" s="32" t="str">
         <f>IF(D138="N","NA",VLOOKUP(A138,Common!$A$2:$D$200,4,FALSE))</f>
@@ -35159,18 +35051,18 @@
       </c>
       <c r="J138" s="32" t="str">
         <f>VLOOKUP(A138,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>ID of USPC subclass</v>
+        <v>The total number of unique assignees on patents within a USPC mainclass</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -35183,11 +35075,11 @@
       </c>
       <c r="G139" s="6" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Subclass Title</v>
+        <v>Total Number of Inventors</v>
       </c>
       <c r="H139" s="32" t="str">
         <f>IF(D139="N","NA",VLOOKUP(A139,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, No Validation</v>
+        <v>Open Field, Validation</v>
       </c>
       <c r="I139" s="32" t="str">
         <f>IF(D139="N","NA",VLOOKUP(A139,Common!$A$2:$D$200,4,FALSE))</f>
@@ -35195,12 +35087,12 @@
       </c>
       <c r="J139" s="32" t="str">
         <f>VLOOKUP(A139,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>Text describing USPC subclass</v>
+        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
@@ -35219,7 +35111,7 @@
       </c>
       <c r="G140" s="6" t="str">
         <f>VLOOKUP(A140,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Assignees</v>
+        <v>Total Number of Patents</v>
       </c>
       <c r="H140" s="32" t="str">
         <f>IF(D140="N","NA",VLOOKUP(A140,Common!$A$2:$C$200,3,FALSE))</f>
@@ -35231,83 +35123,11 @@
       </c>
       <c r="J140" s="32" t="str">
         <f>VLOOKUP(A140,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique assignees on patents within a USPC mainclass</v>
+        <v>The total number of patents within a USPC mainclass</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>153</v>
-      </c>
-      <c r="B141" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f>VLOOKUP(A141,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Inventors</v>
-      </c>
-      <c r="H141" s="32" t="str">
-        <f>IF(D141="N","NA",VLOOKUP(A141,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
-      </c>
-      <c r="I141" s="32" t="str">
-        <f>IF(D141="N","NA",VLOOKUP(A141,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
-      </c>
-      <c r="J141" s="32" t="str">
-        <f>VLOOKUP(A141,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of unique inventors on patents  within a USPC mainclass</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>154</v>
-      </c>
-      <c r="B142" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="6" t="str">
-        <f>VLOOKUP(A142,Common!$A$2:$B$199,2, FALSE)</f>
-        <v>Total Number of Patents</v>
-      </c>
-      <c r="H142" s="32" t="str">
-        <f>IF(D142="N","NA",VLOOKUP(A142,Common!$A$2:$C$200,3,FALSE))</f>
-        <v>Open Field, Validation</v>
-      </c>
-      <c r="I142" s="32" t="str">
-        <f>IF(D142="N","NA",VLOOKUP(A142,Common!$A$2:$D$200,4,FALSE))</f>
-        <v>NA</v>
-      </c>
-      <c r="J142" s="32" t="str">
-        <f>VLOOKUP(A142,Common!$A$2:$E$199,5, FALSE)</f>
-        <v>The total number of patents within a USPC mainclass</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G143" s="6"/>
+      <c r="G141" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:I143">
